--- a/coupang_reviews_final.xlsx
+++ b/coupang_reviews_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -965,6 +965,4759 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>고또또최고</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025.10.02</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>보리차는 역시 하늘보리죠 ㅎㅎ</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>✔️구매동기
+아이 어릴때 부터 늘 보리차를 끓여 마시다 보니 집안 식구들이 생수를 안마셔요.. 정수기가 있어도 보리차만 찾는데 보리차 끓이면 2~3일만에 동나더라구요. 더울땐 정말 물 끓이기 귀찮거든요ㅠㅠ 올여름에 누룽지차랑 보리차 번갈아가면서 집에 사둬서 아주 편하게 잘 보냈어요 ㅎㅎ 누룽지차 마시다가 하늘보리 세일하길래 냉큼 구매했네요^^
+✔️장점
+o 남이 끓여주는 보리차 맛이 최고죠 ㅎㅎ 손가는일 없게 냉장고에 몇병씩 넣어두면 식구들이 알아서 잘 꺼내마십니다. 보리차 특유의 고소함에 아이도 어른들도 잘 마시네요^^ 확실히 생수보단 보리차죠 ㅎㅎ
+o 간혹 이런 패트병에 든 차 종류에 불순물이 있는 경우가 있다고 해서 늘 받아보면 그것부터 확인하는데 20병 모두 아주 깨끗한 것들로 잘 받았어요^^ 침전물 하나 없이 깨끗하게 왔습니다.
+o 500ml 사다가 350ml를 샀더니 크기가 확 작아진 기분이네요 ㅎㅎ 용량이 작아진 대신 작은 가방에도 쏙쏙 잘 들어가서 가지고 다니기엔 더 편하네요^^
+o 소비기한 길어요. 25년 9월에 주문했는데 26년 8월까지인 제품 받았어요. 하루 2병씩도 마셔지기 때문에 금방 마실것 같네요^^
+✔️단점
+o 분리수거할때 겉에 띠지를 때고 버려야 하는데.. 이런 종류의 물병들이 정말 겉에 포장지가 잘 안떨어지더라구요ㅠㅠ 한번에 쫙 뜯기게 만들어주심 정말 좋을것 같아요!
+✔️총평
+정말 저렴하게 잘 샀어요 ㅎㅎ 편의점 반값으로 쿠팡에서 물을 사게 되네요 늘^^ 보리차도 누룽지차도 가격이 저렴해서 부담없이 마시기 좋아요. 집에서 끓여마시는게 가장 건강하겠지만 가끔은 이렇게 편한 생활을 누리는 것도 좋네요 ㅎㅎㅎ 세일 자주 하면 좋겠어요^^ 맛있게 잘 마시고 있습니다^^</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>이*빈</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025.10.02</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 1.5L, 12개</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>하늘보리 1.5L, 12개 솔직후기 ☁️
+요즘 탄산음료나 단 음료수는 좀 질리고,
+그래서 찾은 게 바로 요 하늘보리예요!
+물 대용으로 부담 없이 마시기 너무 좋고,
+무엇보다 구수~한 보리향이 은은하게 나서
+목 넘김이 진짜 부드럽고 깔끔해요 ☺️
+1.5L 대용량에 12개 구성이라 냉장고에 쟁여두고 마시기 딱!
+집에서도 마시고, 회사 가져가기도 좋고,
+캠핑이나 피크닉 갈 때도 하나 챙겨 가면 센스 있는 느낌
+뚜껑도 잘 닫혀서 다 마시지 않아도 OK! 보관도 편해요.
+저는 보리차 특유의 구수한 향을 좋아하는 편이라
+이 제품 진짜 만족스럽더라고요.
+무카페인이라 늦은 밤에도 부담 없이 마실 수 있어서
+밤에 물 대신 한 잔, 자기 전에도 한 잔~
+특히 여름엔 얼음 잔에 따라 마시면… 와 진짜 꿀맛이에요❄️❄️
+그리고 무라벨이라는 점도 은근히 좋았어요!
+분리수거할 때 라벨 안 떼도 돼서 너무 편하고
+환경까지 생각한 제품이라는 느낌에 호감도 상승 ⬆️
+이런 디테일이 소비자 마음 잡는 거 아니겠어요?
+과하게 달지도 않고, 인공적인 맛도 없고
+그냥 진짜 깔끔하고 구수한 전통 보리차 느낌이에요.
+무슨 향 첨가된 것 같은 자극적인 맛도 아니고,
+그래서 가족 모두가 함께 마셔도 부담 없어요.
+저는 부모님도 챙겨드렸는데 너무 좋아하시더라고요
+참고로, 보리차 좋아하시는 분들한테는
+물보다 더 자주 찾게 되는 음료일 수도 있어요.
+카페인 때문에 커피 줄이고 싶은 분들한테도 강추!
+✅ 총평
+✔️ 구수하고 깔끔한 보리차, 언제 마셔도 부담 없음
+✔️ 대용량이라 가성비 좋고, 다양하게 활용 가능
+✔️ 무라벨로 환경도 챙기고, 분리수거도 편함
+✔️ 무카페인이라 온 가족이 함께 마시기 Good
+한 번 마시면 자꾸 손 가는 맛!
+요즘은 물보다 하늘보리에 손이 더 많이 가요
+재구매? 당연하죠. 지금도 냉장고에 3병 대기 중입니다ㅋㅋ
+#하늘보리 #무라벨보리차 #깔끔보리차 #대용량음료 #무카페인굿 #보리차최고</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>진정성리뷰</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025.09.29</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>평소에 탄산음료나 단 음료는 자주 마시면 부담이 되는데, 목마를 때 가볍게 마실 수 있는 음료를 찾다가 하늘보리 500ml를 구매했습니다. 작은 용량이라 들고 다니기 딱 좋고, 한 번에 마시기도 적당해서 외출할 때나 운동할 때 챙겨가기가 편리하네요. 무엇보다도 깔끔하고 구수한 보리향이 나면서 뒷맛이 달지 않아 부담 없이 마실 수 있는 게 가장 큰 장점이에요.
+시원하게 냉장고에 넣어두었다가 꺼내 마시면 갈증이 확 풀리고, 뜨거운 날씨에 특히 잘 어울립니다. 무카페인이라 밤에 마셔도 전혀 부담이 없고, 아이들도 안심하고 함께 마실 수 있어요. 기름진 음식 먹을 때 같이 곁들이면 느끼함이 사라져서 훨씬 개운하게 식사를 마무리할 수 있습니다.
+500ml라서 한 번에 마시기 적당하지만, 가볍게 휴대할 수 있는 크기라 도시락이나 가방에 넣기도 좋아요. 뚜껑이 돌려닫는 방식이라 다 마시지 못했을 때 다시 닫아두었다가 마실 수 있는 것도 편리합니다. 1.5L나 2L 대용량도 집에서 마실 땐 좋지만, 개인이 이동하면서 마시기에는 이 500ml 사이즈가 가장 실용적인 것 같아요.
+맛은 다른 보리차 제품들과 비교했을 때도 깔끔하고 잡맛이 없으며, 물 대신 마셔도 부담이 없는 수준이라 하루 종일 마셔도 물리지 않습니다. 특히 단 음료를 줄이고 싶은 분들께 딱 좋은 대체 음료라고 생각해요. 가격도 합리적이고 대량으로 구매해두면 집이나 회사에서 항상 간편하게 즐길 수 있어서 만족도가 높습니다.
+전반적으로 맛, 휴대성, 가격까지 모두 만족스러워서 앞으로도 꾸준히 구매할 것 같아요. 여름뿐만 아니라 사계절 내내 부담 없이 즐기기에 좋은 음료라 강력히 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>마싱가</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025.10.25</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>₩ 구매가격 8960
+‍♀️구매자로서 최대한 솔직하게 작성해서
+도움을 드리도록 하겠습니다
+✔️구매동기, 제품특징, 장점
+외출시 물은 필수인데요
+생수보다 아이들이 보리차를 좋아하더라구요
+뽀로로 광동밀싹 하늘보리 블랙보리 종류별로 사먹고 있는데요
+이번에는 이제품이 가격이 좋아서 구매했어요
+맛은 흔히아는 보리차맛이구요
+다른제품보다 맛이 좀 진한 편이에요
+치커리추출물이랑 옥수수도 들어있어서 그런거 같아요
+시원하게 해서 먹으면 운동하고 마셨을때 딱이에요
+갈증해소에는 보리차 만한게 없는거 같아요
+아이도 축구 갔다와서 축구갈때 하나씩 들고 마시는데 용량이 딱 적당해서 외출시 들고다니기 좋아요
+500ml는 너무 커서 가지고 다니기 불편하더라구요
+근데 이건 아이한손에 들기도 쉽고 가지고 다니기 편리해요
+국산보리라 더 안심이구요
+✔️ 보완점, 아쉬운점
+특유의향이 좀 진한편이라서 순수 보리차맛 느끼고 싶다면 다른제품을 추천드립니다
+✔️ 추천여부
+아이들이 가지고다니기 좋은 보리차를 찾으신다면 추천드립니다
+➕꿀팁
+얼려서 드시면 더 맛있게 드실수 있어요
+단 가라앉고 분리되니 흔들어드세요</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>고*현</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025.10.28</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>당장 사세요!!</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>❤️ 가성비 확실한 보리차 음료
+세일할 때 구매했는데 가격이 정말 착했어용ㅎㅎ 한 박스에 20개라 냉장고에 넣어두면 마음이 든든해요 생각보다 금방 소진돼서 다음엔 두 박스는 사야겠다 싶을 정도...
+❤️ 휴대성 최고인 325ml 사이즈
+325ml라서 손에 쏙 들어오고 무겁지도 않아 외출할 때 한 병씩 들고 나가기 좋아여 아이랑 공원 나갈 때 차 안에서 마실 때 딱 맞는 양이라 편하고 조아여
+❤️ 깔끔하고 부드러운 맛
+보리향이 은은하고 목 넘김이 부드러움!! 생수처럼 밍밍하지 않으면서도 달지 않아 자주 찾게 되도 갈증 날 때 꿀꺽 마셔도 속이 편하고 텁텁하지 않네유
+❤️ 아이도 함께 마시기 좋은 무카페인
+카페인 걱정 없어서 아이도 부담 없이 마실 수 있어요 달지 않아서 식사 중에도 괜찮고 유제품이나 주스보다 깔끔해서 외출용으로도 만족스러움
+❤️ 보관과 활용도 모두 우수
+병뚜껑 형태라 마시다 남겨도 다시 닫아두면 되니 낭비 없고 휴대도 위생적임 냉장고에 딱 맞는 크기라 보관도 깔끔합니당 이지컷이 있어 버리기도 편함 아묻따 추천!!
+⭐️제 글이 도움 되셨다면 [도움이 돼요] 꾹 눌러 주세용⭐️</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>김*완</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025.10.22</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 24개</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>하늘보리 500ml는 몇 번이고 재구매하게 되는 믿고 마시는 보리차 음료예요. 카페인 없는 음료라서 남녀노소 누구나 부담 없이 마실 수 있고, 냉장고에 넣어두면 언제든 시원하게 꺼내 마시기 좋은 데일리 음료예요. 물처럼 깔끔하면서도 구수한 보리 향이 은은하게 나서, 식사할 때나 외출 시에도 자주 챙겨요. 특히 텁텁하지 않고 뒷맛이 깔끔해서 갈증 해소용으로 딱 좋아요.
+☆장점 : 먼저, 한 손에 쏙 들어오는 500ml 용량이라 휴대성이 정말 좋아요. 가방에 넣어 다니기에도 부담 없고, 외출이나 운동할 때 물 대신 들고 나가기에도 좋아요. 또, 무라벨 제품이라 분리수거가 간편하고 환경에도 조금은 덜 미안한 느낌이에요. 맛도 인공적인 단맛이 전혀 없어서 물처럼 자주 마셔도 질리지 않아요. 냉장고에 몇 병씩 넣어두면 가족들이 알아서 꺼내 마실 만큼 인기가 많아요.
+☆총평 : 시원하고 깔끔한 맛, 그리고 어디서나 편하게 마실 수 있는 실용적인 보리차예요. 커피나 탄산 대신 건강하게 마시기에도 좋고, 아이 있는 집이나 카페인에 예민한 분들께도 정말 추천드려요. 가격 대비 만족도 높고, 꾸준히 찾게 되는 데일리 음료예요.</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>일산서구민</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025.09.16</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 48개</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>휴대성이 좋고 관리하기 편하며, 구수하고 시원합니다.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>안녕하세요. 쿠팡리뷰어 일산서구민 입니다.
+웅진 하늘보리 500ml 48개에 대한 구매후기 입니다.
+우리아이는 어릴 때부터 하늘보리만 마시면서 자라서, 여덟살이 된 지금까지도 물은 늘 하늘보리만 먹고 있습니다. 그래서 항상 대량으로 구입하곤 하는데, 유라벨에 한상자 당 24병짜리가 가장 저렴하길래, 이걸로 재구매 하였습니다. 똑같은 제품인데도 20병짜리가 약간 더 비싸며, 무라벨은 훨씬 더 비쌉니다. 무라벨이 분리수거하긴 훨씬 더 편한데 가격차이가 너무 커서 그냥 라벨이 있는 것으로 구입하였습니다. 하늘보리는 다 좋은데 라벨을 뜯기가 너무 불편해서 이 부분이 개선되었으면 좋겠습니다.
+휴대성이 좋고 관리하기가 쉬워서, 편하게 먹이고 있습니다.
+500ml 페트병이라 가방에 넣어서 학교 갈때 한병씩 챙겨보내고 있습니다. 그리고 마찬가지로 학원갈 때도 한병씩 싸가고 있고 외출 할 때에도 가지고 다닙니다. 예전에 우리아이가 건강에 문제가 있을 때, 의료진의 권고사항으로 멸균 보리차를 마시기 시작했는데, 이제는 이게 너무 익숙해져서 이 물만 마시고 있습니다. 그리고 전에 수분섭취가 절실하게 중요한 시기에도 하늘보리 덕분에 아이 건강이 회복되어, 저희에겐 여러모로 의미가 있는 보리차 입니다. 또한 상온보관도 되고, 소비기한도 길었습니다.
+구수하고 맛있으며, 시원하고 개운해서 갈증이 해소됩니다.
+보리차의 특성 상, 구수한 맛이 있으며 일반물 보다는 당연히 맛있습니다. 그래서 물을 더 많이 마시게 되는 긍정적인 효과도 있었습니다. 게다가 갈증해소 효과가 탁월하여, 활동량이 많은 아이가 마시기에 최적화되어 있었습니다. 시원하고 개운한 느낌이 좋으며 항상 맛있게 물을 마실 수 있습니다. 물론 집에서 보리차를 끓여도 되긴 하지만, 가정에서 아무리 관리를 잘해도 세균번식을 막기란 거의 불가능에 가깝기 때문에, 저는 그냥 전문 제조시설에서 만든 멸균보리차를 먹이고 있습니다. 감사합니다.</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>이*석</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025.10.24</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 40개</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>입덧에 음료수보단 낫겠지 싶은 보리차</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>기다리고 기다리던 셋째 임신과 함께 예민한 엄마미에게 찾아온 입덧... 진짜 중식은 생각도 메뉴판도 못볼정도고
+차갑고 매운 음식만 땡기고
+맹물은 뭔가 비리면서 속이 안좋아지는걸 느끼고
+포카리를 한박스 구매해서 마셨습니다.
+근데 먹다보니... 걱정인게 저는 둘째때 임당이었기 때문에
+당류를 확인하니 역시 높아서 이대로는 당뇨오겠다 싶어서
+음료를 중단하고 물만 주구장창 마셨는데
+먹기가 힘들어서 보리차를 왕창 구매하게 되었어요.
+보리차에 나트륨이 좀 함유되어있어서 이또한 많이 먹으면 좋을 것 같지는 않지만, 그래도 음료수 대신해서 가끔 먹어주는건 괜찮겠다 싶습니다. 아이들도 물도 잘 마시지만 보리차가 꼬소하니 입에 맞는지 아주 잘 마셔줍니다.
+쿠팡답게 배송은 하루만에 도착하였고,
+박스에 잘 포장되어와서 훼손된 부분 없이 도착하였습니다.
+끓여먹는 보리차가 제일 좋겠지만
+애둘키우며 집안일하며 심한 입덧까지..
+언제 물끓여먹습니까...?
+가끔은 간편한게 최고라고 생각합니다
+남편도 이해해주길.. ㄴㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>전지원</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025.09.13</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 1.5L, 12개</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>구수하고 깔끔하니 맛있었어요.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>하늘보리 1.5L 12개 묶음을 주문해서 냉장고에 가득 채워 두었어요. 큰 병이라 용량이 넉넉해서 가족 모두가 함께 마시기에도 충분하고, 음료를 자주 사러 나가지 않아도 되니 참 편리했어요. 예전에는 보리차를 직접 끓여 마시곤 했는데, 여름철에는 물을 끓이고 식히는 과정이 번거롭고 더워서 잘 안 하게 되더라고요. 그런데 하늘보리를 준비해 두니 언제든지 시원하게 꺼내 마실 수 있어서 생활이 훨씬 편해졌어요.
+맛은 다른 음료처럼 달지 않고, 은은하게 구수하면서 깔끔해요. 그래서 아이도 맛있다고 자주 찾고, 어른들도 부담 없이 마실 수 있었어요. 기름진 음식을 먹은 후에 마시면 입안이 개운해지고, 외출 후 갈증이 심할 때 마시면 속이 시원하게 내려가는 느낌이 들어서 만족스러웠어요. 물처럼 편하게 마실 수 있지만 보리차 특유의 고소한 풍미가 있어 질리지 않고 계속 찾게 되더라고요.
+1.5L 대용량이라 한 번 꺼내면 가족끼리 함께 나눠 마시기 좋고, 12개 묶음으로 구매하니 든든하게 쟁여둘 수 있어 마음이 놓였어요. 냉장고 한쪽에 하늘보리만 가지런히 정리해 두니 보기에도 깔끔하고, 필요할 때마다 꺼내 마실 수 있어 생활이 한결 여유로워졌어요. 손님이 왔을 때도 시원하게 따라 드리면 반응이 좋았어요.
+물 대신 부담 없이 마실 수 있다는 점에서 가장 큰 장점이 있었고, 덕분에 음료 걱정이 줄어든 것도 좋았어요. 특히 아이부터 어른까지 모두 좋아하는 맛이라 집에서 함께 즐기기에 좋아요. 앞으로도 계속 냉장고에 쟁여두고 구수하면서도 깔끔한 맛을 즐길 생각이에요. 마실 때마다 마음까지 시원해지는 기분이 들어서, 다음에도 재구매할 생각이예요.</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>롱롱2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025.09.18</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>보리차는 역시 하늘보리&gt;&lt;</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>탄산음료는 줄이고 싶고, 물만 마시기엔 조금 심심할 때 딱 좋은 게 바로 하늘보리예요. 이번에 500ml짜리 20개 세트를 주문했는데, 역시 대용량으로 쟁여두니까 마음이 든든합니다.
+하늘보리는 이름 그대로 구수하면서도 깔끔한 보리차 맛이 특징이에요. 단맛이나 카페인이 없어서 아이부터 어른까지 부담 없이 마실 수 있고, 특히 여름철에는 냉장고에 넣어두었다가 시원하게 꺼내 마시면 갈증이 싹 풀립니다. 물 대신 마셔도 속이 편안하고, 식사할 때도 정말 잘 어울려요.
+500ml 페트병 사이즈라서 외출할 때 가방에 넣기에도 딱 적당하고, 집에서는 한 병씩 꺼내 먹기 좋아요. 1.5L 큰 병은 개봉하면 끝까지 다 못 마셔서 아쉬울 때가 있는데, 이건 개인용으로 알맞아 위생적으로도 만족스러워요.
+무엇보다 믿을 수 있는 건 보리 국내산 100% 사용이라는 점이에요. 그래서인지 맛이 더욱 깔끔하고, 끝맛이 텁텁하지 않더라고요. 아이도 물 대신 잘 마셔서 식사나 간식 때 챙겨주기 좋아요.
+총평
+장점: 구수한 보리차 맛, 카페인·당분 무첨가, 휴대성 좋은 500ml 사이즈, 대용량 가성비
+아쉬운 점: 시원하게 마셔야 맛이 더 살아서 냉장 보관은 필수
+저는 이제 음료수는 거의 안 사게 되고, 집에 항상 하늘보리를 쟁여두는 편이에요. 건강하게 수분 보충하고 싶은 분들께 적극 추천합니다</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>고선주</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025.09.07</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>구수하고 깔끔해서 물처럼 편하게, 운동 후엔 더 맛있게</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>집에서 음료는 늘 떨어지지 않게 쌓아두는 편인데, 탄산음료보다는 몸에 부담 없는 차 종류를 선호하다 보니 자연스럽게 하늘보리를 자주 사게 되더라고요. 이번에는 325ml 소용량 × 20개 세트를 구매했는데, 용량이 부담스럽지 않고 시원하게 한 병 마시기에 딱이라 아주 만족스럽습니다.
+맛과 특징
+하늘보리는 특유의 구수하고 깔끔한 보리차 맛이 장점이에요. 인위적인 단맛이 전혀 없고, 목 넘김이 부드러워서 남녀노소 누구나 부담 없이 즐길 수 있어요. 특히 기름진 음식 먹고 난 뒤나 운동 후에 마시면 입안이 개운해지고, 속도 편안해지는 느낌이 들어서 좋아요. 냉장고에 넣어두었다가 시원하게 꺼내 마시면 더할 나위 없죠.
+자녀들이 좋아하는 포인트
+우리 집 고딩 딸과 대딩 아들도 운동을 자주 하는 편인데, 땀 흘리고 난 후 탄산음료보다 하늘보리를 찾을 때가 많아요. 운동 후에 마시면 목도 시원하게 풀리고, 속이 부담스럽지 않으니까 자주 손이 가는 것 같아요. 물처럼 편하게 마실 수 있지만, 그냥 물보다 훨씬 맛있고 구수한 게 포인트랍니다.
+특히 딸은 학원 끝나고 난 후에도 가볍게 들고 다니면서 마시고, 아들은 헬스장에서 운동 마친 후에 한 병 시원하게 비우면 갈증이 확 풀린다고 하더라고요. 325ml라 들고 다니기에도 무겁지 않고, 남기지 않고 한 번에 마시기 딱 좋아서 더 만족스러워요.
+포장 &amp; 용량 만족도
+20개 세트라 넉넉하게 쟁여두고 가족 모두 함께 나눠 마시기 좋아요. 대용량 PET는 한 번 따면 금방 마셔야 해서 좀 번거로울 때가 있는데, 이렇게 작은 병은 개인별로 꺼내서 마시면 되니까 훨씬 편해요. 특히 여름철에는 아이스팩 넣어 도시락처럼 챙겨주기도 딱이에요.
+장점
+구수하고 깔끔한 보리차 맛, 남녀노소 다 좋아함
+인위적인 단맛이 없어 부담 없이 마실 수 있음
+운동 후 갈증 해소용으로 딱 좋음
+325ml 용량이 한 번에 마시기 적당하고, 휴대성도 좋음
+20개 세트라 온 가족이 넉넉하게 즐길 수 있음
+아쉬운 점
+인기 많다 보니 냉장고에 넣어놔도 금방 동나서 아쉬울 때가 있어요. 아이들이 자주 마시다 보니 생각보다 금방 없어지더라고요.
+총평
+시원하고 깔끔한 보리차 음료를 찾는다면 하늘보리만 한 게 없는 것 같아요. 우리 집에서는 이미 필수 음료로 자리 잡았고, 특히 운동 후에 마시면 더더욱 만족도가 높아요. 앞으로도 계속 쟁여둘 생각이에요.</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>바닐라라떼</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025.09.06</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>하늘보리 500ml. 20개
+구매일 : 2025. 09. 04
+도착일 : 2025. 09. 05
+* 제품정보
+제품명 : 하늘보리
+내용량 : 500ml (0 kcal)
+식품의 유형 : 보리차
+원재료명 : 보리혼합추출액(볶은보리(국산), 볶은옥수수(국산),
+볶은현미(국산), 볶은치커리(국산)), 정제수, 보리추출농축액(국산),
+비타민C, 탄산수소나트륨
+소비기한 : 2026. 07. 09
+* 장점
+- 카페인 없는 보리차라서 아이부터 어른까지 누구나 편하게 마실수 있음.
+- 기름진 음식 먹고 난 후에 마시면 입 안이 개운해져서 식사 후 마시기
+좋은 보리차에요.
+- 용량이 500ml라서 휴대하기도 괜찮고, 한 번에 마시기 적당한 양이에요.
+- 20개 세트라 마트, 편의점보다 훨씬 저렴하고, 대량 구매해두면 오래
+두고 마실 수 있어요.
+* 단점(아쉬운 점)
+- 한 박스에 20개라서 보관할 때 공간 차지 꽤 차지해요.
+- 플라스틱 페트병이라 재활용 쓰레기가 많이 생기는 점은 아쉬워요.
+- 개인적으로는 진한 보리차를 원하시는 분들께는 조금 약하게 느껴질
+수도 있을거 같아요.
+_
+아이들 데리고 외출 하거나 여행 갈 때 꼭 물을 찾아서 구매했어요.
+차타고 이동 중에 아이들이 물을 찾는 경우가 많아서 그때마다 가까운
+마트나 편의점에 들러 하늘보리 1개~2개씩 구매했었는데요.
+매번 마트나 편의점에서 구매하니, 금액이 만만치 않더라고요.
+그래서 이렇게 자주 사먹는거보단 그냥 쿠팡에서 대량 구매하는게
+나을거 같아서 찾아봤더니 하늘보리 개당 541에 판매하고 있더라고요.
+쿠팡에서 판매하는 가격이 거의 마트, 편의점 반값 가격이에요.
+쿠팡에서 너무 저렴한 가격에 잘 구매한 거 같아요.
+쿠팡에서 구매 후 배송까지는 하루 정도 걸렸어요. 로켓배송이라 오후
+늦게 도착할 줄 알았는데, 오후 12시 43분에 하늘보리가 도착했더라고요.
+도착하자마자 박스에서 꺼내서 냉장고에 10개정도 넣어두었어요.
+이렇게 더운 여름에는 냉장고에 넣어두었다가 나갈 때 1~2개씩 꺼내
+들고 다니면서 마시면 시원해요. 집에서 마실때는 얼음에 하늘보리를
+부어서 먹곤 하는데, 시원하고 좋아요.
+보리차 맛은 너무 진하지도 않고, 그렇다고해서 너무 연하지도 않아요.
+그냥 들고 다니면서 가볍게 마시기 좋은 보리차 맛이에요.
+진한 보리차를 좋아하시는 분들은 다른걸 추천드리며, 아이들과 편하게
+마시기 좋은 보리차를 찾는다면, 추천드려요.</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>이*정</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025.10.27</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 1L, 12개</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>하늘보리 1L 제품은 고소하고 구수한 보리 맛을 좋아하는 분들에게 딱 맞는 음료입니다. 1L 대용량이라 가족이나 사무실에서 두고 마시기 좋고, 12개 묶음으로 구매하면 장기간 보관하며 편리하게 즐길 수 있습니다. 보리 특유의 고소함과 구수한 향이 잘 살아 있어, 시원하게 냉장보관 후 마시면 목넘김이 부드럽고 갈증 해소에도 좋습니다.
+단맛이 강하지 않아 부담 없이 마실 수 있고, 인공적인 향이나 첨가물이 많지 않은 점이 만족스럽습니다. 식사와 함께 마셔도 잘 어울리고, 간식 대신 가볍게 즐기기에도 좋습니다. 음료 색상은 자연스러운 갈색빛으로, 보리 음료 특유의 건강한 이미지를 느낄 수 있습니다.
+포장도 깔끔하고 튼튼해 이동 시에도 흘러내리거나 손상될 염려가 적습니다. 장점은 편리함과 맛, 가성비까지 갖췄다는 점으로, 부담 없이 매일 마실 수 있는 건강 음료로 추천할 만합니다. 전반적으로 하늘보리 1L는 가족용, 개인용 모두 활용하기 좋은 구수하고 고소한 보리 음료입니다.</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>민초희</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025.11.05</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 40개</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>고소해요</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리 500ml
+요즘 카페인 음료 대신 깔끔하고 부담 없는 차를 자주 찾게 되는데요,
+그래서 오늘은 제가 정말 자주 마시는 웅진 하늘보리 500ml 리뷰를 써보려고 해요!
+첫인상 &amp; 패키지
+하늘보리는 예전부터 익숙한 음료지만, 500ml 페트병으로 나온 건 휴대하기도 딱 좋아요.
+패키지는 밝은 베이지톤에 보리 그림이 그려져 있어서 한눈에 ‘보리차!’ 느낌이 나고, 뚜껑도 깔끔한 화이트 컬러라서 심플하고 깨끗한 인상을 줍니다.
+작은 사이즈라 가방에도 쏙 들어가서 언제 어디서나 들고 다니기 좋아요.
+☀️ 맛 &amp; 향
+첫 모금부터 부드럽고 고소한 보리향이 확 퍼져요.
+텁텁하거나 쓴맛 없이 깔끔하고 구수한 맛이라 목이 마를 때 마시기에도 좋고, 식사할 때 물 대신 마셔도 부담 없어요.
+무카페인이라 밤에 마셔도 전혀 부담이 없고, 아이부터 어른까지 누구나 좋아할 맛이에요.
+특히 냉장고에 차갑게 보관했다가 마시면 더 시원하고 깔끔해서, 여름철엔 물보다 자주 찾게 되더라고요
+성분 &amp; 건강함
+카페인 0%, 설탕도 들어 있지 않아서 정말 순한 느낌이에요.
+보리 특유의 고소함만 살린 자연 그대로의 맛이라 몸에도 부담이 적고 속이 편안해요.
+기름진 음식 먹고 난 뒤에 한 모금 마시면 입안이 깔끔해지는 느낌도 좋아요.
+‍♀️ 총평
+✔️ 장점: 깔끔한 맛, 무카페인, 휴대성 굿
+✔️ 단점: 특별한 단맛을 원하신다면 조금 밋밋하게 느껴질 수도 있어요.
+전반적으로 언제 마셔도 부담 없는 국민 보리차라는 말이 딱 어울리는 제품이에요.
+물 대신 마시기에도 좋고, 카페인 음료를 줄이고 싶은 분들께도 적극 추천해요!
+한줄요약:
+“부드럽고 구수한 맛, 웅진 하늘보리 500ml는 일상 속에 꼭 하나쯤 챙겨두기 좋은 건강한 음료!”</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>김*림</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025.09.03</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 40개</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>보리차는 저는 늘 웅진 하늘보리를 선택해서 마십니다.
+집에 정수기가 있긴 하지만, 이상하게 물보다는 하늘보리가 더 손이 가고, 마실 때도 훨씬 편안하게 느껴져서 항상 500ml와 1.5리터 제품을 구비해두고 있어요.
+500ml는 외출할 때 챙겨 나가기 좋고, 집에서는 주로 1.5리터짜리를 냉장고에 넣어두고 시원하게 마십니다.
+특히 저는 요즘 무라벨 제품을 선호하는데, 조금 가격이 비싸더라도 분리수거가 편하고 환경을 생각하는 마음도 있어서 일부러 무라벨을 고르게 되더라고요.
+아마 어렸을 때부터 집에서 보리차를 직접 끓여 마시던 습관이 남아서 그런지, 이상하게 생수는 잘 손이 안 가고 늘 보리차를 더 선호하게 되었습니다.
+물 대신 매일 마셔도 부담이 없고, 은은한 곡물향 덕분에 갈증도 더 잘 해소되는 느낌이에요.
+보리차는 사실상 생수 대용으로 마실 수 있는 차라고 해도 될 정도로 깔끔하고 담백합니다.
+다만 보리차는 체질에 따라 맞지 않을 수 있는데요.
+보리 자체가 ‘찬 성질’을 띄고 있어서 손발이 유난히 차거나 평소 소화가 약한 분들은 과다 섭취 시 설사나 복통을 경험할 수도 있다고 합니다.
+저는 큰 문제 없이 잘 마시지만, 체질에 따라 주의할 필요는 있어요.
+효능을 살펴보면 보리차가 단순히 갈증 해소용 음료가 아니라는 걸 알 수 있습니다.
+첫째, 소화에 좋습니다.
+곡물차라서 식이섬유가 풍부하고 위에도 부담이 적어 소화와 배변 활동을 돕습니다.
+또 위산 역류 증상을 완화하는 데 도움이 된다고 알려져 있어서, 속쓰림이 잦은 분들에게도 유용합니다.
+둘째, 설사 증상 완화에도 효과가 있다고 합니다.
+동의보감에도 관련 내용이 기록되어 있다고 하는데, 장이 예민할 때 보리차를 마시면 탈수 예방에도 도움이 된다고 해요.
+셋째, 찬 성질 덕분에 몸에 열이 많은 분들에게 특히 잘 맞습니다.
+체온 조절이나 해열 작용에도 효과가 있고, 여름철 열사병 증상이 있을 때 보리차를 마시면 도움이 된다고 합니다.
+실제로 저는 여름에 외출할 때 늘 500ml짜리를 챙겨 다니면서 수분 보충도 하고, 시원하게 마시면 훨씬 더 개운해요.
+넷째, 영양적인 면에서도 의미가 있습니다.
+보리에는 백미보다 2배 이상 많은 영양 성분이 들어 있어 성장기 아이들에게도 도움이 된다고 해요.
+그래서 어린아이들에게 보리차를 습관적으로 마시게 하면 성장 발달에 긍정적인 영향을 줄 수 있다고 합니다.
+이런 이유들 때문에 저는 웅진 보리차를 늘 사두고, 가족들과 함께 즐겨 마십니다.
+편리함과 맛, 그리고 효능까지 두루 갖춘 음료라 앞으로도 계속 찾게 될 것 같아요.</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>송*정</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025.08.31</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>하루에 한 병씩 음수량 채우기에 좋아요.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>임신 중 입덧이 너무 심해서 평소 마시던 생수조차도 넘기기 힘들더라고요. 물 냄새나 미묘한 이물감 때문에 계속 물을 피하게 되다 보니 자연스럽게 수분 섭취량이 줄어들고, 그게 또 컨디션에도 영향을 주는 악순환이 반복됐어요. 그래서 대체할 음료를 찾다가 ‘하늘보리 차음료(500ml, 20개입)’를 주문하게 됐어요. 사실 보리차가 입덧 완화에도 좋다는 이야기를 들어서 기대 반, 걱정 반이었는데 결과적으로 정말 잘 샀다고 생각하는 제품이에요.
+우선 하늘보리는 잡내 없이 구수하고 깔끔한 맛이 특징이라 속이 불편할 때도 부담 없이 마시기 좋았어요. 냉장고에 시원하게 넣어두었다가 출근할 때마다 하나씩 들고 나가는데, 자연스럽게 하루 음수량도 챙기게 되고, 외출 중에도 갈증이 날 때 부담 없이 마실 수 있어서 너무 만족스럽더라고요. 카페인이 없다는 점도 임신 중에 안심하고 마실 수 있는 큰 장점이에요. 다른 음료는 성분을 하나하나 따져봐야 하는데, 하늘보리는 그런 걱정이 없으니까 손이 더 자주 가게 되더라고요.
+패트병 용량이 500ml로 부담스럽지 않아서 한 번에 다 마시기 좋고, 가방에 넣기에도 적당한 사이즈예요. 무엇보다 개별 포장된 20개입 구성이라 오래 두고 천천히 마시기 좋고, 가격 대비 가성비도 괜찮은 편이에요. 보관도 편하고, 남편도 같이 마시게 돼서 금방 줄어드는 느낌이네요.
+입덧 때문에 물도 못 마시는 분들, 혹은 카페인 없는 깔끔한 음료를 찾는 분들에게 정말 추천하고 싶어요. 자극적이지 않고 속을 편안하게 해주는 보리차 특유의 구수한 맛 덕분에 임신 중에도 수분을 거르지 않고 섭취할 수 있었어요. 앞으로도 꾸준히 재구매할 예정이에요.</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>일산서구민</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025.08.25</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 48개</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>고소하고 맛있으며, 개운하고 갈증해소에 효과적입니다.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>안녕하세요. 쿠팡리뷰어 일산서구민 입니다.
+웅진식품 하늘보리 500ml 48개에 대한 구매후기 입니다.
+우리아이는 3년전에 건강에 큰 문제가 있었는데, 그 때는 몸이 너무 약해서 진짜 깨끗하고 멸균처리된 물만 마셔야 했습니다. 그래서 당시 의료진의 권고로 하늘보리를 마시기 시작했는데, 지금까지도 계속 하늘보리만 마시고 있습니다. 우리아이가 아무것도 먹지 못할 때에도 하늘보리를 마시면서 힘든시간을 버텨내었습니다. 당시에 큰 도움이 되었고, 덕분에 지금은 밝고 건강하게 학교도 잘 다니고 있습니다. 이처럼 하늘보리는 저희가족에게는 매우 소중하고 뜻깊은 보리차입니다. 그래서 사먹고 있습니다.
+이번에도 라벨에 양궁 그림이 그려져 있었습니다. 마음에 듭니다.
+지난번에 두박스 구입했을 때에도 양궁그림이 있었는데, 이번에도 역시 라벨에 양궁그림이 있었습니다. 지난번과 컨셉은 같지만 이미지가 약간 달라진 것 같습니다. 라벨을 뜯기는 번거롭지만 아이가 라벨에 그려진 양궁그림을 참 좋아합니다. 하늘보리는 무라벨 에코와 기존 유라벨 버젼이 있는데, 유라벨보다 무라벨이 훨씬 더 비싸므로, 가격을 고려해서 유라벨로 구입하였습니다.
+멸균처리된 보리차라 관리하기가 편하며, 구수하고 시원하였습니다.
+집에서 보리차를 끓이면 모두 냉장고에 넣어야만 하고, 아무리 깨끗하게 관리를 잘 한다고 하더라도 세균번식을 막기란 거의 불가능에 가깝습니다. 이 때문에 멸균보리차를 사먹기 시작했는데, 깨끗하고 안전해서 믿고 마실 수 있습니다. 게다가 상온에서 보관이 가능하고 소비기한도 길고, 휴대성도 좋으므로 관리하기 정말 편합니다. 보리차의 특성 상, 구수한 맛이 매력적이며 시원하고 개운한 느낌이 참 좋습니다. 게다가 더운 여름철에 갈증해소 효과도 좋으니 매우 만족스럽습니다. 잘 마시겠습니다.</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>홈플아재요</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025.08.25</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>구수하고 시원한 무카페인 보리차</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>✔️ 주문일 : 2025.06.16 주문
+✔️ 배송일 : 2025.06.17 도착
+✔️ 제품명 : 하늘보리 차 음료, 325ml, 20개
+[특징 및 장점]
+✅ 구수하고 깔끔한 보리차 특유의 맛이 잘 살아있습니다. 다른 차 음료처럼 인위적으로 달지 않고, 은은하게 구수해서 목이 마를 때 부담 없이 마실 수 있었습니다.
+✅ 325ml 사이즈가 생각보다 딱 적당합니다. 너무 크지 않아 한 번에 마시기 좋고, 가방이나 냉장고에 넣어두기에도 알맞아 자주 손이 갔습니다.
+✅ 무카페인이라 저녁 늦게도 부담 없이 마실 수 있었습니다. 조카와 함께 외출할 때 챙겨가도 안심하고 줄 수 있어 좋았습니다.
+✅ 개별 페트병 포장이라 위생적이고, 20개 묶음으로 넉넉해서 집에 두고 가족과 함께 마시기 좋습니다. 냉장고에 시원하게 넣어두면 여름철 갈증 해소용으로 제격이었습니다.
+✅ 기름진 음식 먹은 후 입안을 개운하게 해주는 느낌이라 식사 후에도 즐겨 찾게 되었습니다. 음료 대신 가볍게 마시기에도 적당했습니다.
+플라스틱 페트병이라 다 마신 뒤 쓰레기가 제법 많이 나옵니다. 재활용 정리를 신경써야 하는 부분은 조금 번거롭게 느껴졌습니다.
+무카페인이라 시간 상관없이 마실 수 있었던 점이 정말 마음에 들었습니다. 조카와 함께 마셔도 부담이 없고, 여름철 시원하게 두고 마실 때 특히 만족도가 컸습니다.
+휴대용으로 제일 좋은 것 같습니다! 집에서 두고 먹기엔 좀 더 큰 500이나 1리터 이상이 좋은듯 합니다!</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>황*영</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025.09.11</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>맛있고 끝맛이 구수한 보리차 하늘보리!!
+아이들도 어른들도 좋아하는 맛있는 보리차 하늘 보리 골드박스 행사 리스트에 보이길래 재빠르게 구매해 보았습니다^^
+집에 정수기를 들이기전 매번 보리차 끓이기 힘들어도 포기못하고 보리차를 끓여먹었어요~~
+정수기가 집에 오고나서 부터 보리차 끓일일이 없어 졌는데 아이들도 남편도 보리차를 좋아하다보니 대리만족으로 보리차 티백을 우려먹었었는데 큰아이가 학교갈때 텀블러에 보리차를 싸달라고 해서 구입해두는 편이에요!
+텀블러에 담아주기도 하고 또 외츨시 하나씩 챙겨 다니기에 부담없는 사이즈여서 챙겨다니기 좋아요!
+더운날 냉곡물인 시원한 보리차 한잔이면 갈증과 함께 더위도 식히기에 좋은 제품이에요!
+타사 제품들에 비해 보리의 쓴맛도 덜하보 고소한맛이 좋아 계속 하늘 보리 보리차만 고집하게 되는거 같아요ㅎ
+❤️ 하늘보리가 좋은 이유
+✔️ 100% 국산보리
+✔️ 생활 속 갈증해소
+✔️ 깔끔하고 구수한 맛
+✔️ 어린이용 유기농 하늘보리
+라벨이 없는 제품과 있는 제품이 있는데 무라벨이 좀더 비싸더라구요ㅡㅡ
+할수없이 유라벨로 구매하고 번거롭지만 라벨제거후 분리수거 해요...
+저희집에 325ml용량이 딱이라 계속 이용량으로 구매하고 있는데 여러 용량으로도 나오니 필요에 따라 구매하시면 좋을거 같아요^^♡</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>손*운</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025.08.24</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>하늘보리차 음료 325ml 후기를 남겨볼게요. 여름철에는 뭐니 뭐니 해도 시원한 음료가 최고잖아요? ㅎㅎ 저는 달달한 음료보다 깔끔하고 부담 없는 보리차를 선호하는데, 하늘보리는 딱 그 조건에 맞는 음료라서 늘 냉장고에 구비해 두고 있어요. 특히 이렇게 더운 여름날에는 차갑게 냉장고에 넣어뒀다가 꺼내 마시면 속까지 시원해져서 기분이 확 좋아져요. 목마를 때 부담 없이 들이킬 수 있는 점이 가장 큰 장점인 것 같아요.
+또 저희 집에서는 남편이 매일 아침 출근길에 하나씩 챙겨서 나가요. 커피만 마시면 속이 불편한 날도 있는데, 하늘보리는 부드럽게 넘어가고 갈증도 잘 해소해 주니까 출근길 음료로 딱이더라고요. 덕분에 음료가 떨어지면 꼭 다시 채워 넣어야 할 만큼 생활 필수템이 되어버렸어요 ㅎㅎ.
+그리고 놀라운 건 21개월 아기도 관심을 보인다는 거예요. 아직 많이 주진 않지만, 아기가 자꾸 “달라구” 해서 몇 번 맛만 보여줬는데, 은근히 잘 마시더라고요. 달지 않고 순해서 아이가 먹어도 크게 부담이 없는 점이 마음에 들어요. 물론 물을 더 권장하긴 하지만, 가끔 특별히 갈증이 심할 때는 조금씩 나눠주는 용도로 괜찮은 것 같아요.
+결론적으로, 하늘보리차 325ml는 온 가족이 즐길 수 있는 깔끔한 음료예요. 여름엔 시원하게, 겨울엔 상온으로도 부담 없이 마실 수 있어서 사계절 내내 유용하지만, 특히 요즘처럼 더울 때는 냉장고에 항상 채워두고 싶은 음료랍니다 ㅎㅎ.
+✔️ 커피대용으로 최고
+✔️ 남편 출근길에 항상 들고가요. 냉장고 필수구비
+✔️ 500미리 사먹다가 이용량으로 바꿨음(325는 남고 버리는 일이없어요) 용량최고
+✔️ 보리처 맛도 좋습니다 진하고 고소함요
+✅ 항상 떨어지면 구비해놔요 ㅎㅎㅎ 강추합니다
+혹시나 오백미리는 좀 크다 남았다? 싶으면 이 사이즈 사보세요 완전 가방에도 쏙들어가고 좋습니더^^</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>해달</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025.08.23</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>구수합니다</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>⏬️ 한눈에 보는 상품 특징
+✅️ 보리 100%로 만든 구수하고 깔끔한 차음료
+✅️ 500ml 페트병으로 휴대와 보관 편리
+✅️ 무카페인 음료라 남녀노소 부담 없이 마실 수 있음
+✅️ 깔끔한 맛으로 갈증 해소에 좋음
+✅️ 20개 묶음 대용량 구성으로 가성비 우수
+✅️ 차갑게·따뜻하게 모두 즐길 수 있음
+✅️ 기름진 음식과 함께 먹어도 개운함
+✅️ 인공 감미료 없이 담백한 맛
+가성비 : ⭐️⭐️⭐️⭐️⭐️
+만족도 : ⭐️⭐️⭐️⭐️⭐️
+Σ( ﾟÅ ﾟ〃)
+안녕하세요! 솔직하게 느낀점을 리뷰하는 해달입니다.
+✨ 광고 아닌 내돈내산 솔직 후기 입니다 ✨
+▶️ 구매이유
+평소 카페인 음료를 많이 마시다 보니 대체 음료를 찾던 중, 구수하면서도 깔끔한 보리차가 생각났습니다. 하늘보리는 무카페인에다 맛이 담백하다는 후기가 많아 믿고 대용량 세트로 구매했습니다.
+▶️ 구매후기
+뚜껑을 열자마자 은은한 보리향이 나고, 맛은 구수하면서도 깔끔해 부담 없이 마실 수 있었습니다. 차갑게 냉장고에 두었다가 마시면 갈증 해소에 최고였고, 따뜻하게 데워 마셔도 편안한 맛이었습니다. 기름진 음식이나 매운 음식과 함께 먹으면 입안을 개운하게 해줘 식사 때도 자주 찾게 됐습니다. 500ml 페트병이라 휴대하기 좋아 외출할 때 들고 나가기도 편리했어요. 무엇보다 20개 묶음이라 넉넉하게 쟁여두고 마실 수 있어 만족도가 높았습니다.
+▶️ 재구매 생각
+네, 무카페인이라 밤에도 부담 없이 마실 수 있고, 맛이 깔끔해서 가족 모두 잘 마셔 재구매 의사 있습니다. 냉장고에 늘 채워두고 싶은 음료입니다.
+✨️ 솔직한 제 후기가 도움이 되셨다면 아래 도움이돼요 버튼 한번 눌러주세요!✨️</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>이*화</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025.09.10</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>고소하고 부담 없이 마실 수 있는 웅진 하늘보리</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>제품명 : 하늘보리, 500ml, 20개입
+구매일자 : 2025.09.09.
+도착일자 : 2025..9.10.
+소비기한 : 2025.11.16
+보리차의 효능
+물 대신 마시기 가장 좋은 차
+풍부한 영양 성분
+식이섬유가 위와 장운동을 도와 변비 해소
+무더위에는 시원한 보리차로 갈증해소
+추위에는 따듯한 보리차로 체온 조절
+✨하늘보리를 구매하고 마셔보고 쓰는 내돈내산 찐 후기✨
+하늘보리는 국내산 보리로 만들고 카페인이 없어 속이 편하고, 남녀노소 모두 부담 없이 마실 수 있고, 미네랄과 각종 영양 성분이 풍부하게 함유되어 있어 건강한 음료라 항상 구비해두는 음료입니다. 마트나 편의점보다 쿠팡에서 구매하는 것이 저렴하고, 로켓배송이 되어서 편하게 받아 볼 수 있어서 쿠팡에서 꼭! 주문하는 편입니다.
+✅ 출근 길에 한 병
+✅ 운동 갈 때 한 병
+✅ 아이와 놀이터에서도 한 병
+✅ 소화를 돕고 기름기를 씻어 내는 작용이 있어 고기나 기름진 음식을 먹을 때 마시면 느끼함도 줄어서 탄산 대신 하늘보리를 먹어요!
+저번에는 양궁 그림이 있는 라벨이었는데 이번에는 우리나라 국립공원 정보가 있네요~ 무라벨이 편하지만 이런 그림이 있는 것도 마실 때 기분이 좋네요.
+제 리뷰가 도움이 되었다면 도움이 돼요를 눌러주세요.</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>진실의뜝만</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025.08.17</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>은은하고 고소한 보리차음료</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>요즘 날이 더워서 시원한 음료가 자꾸 땡기는데
+탄산음료는 안 좋아하고, 카페인은 좀 피하고 싶어서
+하늘보리 325ml짜리 20개 세트로 주문했습니다
+✏️ 용량이 딱 적당함
+325ml라서 한 번에 부담 없이 마시기 좋은 사이즈입니다
+딱 목 마를 때 꺼내서 마시면 한 병으로 적당히 해갈됩니다
+작지도 크지도 않아서 가방에 넣고 다니기도 편합니다
+✏️ 맛은 익숙한 고소함
+말 안 해도 다 아는 그 고소하고 깔끔한 보리차 맛입니다
+달지 않고 텁텁하지도 않아서 깔끔합니다
+식사할 때나 운동 후 자기 전에도 부담 없이 마실 수 있는
+가벼운 음료입니다 차갑게 마시면 입 안이 시원해지면서
+보리차의 고소한 향이 남아서 은근 중독성이 있습니다
+✏️ 카페인 없어서 더 좋음
+카페인이 없어서 밤에도 안심하고 마실 수 있어요
+요즘엔 물 대용으로 냉장고에 넣어두고 수시로 꺼내 마시고
+있습니다 아이들이나 카페인 피하는 분들한테도 괜찮을 듯
+합니다 남편이랑 딸이 수시로 마셔서 벌써 동났어요
+또 사야겠어요
+✏️ 박스로 와서 편함
+20개 한 박스로 와서 보관도 깔끔하게 되고 실온보관이
+가능하여 필요한 만큼씩 그때그때 냉장고에 넣으면 되니까
+공간차지에서 자유로워요 냉장보관이 필수면 좀 그럴 듯,
+마트에서 하나씩 사는 것보다 단가도 훨씬 저렴하니까
+자주 마시는 분들은 세트로 사는 게 훨씬 이득입니다
+✏️ 총평
+카페인 없고 깔끔한 보리차 찾고 있다면 이건 그냥 믿고 쟁여놓을
+만한 보리차음료입니다 하늘보리 특유의 고소한 맛에 텁텁하지
+않고 깔끔해서 마시기 좋아요 시원하게 해서 마시면 더 좋아요</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>김*연</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025.08.29</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>➡️구매동기:
+집에있으면 물을 너무 안 먹게 되는거같아서 고민이 되더라구요ㅠㅠ
+일을 할 때는 물을 자주 먹게되는데 쉬는날은 확실히 물을 덜 먹게되는거같아서 고민을 했는데 !
+마침 하늘보리가 세일을 하고있길래 구매해봤습니다.
+➡️구매날짜:
+2025. 8. 28 주문
+2025. 8/29(목) 도착
+➡️장점:
+1. 100% 국산 곡물 사용 :
+100% 국산보리를 사용해서 만든 제품이라서 너무 좋은거같아요 !
+인공 색소나 인공 단맛은 없으며, 식품첨가물도 거의 사용하지 않아서 믿고 먹을 수 있는 제품입니다.
+2. 너무 구수하고 맛있어요 :
+맹물만 먹다가 하늘보리차먹으니까 구수하고 맛있어서 좀 더 많이 먹게되서 좋더라구요 !
+구수한 맛이 나서 쭉쭉 들어간다고해야하나?
+물을 많이 먹고싶으면 하늘보리차가 좋은거같아요 :)
+➡️재구매의사 및 추천의사 :
+은은하게 퍼지는 보리 특유의 향이 기분까지 상쾌하게 해주는 맛인거같아요 !
+무당, 저칼로리 특성 덕분에 체중 감량이나 혈당 조절이 필요한 분에게 적합한거같아요.
+325ml 페트병은 가볍고 손에 잡기 좋은 사이즈로, 외출 시 간편하게 챙겨 마시기 좋아서 물을 자주 마시고 싶은 분에게 딱 ! 좋은거같아요 ~
+언제어디서든지 하늘보리차를 먹고싶은 분이라면 만족하실거같아서 추천합니다.
+■ 제 리뷰가 도움이 되셨다면 "도움이돼요" 버튼을 눌러주시면 넘넘 감사하겠습니다 :)</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>김*연</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025.08.15</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>하늘 보리차</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>하늘보리 차 음료, 325ml, 20개
+안녕하세요!
+저는 하늘보리를 꽤 오래 마시고 있어요!
+원래는 집에서 보리차 끓여서 마셨는데,
+여름 되니까 더운데 불 켜는 것도 싫고 너무 귀찮더라고요.
+그래서 간편하게 사서 마셔봤는데, 생각보다 너무 괜찮아서
+그 뒤로는 계속 하늘보리만 재구매하고 있어요.
+맛은 딱 집에서 끓인 보리차 느낌이고,
+하루에 여러병 마셔도 부담 없고요.
+페트병 이라 보관도 쉽고 ,냉장고에 넣어뒀다가 시원하게 꺼내 마시면 진짜 최고예요!
+한 번에 마시기 딱 좋은 양이라 남길 일도 없고, 남겨도 재보관 가능해서 좋고 ,
+여름 내내 갈증 해소용으로 진짜 잘 마시고 있어요.
+하늘보리 차 음료 325ml 장점
+✅무카페인 음료로 언제나 부담 없이
+카페인이 없어 아이부터 어른까지 누구나 안심하고 마실 수 있어요. 야식 후나 자기 전에도 OK!
+✅깔끔하고 구수한 맛
+직접 끓인 보리차처럼 깊고 구수한 풍미가 특징. 잡맛 없이 깔끔해서 자꾸 손이 가요.
+✅간편한 소용량
+325ml 사이즈로 한 번에 마시기 딱 좋은 용량. 보관도 간편하고 들고 다니기에도 좋아요.
+✅시원하게 마시면 진가 발휘!
+냉장고에 넣어두고 꺼내 마시면 여름철 갈증 해소에 딱. 카페인 음료 대신 마시기에도 좋아요.
+✅꾸준히 마셔도 질리지 않는 담백함
+인공감미료나 향 없이 자연스러운 맛이라 장기적으로 마셔도 부담이 없어요.
+✅믿을 수 있는 브랜드 제품
+동서식품에서 만든 음료로 안심할 수 있는 품질과 위생 관리까지!
+제 리뷰가 도움이 되셨으면 좋겠습니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>피의사랑</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025.08.18</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>가벼운 사이즈, 하루 수분보충에 최고!</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>◀ 구매 총평 ▶
+• 보리차를 자주 찾게되면서 매번 이 더운 여름에 끓여먹는것도 여간 쉬운일이 아니여서 간편하게 먹기매우 좋습니다. 그리고 휴대하기가 용이하기 때문에 자주 편의점에서도 이용하게되어 대용량으로 구매하게되었습니다.
+◀ 구매 사유 ▶
+• 요즘 편의점에서 더운여름을 이겨내기 위해서 많이 찾게 되다보니 자연스럽게 많은 구비를 하여 경제적으로 이용하려고 구매하게되었습니다.
+◀ 구매 추천하는 분들 ▶
+• 보리음료를 찾는분
+• 물대신 음료를 찾는분
+• 보리차물을 찾는분
+• 간편한 보관이 편리한 제품을 찾는분
+◀ 상품 상세 후기 ▶
+● 디자인
+• 외관은 투명색 플라스틱 병으로 내용물의 색상이 보이며, 라벨지를 통해 성분과 그리고 브랜정보를 포함하고 있습니다.
+• 맛은 심플한 보리차 맛이며, 시원하게 드시거나 따뜻하게 드시면 더욱 좋습니다.
+● 특징
+• 열을 내리고 갈증을 푸는데 탁월한 냉성곡물"보리"로 만들어 몸 속 갈증까지 해소해주는 하늘보리입니다.
+• 100% 우리땅에서 자란 국산 곡물로 만들어 더욱 깨끗하고 순수한 차 음료 입니다.
+● 장단점
+• 생활속 갈증까지 시원하게 해소해주는 제품입니다.
+• 보관 및 이동편리하고 먹던도중 보관이 용이합니다.
+◀ 개인적인 TIP ▶
+• 개인적으로 단 음료 섭취보다 밍밍한 물이 질릴때 먹기 좋은 보리 음료로 추천드립니다.
+◀ 상품 구성 ▶
+• 하늘보리 차 음료, 325ml, 20개,</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>행복한주부</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025.08.15</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>얼려서 가방에 가지고 다니기 좋아요!</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>깐깐한 아줌마의 내돈내산-솔직후기
+✅ 구매 이유
+물 엄청 잘 안 마시고 일반 정수물을 잘 못 먹는 우리 가족을 위해서 구매하였습니다!
+✅ 제품 상태
+사진에 자세하게 올려 두었어요~ 얼려서 보관하게 되면 라벨이 저절로 찢어져 있더라고요!
+라벨 제거하기가 훨씬 쉬어서 좋았어요!
+✅ 사용 후기
+일반 생수 물은 잘 안 마셔서 하늘보리를 항상 신발장 있는 곳에 놔두고 외출할 때 한 병씩 가지고 나가라고 항상 그 자리에 놔두고 있어요 !그러면 이 물은 맛있는지 그래도 자주 잘 먹더라고요 !
+요즘 같은 경우는 날씨가 너무 더워서 저는 항상 얼려 두고 가방에 하나씩 가지고 다닙니다!
+요즘같이 더울 때는 물도 금방 녹더라고요~
+또 장 보러 갈 때도 아이스팩 대신 몇 개 챙겨 가서 목 마르면 마시고 아이스 백처럼 활용도 하고 있어요
+✅ 아쉬운 점
+골드 박스에 한 번씩 뜰 데가 있는데 빈도수가 많진 않아서 자주 했으면 좋겠습니다
+총평
+그냥 생수 물 잘 못 넘기지 못하는 식구들을 위해서 자주 구매합니다! 물론 맛도 있고요 ~얼려서 가방에 가지고 다니기 너무 편리해요~ 요즘같이 이랬다 저랬다 하는 날씨에 딱입니다! 추천합니다!!
+집에서 열심히 살림하는 주부백단 입니다^^
+거짓 없이 실 사용 후기만 올리려고 노력하고 있습니다.
+조금이라도 여러분께 도움이 되었으면도움이 돼요 눌러주시면 감사하겠습니다.
+즐거운 쇼핑 하세요.</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>조*경</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025.08.07</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>언제 마셔도 깔끔하고 구수한 맛, 물 대신 마시게되요</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>보리차는 어릴 때부터 익숙한 맛인데, 하늘보리는 그중에서도 구수함이 부드럽고 깔끔해서 계속 찾게 되는 맛이에요.
+특히 이 325ml 사이즈는 외출용으로 가방에 쏙 들어가는 크기라서 산책이나 마트 갈 때 하나씩 꼭 챙겨 다녀요.
+무카페인이라 아이 간식 챙기면서 같이 마셔도 되고, 식사 중에도 부담 없이 마실 수 있어서 온 가족용으로 딱이에요.
+기름진 음식 먹은 후에 하늘보리 한 모금 마시면 입 안이 정리되는 느낌이 들고, 속도 편안해지는 기분이 들어요.
+차갑게 마셔도 구수함이 살아있고, 미지근하거나 실온 상태로 마셔도 잡내 없이 깔끔해서 사계절 내내 잘 마셔요.
+플라스틱 병도 가볍고 단단해서 들고 다니기 편하고, 마개도 단단히 잘 닫혀서 가방 속에 넣어도 샐 걱정 없었어요.
+20개입 대용량이라 가격도 합리적이고, 집에 쟁여두고 하나씩 꺼내 마시기 좋으니 물 대용으로도 손색이 없어요.
+보리 특유의 탄내나 과한 구수함이 아니라 은은하고 부드러운 맛이라 남녀노소 누구나 거부감 없이 즐길 수 있어요.
+아기가 생수만 잘 안 마실 때 희석해서 조금씩 줬는데도 잘 마시더라고요. 그만큼 순하고 자극 없는 맛이에요.
+너무 밍밍하지도 않고, 그렇다고 달거나 인위적인 맛도 없어서 진짜 매일 마셔도 질리지 않는 음료라는 생각이 들어요.
+커피나 탄산음료 줄이고 싶을 때 대체 음료로 딱 좋고, 하루에 몇 병 마셔도 속이 부담스럽지 않아서 너무 좋아요.
+물처럼 목 넘김이 부드럽지만 구수한 여운이 은근하게 남아서 갈증 해소는 물론, 입맛도 깔끔하게 정리돼요.
+생수보다 좀 더 맛있는 음료 찾는 분, 아이랑 같이 마실 음료 고민하는 분이라면 진짜 하늘보리 강추하고 싶어요.
+마트 갈 때마다 사기 귀찮아서 이번엔 20개입 박스로 주문했는데, 냉장고에 쟁여두니까 든든하고 편하더라고요.
+시원하게 해서 물처럼 마셔도 좋고, 밥 먹을 때 반찬처럼 곁들여도 좋고, 그냥 언제든 편하게 마실 수 있는 차예요.</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>일산서구민</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025.08.06</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 48개</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>하늘보리 양궁 에디션인가 봅니다. 멋지고 시원합니다.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>안녕하세요. 쿠팡리뷰어 일산서구민 입니다.
+웅진식품 하늘보리 500ml 48개에 대한 구매후기 입니다.
+우리아이는 하늘보리만 마시고 있으며, 학교에도 하늘보리를 꼭 한병씩 챙겨가고 있습니다. 요즘은 여름방학이라 늘봄학교만 다니고 있는데, 요즘도 하늘보리를 한병씩 가져가서 마십니다. 집에서도 당연히 하늘보리만 먹고있고, 여름이라 물을 더 많이 마시기 때문에, 소진이 빠른 편이었습니다. 그래서 이번에는 한 상자에 24개씩 들어있는 제품으로 두 상자를 구입하게 되었습니다. 솔직히 라벨이 없는 무라벨 제품이 더 좋긴 하지만, 아무 이유없이 삼천원이나 더 비싸길래, 그냥 유라벨로 구매했습니다.
+하늘보리 양궁 에디션인가 봅니다. 라벨 디자인이 멋있었습니다.
+이번에 구입한 하늘보리는, 라벨에 우리 대한민국 양궁 국가대표 선수단을 응원하는 이미지와 문구가 반영되어 있었습니다. 양궁그림이 있는지 모르고 샀는데, 우리아이의 반응이 너무 좋아서 잘 샀다고 생각합니다. 작년에 아이와 함께 양궁경기를 즐겨보았고 아이가 양궁을 너무 좋아하였습니다. 그런데 매일 마시는 하늘보리에 양궁그림이 있다며, 멋지다고 아주 좋아하였습니다.
+구수하고 개운한 맛이며, 시원하고 갈증해소에도 아주 좋습니다.
+저도 집에서 하늘보리를 마시고 있는데, 정말 구수하고 맛있는 물이라고 생각합니다. 그리고 시원하고 개운한 느낌이 들고, 여름철에 갈증을 해소하기에도 아주 좋았습니다. 참고로, 하늘보리는 멸균처리된 보리차이므로 상온에서도 보관할 수 있으며, 소비기한도 깁니다. 그리고 휴대성도 좋으므로 가방에 하나씩 챙겨다니기도 좋습니다. 시원하게 잘 마시겠습니다. 감사합니다.</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>현명한설명</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025.09.08</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>무더운 여름날에 음료 대신 마시기 딱 좋아요!</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>◾ 제 품 명: 하늘보리, 500ml, 20개
+—————————제품정보 요약————————
+✔ 구수함과 시원함은 언제나 옳습니다
+✔ 보리맛 너무 진하지도, 연하지도 않은 딱 중간 맛! 쵝오
+✔ 원재료도 대부분 국산이라 믿고 마실 수 있어요
+———————————————————————
+✅제품후기
+(하늘보리 리뷰 저.. 몇개일까요..)
+이번에도 출퇴근용으로 하늘보리를 주문했습니다.
+보리차는 몸에 좋다고하니 물 잘 못마시는 저에겐
+그저 생명수 같네요ㅋ..
+&gt;우리땅에서 자란 100퍼 국산 곡물로 만들어 더욱 깨끗하고
+순수한 음료입니다.&lt;
+&gt;냉성곡물'보리'
+깔끔하고 구수한맛으로 집에서 끓여 마시던 보리차의 맛
+그대로 깔끔하고 구수한 맛을 자랑합니다.&lt;
+✔️원재료명: 보리혼합추출액(볶은보리 국산, 볶은옥수수 국산,
+볶은 현미 국산, 볶은치커리 국산), 정제수, 보리추출농축액(국산),
+비타민c, 탄산수소나트륨
+국산어서오고~!!
+&gt;영칼로리&lt;
+다이어터에겐 그저.. 감사..
+0칼로리라서 부담이 없어요.
+출근길 1병,
+운동후에 얼음에 하늘보리 부어 마시는게 제 루틴이 되었어욬.
+하루에 2병 마시니까 금방 떨어지네요ㅎㅎ..
+어릴적부터 마셔온 하늘보리 강추입니다.
+⭐ 제 후기가 도움이 되셨다면 "도움이 돼요" 부탁드립니다!
+더 꼼꼼하고 세심한 리뷰로 보답 드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>하*주</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025.07.31</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 1.5L, 12개</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리 리뷰
+웅진 하늘보리 1.5L 12개입 제품을 직접 구매해 마셔본 후기를 상세히 남겨보겠습니당~
+저희집은 생수나 정수물이 아닌 보리차!!
+아기때부터 보리차를 먹이다보니 8살 아들도 무조건 보리차만 찾습니다.
+무더운 여름철엔 특히 시원한 보리차만큼 더 좋은건 없죠ㅋ
+저는 항상 대용량으로 넉넉하게 마시기 좋은 1.5L 용량, 12개입 묶음으로 구매해서 먹고 있습니다.
+하늘보리는 깔끔하면서도 구수한 보리차의 맛이 그대로 살아 있습니다.
+잡맛이나 인위적인 단맛이 없어 갈증 해소에 정말 좋고, 자극적이지 않아 식사 중간이나 운동 후에 마시기에도 부담 없습니다.
+보리 특유의 고소한 향이 은은하게 나면서도 목넘김이 부드러워, 물처럼 마실 수 있다는 점이 큰 장점입니다.
+1.5L 대용량이라 가족 단위로 함께 마시기에 적합합니다.
+뚜껑도 단단하게 잘 닫히고, 병 디자인도 심플하고 깔끔해서 냉장고에 넣어두고 꺼내 쓰기 좋아요.
+12개 묶음으로 구성되어 있어 마트에 갈 필요 없이 집에서 넉넉하게 보관하며 음용할 수 있어 매우 편리했습니다.
+실온 보관 가능하며, 냉장 보관 시 더 맛있게 마실 수 있습니다.
+집에서는 냉장고나 냉동실에 1병씩 넣어두고, 나머지는 창고나 서늘한 곳에 보관해 두면 오랫동안 문제 없이 마실 수 있어요.
+캠핑, 야외 활동, 운전 중에도 챙겨가기 좋습니다.
+무카페인이라 아이부터 어르신까지 누구나 안심하고 마실 수 있는 차입니다.
+특히 음료수나 탄산음료를 많이 마시던 아이들에게 대체 음료로 권해보니 거부감 없이 잘 마시더라고요.
+칼로리 부담도 없어 다이어트 중에도 마시기 적합합니다.
+쿠팡에서 주문했는데 빠른 로켓배송 덕분에 다음 날 바로 받았고, 박스 포장도 깔끔하게 되어 있어 병이 눌리거나 깨진 곳 없이 안전하게 도착했습니다.
+무게가 꽤 나가는 제품이라 이렇게 집으로 바로 배송받는 게 정말 편하네요.
+■■■■■■■■■■■■■■ 총 평 ■■■■■■■■■■■■■■
+구수하고 깔끔한 맛, 건강한 음료, 넉넉한 양과 실용성까지 모두 갖춘 제품!
+웅진 하늘보리 1.5L는 물 대용으로 매일 마시기 좋은 음료로, 특히 건강을 생각하면서도 부담 없이 마실 수 있다는 점에서 큰 만족을 주는 제품입니다.
+12개 대용량 패키지로 가성비도 좋고, 무거운 음료를 들고 오는 수고도 줄여주는 제품이라 재구매 의사 100% 있습니다.</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>김*영</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2025.10.28</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>아이들이 너무 좋아해요!</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>음료 섭취가 너무 많은 요즘이라
+챙겨다니는건 물로 하려고 노력중이에요
+어딜가나 단거 투성이여서 조금이라도 덜 먹이려고
+챙겨다니다 보니
+생수, 다른보리 수염차 등등 다양한거 사봤지만
+역시나 하늘보리로 돌아옵니다
+아이들이 직접 고르는데 제일 좋아해요
+제일고소하다고 해서 오늘 설악산 구경갈때도
+챙겨가서 잘 먹고 왔습니다
+여름보다 물찾는 양이나 텀이 줄어들어서
+이번엔 325미리로 구매했어요!
+20펫 또 금방먹고 재구매하겠지 생각하고있어요!
+작은용량은 챙기기도 가볍고 손에 쥐기도 더 좋네요!
+물자주마시는 습관하기에 하늘보리만한게 없습니다
+박스로 사두면 5인 저희가족
+돌아가며 잘도 꺼내서 외출하거든요!
+매우 만족스러운 구매고, 재구매의사가 가득합니다!</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>까까참새</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2025.07.28</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>부담 없이 매일 마시는 건강한 물 대용 음료</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>속 편하게 매일 마시는 무카페인 차음료 – 하늘보리 500ml 리얼 사용 후기 (3,000자 이상)
+최근 건강을 챙기기 시작하면서
+탄산음료나 설탕이 많이 든 음료 대신
+좀 더 자연스럽고 부담 없는 차음료를 찾게 되었다.
+그러던 중 꾸준히 손이 가게 된 음료가 바로
+바로 하늘보리 차음료다.
+보리차는 어릴 때부터 엄마가 물처럼 끓여주셔서
+입에 익은 맛이긴 하지만,
+페트병에 들어간 보리차는 뭔가 인공적일까 걱정됐었다.
+그런데 하늘보리는 그 걱정을 완전히 없애준 고마운 음료였다.
+배송 &amp; 포장 상태
+쿠팡 로켓배송으로 주문한 제품은
+박스 안에 20개입 페트병이 깔끔하게 정렬되어 배송되었다.
+500ml 페트병 크기는 한 손에 들어오는 사이즈로 휴대성도 좋고,
+무엇보다 뚜껑이 단단해서 보관 중 눕혀놔도 새거나 하는 일이 없었다.
+병 디자인도 깔끔하고 산뜻한 노란 라벨이 인상적이었고,
+‘무카페인, 무색소, 무설탕’이라는 문구가
+안심하고 마셔도 되겠다는 신뢰를 주었다.
+첫인상 &amp; 향
+냉장고에 시원하게 넣어 두었다가
+첫 병을 꺼내 마셨을 때
+입에 닿자마자 퍼지는 고소한 보리향이 너무 좋았다.
+인위적인 향이나 맛이 아니라,
+정말 집에서 끓여 마시는 보리차와 유사한 깔끔함이었다.
+기름기 도는 음식을 먹은 후 마시기에도 딱 좋았고,
+입안의 텁텁함을 싹 씻어주는 느낌이었다.
+맛과 풍미
+하늘보리의 가장 큰 장점은
+보리차 특유의 고소함과 부드러운 목넘김이 살아 있다는 점이다.
+보리차는 종종 너무 밍밍하거나
+반대로 탄 맛이 강해서 거부감이 드는 제품이 많은데,
+하늘보리는 정말 균형감 있게 추출된 ‘표준 보리차’ 같은 맛이었다.
+고소하지만 텁텁하지 않다.
+무설탕인데도 심심하지 않다.
+목넘김이 부드럽고 마시고 난 후 깔끔하다.
+물을 마시자니 심심하고, 탄산이나 주스는 부담스러운
+그 중간 지점의 갈증을 채워주는 최고의 음료라고 생각한다.
+‍‍‍ 가족 모두가 함께 마시는 건강한 음료
+우리 집에서는 이제 하늘보리가 **‘공용 음료’**가 되어버렸다.
+아이는 유치원 다녀와서 갈증날 때 자기 손으로 꺼내 마시고,
+남편은 회식 다음 날 아침 하늘보리부터 찾는다.
+나는 식사 중에도, 식사 후에도, 운동 전후에도 수시로 꺼내 마신다.
+가장 좋은 건 카페인이 전혀 없어서 아이도 안심하고 마실 수 있다는 점이다.
+예전엔 물 말고 마실 수 있는 게 없어서 심심해하던 아이가
+하늘보리는 잘 마시고, 소화도 잘 되는 듯하다.
+이런 이유로 어린 자녀를 둔 가정이나
+임산부, 수유 중인 분들에게도 적극 추천하고 싶다.
+️ 이런 상황에서 특히 좋았다
+1. 식사 중 음료 대용으로
+김치찌개, 삼겹살, 떡볶이 같은 자극적인 음식 먹을 때
+콜라 대신 하늘보리를 곁들이면
+입안을 개운하게 정리해주고 소화도 더 잘 되는 느낌이 들었다.
+2. 야식 후 속 정리용으로
+밤에 라면이나 치킨 먹고 나면 꼭 한 병 마시게 된다.
+탄산 대신 하늘보리를 마시니까
+과식한 날도 속이 한결 편하고, 다음 날 부담도 덜했다.
+3. 물 대신 수분 섭취
+물을 마시기 싫은 날, 혹은 외출했을 때
+보리차는 갈증을 해소하면서도 마시는 즐거움까지 준다.
+4. 다이어트 중 음료로
+무설탕이라 칼로리 걱정 없이 마실 수 있고
+식욕을 억제하는 데도 은근 도움이 된다.
+무언가 마시고 싶을 때 하늘보리 한 병이면
+심리적인 허기도 어느 정도 해소됐다.
+장점 요약
+✔️ 무카페인, 무설탕, 무색소 – 부담 없는 건강 음료
+✔️ 입안에 남지 않는 깔끔한 맛과 부드러운 목넘김
+✔️ 500ml의 휴대성 좋은 사이즈 – 나들이, 운동, 캠핑에 딱
+✔️ 온가족이 마시기 좋은 자극 없는 맛
+✔️ 냉장고에 쟁여놓기 좋은 20개 묶음 – 가성비 우수
+아쉬운 점
+❗ 맛이 매우 순해서 탄 맛을 기대하거나 진한 차맛을 선호하는 분들에겐 다소 밍밍하게 느껴질 수 있다.
+(하지만 이런 ‘순함’이야말로 이 제품의 장점이기도 하다.)
+❗ 병뚜껑이 약간 단단해서 아이 혼자 열긴 힘들 수도 있다.
+(하지만 밀봉력이 좋다는 뜻이기도 해서 장점으로도 볼 수 있다.)
+✅ 나의 활용 꿀팁
+냉장고에 여러 병 넣어두고 냉수처럼 마시기
+컵에 얼음 가득 넣고 하늘보리 따라 마시면 더 시원하고 풍미 업
+텀블러에 담아서 외출 시 물 대용으로 사용하기
+가벼운 운동 전후 수분 보충용으로도 적합
+재구매 의사 &amp; 총평
+하늘보리는 이미 10회 이상 재구매 중이고
+냉장고에 떨어지는 날이 없을 정도로 우리 집 필수 음료다.
+가격 대비 품질도 훌륭하고,
+무엇보다 매일 마셔도 질리지 않는 은은한 보리향 덕분에
+물이 싫을 때, 음료가 부담스러울 때 늘 찾게 되는 음료다.
+이제는 ‘물 대신 이것만 마신다’고 해도 과언이 아닐 정도로
+자극 없는 건강한 음료가 필요한 모든 사람에게 추천하고 싶은 제품이다.</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>장옥경</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2025.07.28</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>온가족이 함께 마시는 건강한 수분 음료</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>무카페인이라 온가족 음료로 딱! 하늘보리 차음료 500ml 생생 리뷰
+음료수를 사면서 ‘탄산 아니고, 당분 적고, 카페인 없는 거’
+이 세 가지 조건을 다 만족시키는 제품을 찾기란 사실 쉽지 않다.
+하지만 그 기준을 모두 충족하고도 맛까지 깔끔한 음료가 있다면?
+그건 바로 내가 애정하는 음료 중 하나인 하늘보리 차음료다.
+이번에는 가족 전체가 마시기 좋게
+500ml 페트병세트를 쿠팡에서 구매해서
+실제로 마셔보고 느낀 점, 활용법, 장단점 등을 자세히 리뷰해보려고 한다.
+배송 및 포장 상태
+쿠팡에서 로켓배송으로 주문한 제품은
+박스 포장으로 안전하게 도착했다.
+패트병 제품이라 혹시나 눌리거나 새지는 않을까 걱정했는데
+전혀 그런 일 없이 탄탄하게 포장된 상태로 무사히 도착했다.
+한 박스에 총 20개가 깔끔하게 정렬되어 있었고,
+뚜껑도 단단히 밀봉되어 있어
+유통기한이나 파손 걱정 없이 바로 냉장고에 넣기 좋았다.
+유통기한도 넉넉해서 1~2달 안에 다 마시기 충분했다.
+첫 인상 – 깔끔한 디자인, 적당한 용량
+하늘보리는 예전부터 친숙한 브랜드였지만
+요즘 나오는 패키지는 좀 더 깔끔하고 세련된 느낌이었다.
+노란 톤의 병 라벨이 은은한 보리 느낌을 잘 살려주고 있었고,
+무엇보다 500ml라는 용량이 딱 적당해서 휴대성도 좋았다.
+한 번에 마시기 딱 좋은 사이즈라
+캠핑 갈 때, 운동 갈 때, 나들이용으로 챙기기에도 부담 없었고
+냉장고에 넣었을 때도 자리를 많이 차지하지 않아서
+보관 측면에서도 만족도가 높았다.
+맛 평가 – 고소하고 깔끔한 보리차 그 자체
+본격적으로 음료를 마셔봤다.
+냉장고에 넣어 충분히 차갑게 한 후 마셨더니
+한모금 마시자마자 입 안에 퍼지는 구수한 보리향이 인상적이었다.
+보리 특유의 고소한 맛이 풍부하게 느껴졌지만
+텁텁하거나 입에 남는 느낌 없이 깔끔하게 넘어가는 편이었다.
+무카페인, 무설탕, 무색소답게 단맛이 전혀 없고
+마실수록 목넘김이 시원하고 담백해서 자꾸 손이 갔다.
+특히 더운 날에는 물 대신 시원한 하늘보리를 마시면
+수분 보충과 함께 입 안도 깔끔해져서 일석이조였다.
+‍‍‍ 가족 모두가 함께 마시기 좋은 무카페인 음료
+하늘보리의 가장 큰 장점 중 하나는
+카페인이 없어 아이부터 어른까지 모두 마실 수 있다는 점이다.
+평소에 음료 고를 때 아이는 음료수 달아서 안 되고,
+남편은 당뇨 걱정에 음료 잘 안 마시고,
+나는 카페인 섭취를 줄이고 싶은 상황이었는데,
+하늘보리는 이 모든 상황을 만족시키는 유일한 해답이었다.
+아이: 자극 없는 맛이라 물 대신 마시기 좋았고
+남편: 당 걱정 없이, 맥주처럼 차게 마시면 시원함 만점
+나: 식사 후에도 깔끔하게 마실 수 있는 무카페인 음료로 최고
+게다가 카페인 음료를 끊고 싶은 분들에게도 훌륭한 대안이 되어준다.
+커피 대신 시원한 하늘보리를 한 병 마시고 나면
+몸도 속도 가볍고 뭔가 건강해지는 기분이 들었다.
+️ 활용 팁 – 물 대용, 식사 음료, 간식용 모두 가능
+하늘보리는 그 자체로도 좋지만,
+활용도도 엄청 높은 음료다.
+식사 중 음료 대용: 기름진 음식 먹을 때 특히 잘 어울린다.
+고기나 튀김 먹을 때 하늘보리를 곁들이면
+느끼함을 싹 잡아주고 입안을 깔끔하게 마무리해준다.
+아이스보리티로 마시기: 컵에 얼음 가득 넣고 하늘보리를 부으면
+여름철 홈카페에서 즐기는 보리티처럼 마실 수 있다.
+운동 후 수분 보충: 미지근한 물보다 시원한 하늘보리가 훨씬 상쾌하다.
+트레킹, 자전거, 캠핑용으로도 훌륭하다.
+다이어트 중 수분 섭취 대체: 물은 너무 심심한데 당음료는 부담스러울 때
+하늘보리는 완벽한 중간 지점에 있는 느낌이다.
+장점 정리
+✔️ 무카페인, 무당, 무색소 – 아이부터 어른까지 안심하고 마실 수 있음
+✔️ 고소하고 깔끔한 맛 – 보리 특유의 향이 살아 있으면서도 깔끔한 목넘김
+✔️ 휴대성 좋은 500ml 사이즈 – 외출용, 나들이용으로 적당한 크기
+✔️ 넉넉한 20개입 구성 – 냉장고에 쟁여놓고 온가족이 부담 없이 마실 수 있음
+✔️ 활용도 높음 – 식사 음료, 간식 음료, 물 대체 음료 등 다양하게 활용 가능
+✔️ 가성비 우수 – 낱개 가격 대비 훨씬 경제적인 묶음 상품 구성
+아쉬운 점
+❗ 병뚜껑이 좀 단단한 편이라 아이가 혼자 열기엔 힘들 수 있다.
+(하지만 그만큼 밀봉이 잘 되어 있어서 신선도 유지엔 좋다.)
+❗ 보리차 특유의 맛을 싫어하는 사람에겐 조금 호불호가 있을 수 있다.
+하지만 전통 보리차 좋아하는 사람이라면 거의 대부분 만족할 맛이다.
+‍‍‍ 이런 사람에게 추천하고 싶다
+매일 마실 무카페인 수분 음료를 찾는 사람
+당류 없는 음료를 선호하는 다이어터, 건강관리 중인 사람
+아이 간식 음료로 안전한 걸 찾는 부모
+냉장고에 시원하게 쟁여놓고 온가족이 마실 음료가 필요한 가정
+커피 대신 깔끔한 차음료를 원하는 분
+나의 재구매 의사
+이 제품은 말 그대로 재구매 의사 100%인 제품이다.
+이미 다섯 번째 구매 중이고,
+계절 상관없이 늘 냉장고에 5병 이상 쟁여놓는 필수 음료다.
+일반 생수에 지칠 때,
+달달한 음료는 부담될 때,
+가족 모두가 함께 마실 수 있는 음료를 찾을 때
+하늘보리는 항상 가장 먼저 떠오르는 브랜드다.
+✅ 총평
+하늘보리 차음료는
+맛, 활용도, 가격, 건강 요소까지 모두 만족시키는
+전천후 음료였다.
+가볍고, 부담 없고, 건강하면서도 맛있는 음료를 찾는다면
+이 제품은 무조건 만족할 만한 선택지라고 자신 있게 말할 수 있다.
+앞으로도 우리 집 냉장고 필수품으로 계속 자리할 제품이다.</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>강*라</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2025.08.26</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 1L, 12개</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>시판 보리차 음료 중 제일 맛있음</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>쿠팡에서 웅진 하늘보리 1L짜리 페트병 제품을 구매했습니다.
+요즘처럼 날이 더운 계절에는 생수보다 뭔가 보리차류가 더 땡기더라구요. 생수는 갈증해소가 안되는 느낌?
+페트병은 투명하고 단정한 형태로, 라벨 상단에는 **‘보리 국산 100%’**라는 문구가 크게 들어가 있습니다. 하늘색 배경과 보리 이삭 그림이 있어서 제품 분위기 자체가 깔끔하고 건강한 느낌을 줍니다.
+용량은 1리터, 칼로리는 8kcal로 매우 낮습니다.
+성분표를 보면:
+보리혼합추출액 50% (고형분 0.3%)
+볶은보리 92% 사용
+보리추출농축액 0.15% (고형분 15%)
+정제수, 볶은옥수수, 볶은현미, 볶은치커리 등
+◆◆◆모든 곡물이 국산입니다◆◆◆
+맛은 우리가 아는 보리차.... 에서 최상의 맛이라고 생각합니다 (개인적이지만 대부분 동의할 듯)
+이상하게 끓여먹어도 이 맛이 안납니다.
+하늘보리만의 그 고소하고 맛있음이 있어요.
+대체할 거 찾고 찾아봐도 없다고 보면 됩니다.
+온리 원탑 하늘보리
+쓴맛이나 떫은맛은 없고 너무 고소합니다.
+특히 입안에 남는 잔향이 깔끔한 편이라, 식사 중간이나 운동 후, 더운 날 야외 다녀온 뒤 마시면 꽤 괜찮습니다.
+가끔
+1.음료수 마시기 싫고
+2.커피도 안땡기고
+3생수는 약간 속안좋게 느껴질 때
+하늘보리를 마십니다.</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>고영진</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025.07.23</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>✅ 하늘보리 차음료 500ml × 20개 후기
+“물처럼 편하게, 보리처럼 구수하게. 매일 마시는 찐 데일리 음료”
+✅ 구매 이유
+요즘 물만 마시긴 심심하고,
+카페인 음료는 부담돼서 무카페인 차 음료를 찾았어요.
+하늘보리는 구수하고 깔끔해서 예전부터 좋아했는데,
+500ml 사이즈로 20개 묶음이라 가성비도 좋아서 구매했답니다!
+✅ 특별히 포함하고 싶은 정보
+보리의 진한 향은 살리되, 입 안에 남는 텁텁함이 없어 정말 깔끔해요.
+☕ 무카페인이라 저녁에 마셔도 부담 없고,
+속도 편안한 느낌이라 물 대신 마시기 딱 좋아요.
+500ml 한 병이 마시기 딱 좋은 양이라
+야외 활동이나 출근길, 운동 후에 특히 유용해요!
+20개 묶음 구성은 냉장고에 쟁여두고 가족 모두 함께 마시기에도 충분해요.
+✅ 제품 특징
+✅ 진하게 우린 국산 보리차 음료, 깊은 구수함
+✅ 무카페인 음료, 온 가족 안심 음용 가능
+✅ 깔끔한 뒷맛, 하루 수분 보충용으로 적합
+✅ 500ml 휴대용 사이즈, 언제 어디서나 마시기 편함
+✅ 20개 대용량 구성, 가성비와 편의성 모두 만족
+✅ 후기
+매번 생수만 마시다가 하늘보리로 바꾸니
+더 맛있게 수분 보충하는 기분이에요.
+식사할 때는 물론이고,
+외출 시에도 들고 다니기 좋아서 냉장고에 항상 쟁여둬요.
+보리 특유의 고소한 향 덕분에 기분까지 안정되는 느낌!
+✅ 결론
+“깔끔하고 구수한 무카페인 음료 찾고 있다면?”
+하늘보리 차음료 500ml × 20개, 자신 있게 추천해요!
+맛있게 수분 보충 + 몸에도 부담 없는 구성 +
+언제 어디서나 챙기기 좋은 용량
+온 가족 건강 음료로 딱이에요</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>조은친구맘</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2025.07.16</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>고소한 하늘보리 한병 들고 마시면 시원하니 좋아요~~</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>무라벨이면 좋았을 텐데 없네요.
+생수병에 넣을 수 있는 얼음틀에 얼음을 얼려 넣어서 먹음년 더 시원하고 컵 설겆이 안해도 되서
+편하고 좋아요
+여름이 오고 전 시원한 얼음물 마시는 걸 좋아하는데요.
+예전에 이렇게 음료를 팔지 않을 때 공원을 가면 큰 얼음을 넣어 보리차를 팔던
+기억이 납니다. 정말 맛있게 먹었던 기억이 나네요.
+그 맛이랑 같다고 해야 할까요. 정말 시원하고 맛있는 그 더위에 에어컨도 없고 갈증을
+해소했던 그 맛입니다.
+우리땅에서자란 100% 국산 보리만을 사용하여 만든 대한민국 대표 보리차입니다.
+아들이 물은 하늘보리만 마셔서 손님 초대하는데 물 끓이기도 싫고 해서
+하늘보리 준비해 봅니다.
+저는 물을 끓여 먹는데요. 귀찮을 땐 이렇게 하늘보리 마시는데요.
+고소해서 마시기 편하고 좋아요.
+♥♥보리~~
+열을 내리고 갈증을 푸는데 탁월한 냉성곡물 볼리로 만들어서 몸 속 갈증까지 해소해주는 하늘보리입니다.
+마음까지 쿨 해지는 하늘보리로 갈증해소해 숙취 후에 마시면
+시원하게 마실 수 있습니다.
+아이를 키울 때 감기에 걸려 열이 나면 병원에 가는데 그때 의사선생님께서
+보리차 끓여서 먹이라고 했던 기억이 납니다.
+제가 아이를 키울 때 하늘보리가 있었으면 정말 편했을 꺼 같아요.
+♥♥맛~~
+다른 음료는 단맛을 내기 위해 넣는 게 있는데 하늘보리는 구수한 맛이
+나서 맛나게 마실 수 있어요.
+보리차는 많이 마셔도 된다고 하는 차 종류입니다.
+현미차와 같이 많이 마셔도 되니 저같이 생수를 좋아하지 않는 분이 마실 수
+있어 좋습니다.</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>현명한설명</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2025.07.13</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>하늘보리는 우리 집안 필수품!</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>내돈내산으로 작성하는 구매후기 입니다 :)
+주관적으로 작성하오니 구매시 참고 부탁드립니다 :)
+◾제 품 명: 하늘보리 차음료, 500ml, 20개
+—————————제품정보 요약————————
+✔ 무한 재구매
+✔ 구수한 보리맛이 일품!
+✔ 출근메이트, 하루 1병 클리어
+———————————————————————
+✅식품후기
+저 지금 이게 몇번째 재구매, 구매후기인지 모르겠어요.
+여기 직원이 아닌데 열심히 구매하고 적네요ㅋㅋ..
+하늘보리는 어릴때부터 마셔와서인지 제일 만만하게
+먹는 보리차에요ㅋ (제일 입에 맞는 것 같아요,)
+하루에 1병 들고 나가는데 프로 출근러.. 지옥철을
+경험할때면 역사안에 편의점에서 구매하기도해요 ㅋ..
+물은 진짜 잘 안넘어가더라구요..
+보리차 중에서 제일 많이 구매하는 브랜드입니다.
+✔ 100%국산보리
+✔ 생활 속 갈증해소
+✔ 깔끔하고 구수한 맛
+저는 주로 냉장고에 차갑게 넣어놨다가 점심이나
+운동 후, 또는 입 심심할 때 한 병씩 꺼내 먹어요.
+요즘은 카페인 음료보다 이걸 더 자주 찾게 되더라고요.
+사이즈도 500ml로 부담 없이 마시기 좋고,
+무설탕 + 저칼로리라 죄책감 다운 ㅋㅋ..
+무엇보다 20개 한 박스 구성이라 가성비도 괜찮고
+한번에 주문하기 너무 좋아요!!
+저희 가족이 하늘보리를 진짜 잘 마셔요.
+시원하게 냉장고에 넣어두고 하나씩 꺼내 마시면
+물보다 맛있고 탄산보다 편안해서 딱 좋더라구요.
+카페인 없는 보리차라 밤에도 안심이고,
+가족들이랑 같이 마시기에도 괜찮아서
+자주 재구매할 것 같아요 :)
+⭐제 후기가 도움이 되셨다면 "도움이 돼요" 부탁드립니다!
+더 꼼꼼하고 세심한 리뷰로 보답 드리겠습니다</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>세계최고</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2025.08.03</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 30개</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>고소해서 가족이 모두 잘 먹고 있어요~</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>두 아이 학교에 편하게 들고 다니라고 몇달부터 구매해서 먹고있는 하늘보리~
+역시 가성비 이만한건 없는것 같아요~
+항상~ 매일~ 먹고 남기는 후기입니다~^^
+● 맛/향
+구수한 보리차 특유의 향이 은은하게 나고, 깔끔하고 담백한 맛이라 부담 없이 마시기 좋음.
+달지 않아 어른·아이 모두 잘 마심.
+● 용량/편의성
+500ml 페트병이라 한 번 마시기에 알맞은 크기.
+가방에 넣고 다니기 편하고, 냉장고에 넣어두면 시원하게 바로 꺼내 마실 수 있음.
+● 활용도
+식사할 때 물 대신 마셔도 잘 어울리고, 운동·야외활동·여행 갈 때 챙겨가기 좋음.
+카페인 없는 보리차라 늦은 밤에도 부담 없이 마실 수 있음.
+● 장점
+구수하고 깔끔한 맛
+카페인 없는 건강 음료
+대용량 박스(30개)라 가성비 좋음
+휴대하기 좋은 500ml 사이즈
+● 아쉬운 점
+단맛을 좋아하는 사람에게는 심심할 수 있음
+30개 묶음이라 보관 공간이 필요함
+● 총평
+언제 어디서나 부담 없이 마실 수 있는 국민 보리차~
+시원하게 냉장 보관해두면 온 가족이 건강하게 즐길 수 있어 대량 구매해두기 좋은 음료예요~^^
+추천~!!!
+최대한 사진을 자세히 찍었으니 참고하시면 구매결정에 도움이 되실거예요~
+이상 내돈내산 솔직한 후기!! 많은 도움이 되셨으면 좋겠습니다~
+==========================================
+저의 후기가 도움이 되셨나요?
+그렇다면 "도움이 돼요"를 눌러주세요~ *.☆⸜(⑉˙ᗜ˙⑉)⸝♡.*
+==========================================</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>최*득</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2025.07.08</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>⚡구수한 보리차 본연의 맛 – 텁텁하지 않고 깔끔함
+⚡무카페인 음료 – 부담 없이 언제든 마시기 좋음
+⚡500ml 대용량 – 하루 수분 보충용으로 적당한 크기
+⚡무라벨 디자인 – 깔끔하고 분리배출하기도 쉬움
+0⃣ 언제 마시면 좋은가?
+입 안이 텁텁하거나 깔끔한 음료가 생각날 때
+무언가 자극적이지 않고 부드러운 맛을 원할 때
+점심 식사 후 뒷맛 정리용으로도 잘 어울리고
+무카페인이라 밤에도 부담 없이 한 병 마시기 좋았어요
+냉장고에 넣어두면 시원하게 꺼내 마시기 좋고
+텀블러에 담아 외출할 때도 자주 챙겨가요
+1⃣ 제품 사용 후기
+보리차 특유의 구수한 향이 먼저 느껴지는데
+입에 머무는 맛이 맑고 깔끔해서 마시기 편해요
+보통 보리차는 오래 우리면 쓴맛이 남기도 하는데
+이 제품은 그런 느낌 없이 끝맛까지 부드럽고 가볍더라구요
+차갑게 마셔도 좋지만 실온 상태에서도 맛이 변하지 않고
+부담스럽지 않게 계속 마실 수 있어요
+무카페인이라 잠들기 전이나 야근할 때도 부담이 없고
+자극적인 음료 대신 건강하게 수분 보충하는 느낌이에요
+무라벨이라 외형도 깔끔하고
+분리배출할 때도 라벨 제거할 필요 없어서 편했어요
+패키지도 단정해서 직장 책상 위에 올려두기에도 괜찮더라구요
+500ml 용량이 적당해서 한 번에 다 마시기 좋고
+텀블러 없이 그냥 들고 다녀도 무게감이 크지 않아 간편했어요
+2⃣ 결론은?
+자극적이지 않고 부드러운 음료를 찾는다면
+이 제품은 일상에서 부담 없이 즐기기 좋았어요
+구수한 맛이 깔끔하게 남아서 식사와도 잘 어울리고
+무카페인이라 시간 구애 없이 마실 수 있다는 점이 마음에 들어요
+마시기 편하고 깔끔하게 떨어지는 맛이라
+집이나 직장 냉장고에 두고 자주 꺼내 마시게 될 것 같아요</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>블루블링</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2025.07.08</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0칼로리 보리차 음료라 부담 없이 참 좋아요.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1. 맛과 풍미 ★★★★★
+– 구수하고 깔끔한 맛이 일품이에요.
+하늘보리는 특유의 구수함이 진하면서도 목 넘김이 깔끔해서 갈증 해소에 딱 좋아요. 차가운 상태로 마시면 입 안이 개운해지고, 기름진 음식 먹고 난 후에도 깔끔하게 입맛을 정리해줘서 식사 후 음료로도 자주 마시고 있어요. 단맛이 거의 없어서 단 음료를 싫어하는 분들께 특히 추천하고 싶어요.
+2. 용량과 포장 ★★★★★
+– 325ml는 외출용, 가정용 모두 딱 좋아요.
+한 손에 쏙 들어오는 325ml 페트병이라 가방에 넣기에도 부담 없고, 집에서 마시기에도 적당한 용량이에요. 병 모양이 슬림해서 냉장고 문 쪽에도 정리하기 편하더라고요. 20개 묶음 포장이라 넉넉하게 두고 온 가족이 나눠 마실 수 있어서 만족스러워요.
+3. 가격 만족도 ★★★★★
+– 대용량이라 가성비가 좋아요.
+마트에서 낱개로 사는 것보다 쿠팡에서 묶음으로 구매하니 훨씬 저렴하게 구입할 수 있었어요. 20병 한 박스로 오니까 번거롭게 자주 살 필요도 없고, 가격대비 품질도 만족스러워요.
+4. 배송 상태 ★★★★★
+– 빠르고 안전하게 도착했어요.
+쿠팡 로켓배송으로 다음날 바로 받아볼 수 있었고, 박스도 튼튼해서 페트병 손상 없이 잘 도착했어요. 안에 병들이 서로 부딪히지 않도록 빈틈없이 담겨 있어 마음에 들었어요.
+5. 활용도 ★★★★★
+– 식사 중, 외출 시, 운동 후에도 좋아요.
+0칼로리라 단순히 물 대용으로 마시기에도 좋고, 식사 중이나 탄산 대신 마셔도 부담 없어요. 특히 더운 여름철 운동 후 갈증 날 때 얼려뒀다가 시원하게 마시면 진짜 꿀맛이에요. 학교 갈 때 아이 도시락 가방에 넣어줘도 잘 마시고 와서 만족스러워요.
+[총평]
+하늘보리 325ml는 진하고 구수한 보리차 특유의 맛을 잘 살리면서도 깔끔한 여운이 있어요. 용량, 가격, 포장, 활용도 모두 만족스럽고, 냉장고에 항상 구비해두고 싶은 필수 음료예요. 탄산이나 당 음료 대신 건강하고 시원하게 즐기고 싶은 분들께 강력히 추천해요!</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>찐리뷰토리</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2025.07.08</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>❤️내돈내산 리뷰❤️
+❤️하늘보리❤️
+하늘보리는 언제 마셔도 부담 없고 구수한 향이 매력적인 음료에요
+특히 여름철 냉장고에 시원하게 보관해 두면 갈증 날 때마다 꺼내 마시기 정말 좋아요
+물보다 맛있고 탄산음료보다 건강해서 자주 손이 가는 데일리 음료에요
+무카페인, 무설탕 제품이라 아이부터 어른까지 온 가족이 안심하고 마실 수 있어요
+임산부나 건강을 신경 쓰는 분들에게도 추천하고 싶은 음료에요
+식사 후 입가심으로 마셔도 깔끔하고, 운동 후 수분 보충용으로도 딱이에요
+얼음 넣어서 마시면 한층 더 시원하고 구수함이 배가되어 기분까지 좋아져요
+보리의 고소한 풍미가 은은하게 퍼져서 마실 때마다 마음이 편안해지는 느낌이에요
+특유의 텁텁함 없이 깔끔한 목넘김이 좋아서 물보다 더 자주 찾게 돼요
+음료 특유의 자극적인 단맛이 없어서 매일 마셔도 질리지 않아요
+차가운 물에 티백 우려낸 맛과는 또 다른, 깊고 안정적인 맛이 느껴져요
+용량도 넉넉해서 가족 모두가 하루 종일 나눠 마시기 좋아요
+페트병도 튼튼해서 보관 중에도 흐르거나 불편함 없이 사용하기 편리해요
+장시간 외출할 때나 소풍, 캠핑 갈 때 챙겨가면 누구나 좋아할 만한 음료에요
+커피나 탄산이 부담스러운 상황에서도 대체 음료로 손색이 없어요
+음식과도 잘 어울려서 매 끼니마다 곁들여 마셔도 좋고, 맵고 짠 음식과도 조화가 좋아요
+보리 특유의 풍미는 남녀노소 호불호 없이 누구나 편하게 즐길 수 있는 맛이에요
+하늘보리는 일상 속에서 자연스럽게 물을 대체하며 건강까지 챙길 수 있는 착한 음료에요
+마실수록 질리지 않고 오히려 더 찾게 되는 묘한 매력이 있는 제품이에요
+주변에 궁금해서 물어보니까 주변 평도 정말 좋은 편이에요
+재구매 의사 100퍼센트이고 앞으로도 꾸준히 집에 쟁여두고 마실 예정이에요
+( ੭ ･ᴗ･ )੭
+도움이 되셨다면 도움버튼을 꾹 눌러주세요~ 감사합니다❤️</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>임소연</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2025.09.04</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>시원하게 마시면 최고</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>고소하고 맛있어요 여름철에 밍밍한 물대신 냉장고에넣어놓고 구수한 하늘보리를
+마시는대 갈증날때 정말 꿀맛입니다
+골드박스에 할인떠서 바로구매 했어요 많아보여도 은근 금새마시게 되는것이
+아들도 학교갈때 한병씩 챙겨갑니다 동그랗게 길쭉한 패트병이라 휴대하기도 편하고
+고소해서 시간이지나 차가움이 식어도 맛있게 마실수 있다더라구요
+운동전 후로 이만큼 맛있는것이 없어요
+⭐️구입목적 (필요성) = 아는 고소한맛 골드박스에떠서
+✨️구입시 고려한점 =가격 맛 휴대성
+(장단점)
+☀️가성비 = 할인받아 최고
+⚡️⚡️⚡️만족도 = 아주 고소합니다 갈증날때 마시면 최고
+⭐️재구매의향 = 100% 보리차는 언제마셔도 맛있네요
+✨️제품이나 서비스에는 장점과 단점이 있습니다.
+간혹 리뷰만보고 구매해서 실망한부분이 적지않아서 저는 한쪽에만 치우치지 않고, 긍정적인 면과 부정적인 면을 직접 느낀대로 언급하여 리뷰의 신뢰성을 중시하여 리뷰를 작성하려고 합니다 주관적일수 있으나 참고가 되도록 다른 사람의 의견에 휩쓸리지 않고, 제가 직접 경험한 사실만을 바탕으로 솔직하게 리뷰하겠습니다.✨️</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>박*석</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2025.07.04</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>아이들이 좋아하는 하늘보리에요~!</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>✅구매 계기
+아이들이랑 외출할때는 물을 꼭 챙겨서 나가야하는데요.
+근데 매번 텀블러 챙기기도 번거롭고 무거워서
+간편하게 마실 수 있는 페트병 음료를 찾게 되더라고요.
+보리차는 집에서도 늘 끓여 마시고 익숙한 맛이기도 하고,
+카페인이 없어서 아이들이랑 같이 마시기도 부담 없고
+무엇보다 요 제품은 **양도 적당해서 외출할 때 들고 다니기 딱이더라고요.
+✅제품 특징 &amp; 장점
+✔325ml 소용량이라 들고 다니기 너무 좋아요
+일단 이 제품, 용량이 너무 마음에 들어요.
+500ml는 들고 다니면 무거운데,
+이건 딱 325ml라서
+가볍고 손에 쏙 들어오는 사이즈예요.
+아이들 물병 대신 챙겨줘도 부담 없고,
+가방 안에 몇 개씩 넣어도 무겁지 않아서
+차 타기 전에 챙겨 나가면 완전 굿굿!
+✔보리 특유의 구수한 맛이 진하지 않고 깔끔해요
+보리차 좋아하시는 분들 많으시죠?
+근데 어떤 제품은 너무 구수해서
+애들 입맛엔 부담스럽게 느껴질 수 있거든요.
+근데 하늘보리는 정말 깔끔하고 부드러운 보리차 맛이에요.
+탄산도 없고, 자극적인 맛도 없고,
+심지어 미지근하게 마셔도 깔끔해서 거부감 없어요.
+✔20개입 대용량이라 가격도 착해요
+마트에서 개별로 사는 것보다 훨씬 저렴하고,
+대용량 박스로 오니까 쟁여놓고 쓰기 너무 좋아요.
+생수처럼 냉장고에 한 칸 정리해 두면
+하나 꺼내 들고 나가는 게 일상이 됩니다 ㅎㅎ
+게다가 병 디자인도 깔끔하고,
+양도 적당해서 한 번 마시기 참 좋아요.
+✅활용 후기
+✔외출할 때 필수템!
+가방에 얼음팩이랑 같이 하나씩 챙겨 넣으면
+야외 놀이터, 마트, 나들이 어디든 OK!
+차 안에서 꺼내줘도 뚜껑 닫을 수 있으니 흘릴 걱정도 없고,
+아이들이 덥다고 징징거리기 전에
+한 병 딱 꺼내주면 상황 종료
+✔아이 운동 끝나고 마시기에도 딱 좋아요
+저희 아이는 운동 끝나면 꼭 물 찾는데,
+이건 보리차라 갈증도 잘 해소되고, 자극적이지 않아서 더 좋아요.
+운동 끝나고 시원하게 한 병 마시고 나면
+기분까지 상쾌해진다고 해요.
+✔집에서도 냉장고에 꺼내 마시는 용으로 굿굿
+외출용뿐만 아니라
+집에서도 더운 날 시원한 거 마시고 싶을 때
+탄산수 말고 하늘보리 꺼내 마시면 속도 편하고 몸도 시원~해져요.
+## ❗ 아쉬운 점
+✔개인적으로는 병뚜껑이 더 부드러웠으면 좋겠어요
+뚜껑이 좀 단단한 편이라
+어린 아이들이 혼자 열긴 힘들고,
+손 힘 약한 어른들은 살짝 뻑뻑하게 느낄 수도 있어요.
+저는 괜찮았는데, 아이는 늘 엄마~ 열어줘~라고 하더라고요 ㅎㅎ
+✔용량이 작아서 금방 마시게 돼요
+325ml가 **간편하고 휴대성은 좋은데,
+물 많이 마시는 분들에겐 살짝 부족하게 느껴질 수 있어요.
+운동 후나 땀 많이 흘린 날엔
+두 병씩 들고 나가는 날도 있어요!
+하지만 이건 어디까지나 간편성에 포커스를 둔 제품이라
+오히려 장점이라고도 볼 수 있어요
+✅총평
+결론적으로,
+여름철 외출용, 아이용, 간편용 음료로 하늘보리만 한 게 없어요!
+✔깔끔한 맛
+✔가벼운 사이즈
+✔튼튼한 페트병
+✔냉장고에 쟁여두고 하나씩 꺼내 들고 나가기 최고✨
+요즘처럼 더운 날씨에
+아이와 엄마 모두 시원하고 건강하게 마실 수 있는 음료 찾으셨다면
+이 제품 강력 추천드려요.
+매년 여름마다 재구매하게 되는 이유가 있어요!
+이상 내돈내산 솔직 후기였습니다~
+도움이 되셨다면 도움돼요 꾹~ 부탁드려요❤️</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>신핏쨔</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>5</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2025.07.03</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>명불허전 하늘보리~~</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>✅하늘보리 차음료, 500ml, 20개입 제품을 구매해서 마셔본 후기를 정성스럽게 남겨봅니다. 요즘처럼 더운 여름철, 시원한 음료가 하루 컨디션을 좌우하잖아요. 저는 출근길에 가방에 하나씩 넣어 다니며 마시려고 이 제품을 구매했어요. 냉장고에 가득 채워두고 출근할 때마다 챙기는데, 생각보다 너무 만족스러워서 벌써 재구매를 고려 중이에요.
+‼️‼️총평부터 말하자면, 하늘보리는 언제 마셔도 깔끔하고 담백한 맛이 큰 매력입니다. 물처럼 부담 없이 마실 수 있지만, 그렇다고 밍밍하지는 않고 보리 특유의 고소함이 은은하게 퍼져서 갈증 해소에도 정말 좋아요. 특히 찬물로 시원하게 마셨을 때 그 청량감이 최고예요. 커피나 탄산처럼 자극적인 음료 대신, 몸에 무리가 덜한 차음료를 찾는 분들께 하늘보리는 늘 안정적인 선택이 되는 것 같아요.
+▶️▶️구매한 이유는 여름 출근길에 시원한 음료를 하나씩 들고 다니고 싶어서였어요. 날씨가 더워지면서 자꾸 카페 음료나 탄산에 손이 가는데, 그러다 보면 당분 섭취도 많아지고 속도 부담스럽더라고요. 그래서 건강하면서도 맛있는 음료를 찾다가 하늘보리를 선택했어요. 어릴 때부터 익숙하게 마시던 음료인데, 요즘 다시 보니 용량도 넉넉하고 간편해서 딱이더라고요.
+⭕️좋은 점은 정말 많아요. 우선 첫 번째는 깔끔하고 부드러운 맛이에요. 보리차 특유의 구수함이 살아 있으면서도 텁텁하지 않고, 뒷맛이 깔끔해서 자꾸 손이 가요. 두 번째는 용량과 패키지입니다. 500ml는 개인이 마시기에 적당한 양이고, 병도 가벼워서 휴대하기 편하더라고요. 특히 병뚜껑이 단단하게 잘 닫히고, 음료가 쉽게 새지 않아서 가방에 넣고 다니기에도 안심이 돼요. 세 번째는 무카페인 음료라서 하루 중 언제 마셔도 부담이 없다는 점이에요. 커피처럼 속이 쓰리지 않고, 탄산처럼 트림이 나오는 불편함도 없어서 특히 사무실에서도 자주 마시게 돼요.
+❌하지만 아쉬운 점도 없지 않았어요. 첫째는 가격이에요. 물론 대용량 패키지로 사면 개당 단가는 줄어들지만, 그래도 생수나 다른 차음료에 비해 약간 높은 편이라는 생각은 들어요. 두 번째는, 제품 포장이 종종 조금 찌그러져서 오는 경우가 있어요. 큰 불편은 아니지만, 선물용이나 깔끔한 보관을 원할 경우에는 약간 신경 쓰일 수 있을 것 같아요. 그래도 내용물에는 이상이 없으니 저는 그냥 잘 마십니다.
+⁉️‼️이 제품은 특히 여름철 시원한 음료를 찾는 분들께 정말 추천하고 싶어요. 탄산이나 당분 많은 음료가 부담스러우신 분, 직장에서 자주 수분 섭취가 필요한 분, 아이들과 함께 건강한 음료를 즐기고 싶은 가정, 다이어트를 하며 물 대용으로 차를 드시는 분들께도 아주 잘 맞을 것 같아요. 냉장고에 넣어두고 하나씩 꺼내 마시기 너무 좋아요. 찬물처럼 시원하고 맛있으면서도 속에 부담이 없는 음료 찾으신다면, 하늘보리만 한 게 없다고 생각해요.
+제 후기가 도움이 되셨다면 ‘도움이 돼요’ 버튼 한 번 꾹 눌러주세요! 다음에도 좋은 제품 소개해드릴게요 :)</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>일산서구민</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>5</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025.07.02</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 40개</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>구수하고 시원해서 맛있으며, 휴대성이 좋아서 만족합니다</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>안녕하세요. 쿠팡리뷰어 일산서구민 입니다.
+웅진식품의 하늘보리 500ml 유라벨 40개에 대한 구매후기 입니다.
+우리아이는 집에서도 하늘보리만 마시고, 학교에도 매일 하늘보리를 한병씩 챙겨가기 때문에, 항상 모자라지 않게 사다놓고 있습니다. 라벨을 뜯기 어려운 유라벨 보다는, 번거롭게 라벨을 뜯지 않아도 되는 무라벨이 당연히 더 좋지만, 가격차이가 너무 많이 나길래, 유라벨로 구입하였습니다. 똑같은 보리차인데, 라벨유무에 따라 가격차이가 너무 많이나는 것 같으니, 여러분들께서도 구입하실 때, 가격을 확인해보시고 구입하시길 바랍니다. 제가 구입할 땐, 거의 오천원이나 차이가 나서 어이가 없었습니다.
+시원하고 구수한 맛이며, 보관하기 편하고 휴대성도 좋은 보리차입니다.
+보리차이므로 일반 생수보다 구수하고 맛이 좋습니다. 그래서 결과적으로 물을 더 많이 마시게 되는 효과가 있는 것 같습니다. 보리차를 마시고나면 시원하고 개운한 느낌이며, 요즘같은 여름철에 갈증도 말끔하게 해소시켜 주는 것 같습니다. 멸균보리차이므로 굳이 냉장고에 넣지 않더라도, 상온에서도 보관할 수 있다는 점도 큰 장점입니다. 그리고 소비기한도 길기 때문에, 관리적으로 신경쓸게 거의 없습니다. 500ml짜리라 아이가 학교갈 때, 물병가방에 한병씩 가지고 다니기도 정말 편리하였습니다.
+유라벨이라 라벨을 뜯기가 좀 번거롭긴 하지만, 그것 말고는 전반적으로 만족합니다. 감사합니다.</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>이윤지</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>5</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 1.5L, 12개</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>올여름 갈증 시원하게 해결하고 하루 물 섭취량 채워요!</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>⬇️ 선택 이유
+✔️국산 곡물로 만들어서 믿음이 가요. 하늘보리는 100% 국산 보리로 만들어서 더 깨끗해요.
+✔️1.5L 용량으로 매일 마시는 하루 물 섭취량을 채우기에 딱 좋아요.
+✔️여름이라 갈증이 많이 나는데 하늘보리 마시면 진짜 몸속까지 시원해 지더라구요. 냉성곡물인 보리를 사용해서 몸 속 갈증까지 해결해 준다고 해요!
+⬇️직접 마셔본 후기
+저희 집은 일반 물보다는 늘 보리차를 끓여서 마셨는데 최근 출산과 육아로 제가 엄청 바빠졌어요. 남편도 성수기라서 일이 더 바빠져서 매일 물 끓이기가 쉽지 않더라구요. 국산 보리 사용해서 집에서 눈으로 보고 끓이니까 믿음도 가고 좋았는데 그만큼 믿음이 가는 제품 찾다가 정착했어요! 100%국산 보리로 만들어서 그런지 첫 한 잔 마셨을 때 진짜 구수한 보리차 향과 맛이 그대로 느껴져서 우선 맛에서 합격 ! 너무 만족스러워서 보리차 시켜 먹기 시작했어요. 용량도 한 병에 1.5L 넉넉하게 들어있어서 하루 물 섭취량을 이 하늘 보리 하나로 채우니까 딱 좋아요. 또 하늘보리는 무카페인이라 임산부, 어린이 모두 안심하고 마실 수 있어서 온가족이 찾아 마시는 물이 되었어요. 여름에 생수 마시는 것보다는 텀블러에 얼음 동동 띄워 보리차 가지고 나가니 맛도 좋고 카페에서 사 마시는 것보다 더 맛있는 차 한 잔이 되었네요. 갈증이 자주 나고 너무 무더운 올여름을 위해 하늘보리 추천할게요.^^
+*내돈내산 솔직하게 작성한 후기입니다.
+도움이 되셨다면 “도움이 돼요” 부탁드려요.
+좋은 리뷰만 작성하겠습니다_^^</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>알뜰한소비</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2025.06.29</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 1L, 12개</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>물 대신 매일 마시는 구수하고 깔끔한 무카페인 보리치~</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>* 구매 동기
+평소에 생수만 마시기엔 질릴 때가 많아서 부담 없이 마실 수 있는 건강한 음료로 하늘 보리를 자주 재 구매해서 커피나 탄산음료를 대신하기도 하고 외출 후나 운동 후에는 갈증이 많이 나는데 맹물 보다는 맛있고 시원하게 수분 보충할 수 있어서 계속 재 구매하고 있습니다
+* 포장 상태
+안전하게 잘 포장되어 깨지거나 새는 경우 없이 안전하게 밤 늦게 주문했는데 다음날 바로 빠르게 배송 되어 아주 만족스러웠습니다
+* 맛 과 향
+- 항상 느끼지만 집에서 끓이는 보리차 보다 구수하고 깔끔한 맛입니다 물보다 풍미가 있고 음료수보다는 덜 자극적이라 자주 마셔도 부담이 없습니다
+- 단맛이 없어서 단 음료를 안 좋아하는 분이나 아이들 음료 대용으로 아주 좋습니다
+- 시원하게 마셔도 맛이 최고이고 따뜻하게 마셔도 좋습니다
+* 구성
+- 1L 페트병이 12개나 들어 있어 넉넉하게 먹을 수 있습니다
+- 뚜껑이 튼튼하고 밀폐력도 좋아서 보관 중 새거나 냄새 배는 일이 없었습니다
+* 가성비
+- 대형마트보다 저렴하게 구입해서 좋았습니다
+- 외식하거나 편의점에서 음료나 커피 하나 사 마시는 비용 보다 훨씬 경제적입니다
+* 장점
+- 무카페인이라 임산부, 어린이, 어르신 모두 안심하고 마실 수 있습니다
+- 물 대용으로 마시기 좋아서, 식사 중, 운동 후, 외출 시 모두 마시고 있습니다
+* 활용
+- 텀블러에 담아서 외출할 때 들고 다니기 좋습니다
+- 여름에는 얼음 넣고 차게 마시고 겨울엔 살짝 데워서 따뜻하게 마시면 더욱 좋습니다
+- 국이나 밥 할때 물 대신 조금 넣어보면 보리 특유의 구수함이 더해져 아주 별미 입니다
+* 아쉬운 점
+- 병 수거를 해야 하는 재활용 쓰레기가 많이 나오는 점이 조금 귀찮았습니다
+* 구매 총 평
+시원하고 구수한 보리차를 대용량으로~ 가성비까지 아주 좋았습니다 가족 모두가 안심하고 마실 수 있는 무카페인 음료로 아주 만족스러워 앞으로도 쭉~~ 재 구매 의사 있습니다 물 대신 마실 건강 음료, 담백한 맛과 구수한 음료 찿고 계신다면 가성비 좋은
+하늘보리 적극 추천 드립니다
+* 저의 리뷰가 구매에 조그마한 도움이 되셨다면 아래의 도움이 돼요 버튼 눌러 주시면 저에게 큰 도움이 됩니다~^^</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>유*경</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2025.11.02</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 24개</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>국내산이라 맘에 듭니다.</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>공부하러 갈때 생수들고 다니던 아이가 날이 추워지니
+보리차를 찾길래 구입하게 되었어요.
+작년에도 몇박스 주문해서 한동안 먹었는데,
+텀블러에 하늘보리와 따뜻한 물을 섞어서
+먹으면 딱 좋다고 합니다.
+이전에는 보리차를 집에서 끊였는데, 하루 한번씩
+끊이기 번거롭기도 해서 하늘보리로 갈아탔습니다 ㅡㅡ
+(끊이면 하루 이상 먹을수가 없어요)
+여유가 있을땐 끊이고, 시간이 허락치 않을땐
+편하게 살아야죠.
+계속 먹었던 제품이지만, 다시한번 꼼꼼히 살펴보니
+다 국내산이라 너무 맘에 듭니다.
+좋은 제품 많이 팔아주세요.
+구매후기 읽어주셔서 감사합니다.</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>김*순</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 24개</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>구수함과 건강함을 담은 한 병</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>하늘보리, 500ml – 구수하고 시원한 무카페인 보리차!
+목 넘김 부드럽고, 속까지 편안한
+하늘보리 500ml는 국산 보리를 정성껏 우려낸 무카페인 보리차로, 구수하고 깔끔한 맛이 특징입니다. 남녀노소 누구나 부담 없이 마실 수 있어 일상 속 수분 보충용 음료로 꾸준한 사랑을 받고 있어요.
+언제 어디서나 시원하게 즐기기 좋은 PET 병 타입으로 휴대성도 뛰어납니다.
+제품 특징
+무카페인 건강 음료
+카페인이 전혀 없어 어린이, 임산부, 노년층도 안심하고 마실 수 있어요. 수분 보충이 필요할 때 부담 없이 선택 가능!
+100% 국산 보리 사용
+국내산 보리의 구수한 풍미를 담아, 자극 없이 깔끔한 맛으로 목 넘김이 부드럽고 속도 편안합니다.
+500ml 휴대용 PET 용기
+한 손에 쏙 들어오는 크기로, 가방이나 차량에 넣어 다니기에도 딱 좋은 사이즈예요.
+활용 팁
+식사 중·후 음료로 최적
+기름진 음식이나 매운 음식과 함께 마시면 입안을 정리해주는 깔끔한 효과가 있어요.
+물 대용 음료로 추천
+카페인이나 당류를 줄이고 싶은 분들께 수분 보충용 데일리 음료로 딱 좋아요.
+운동, 등산, 야외 활동 시
+갈증 해소와 함께 속을 편안하게 해주는 하늘보리는 야외 활동에도 잘 어울리는 건강 음료입니다.
+✅ 총평
+하늘보리 500ml는 구수한 보리의 향과 무카페인이라는 건강함을 담은 국민 보리차 음료입니다. 식사할 때, 운동할 때, 갈증 날 때… 언제 마셔도 부담 없고 시원한 음료로, 일상 속 물 대용 음료로도 강력 추천드립니다.
+구수함과 건강함을 담은 한 병,
+하늘보리로 속까지 시원하게!</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>김*영</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>깔끔하고 구수한 맛, 언제 어디서나 부담 없이 마셔요!</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>✅ 첫인상과 패키지 구성
+하늘보리차는 익숙하고 친숙한 브랜드라 믿고 구매하게 된 제품이에요. 325ml 용량의 페트병이 20개 묶음으로 되어 있어서 가정용으로도, 회사나 차량에 두고 마시기에도 적당한 구성입니다.
+박스 포장도 튼튼하고 깔끔하게 도착해서 보관하기에도 좋았고, 개별 페트병은 손에 잡히는 크기로 외출 시 휴대하기도 편리합니다.
+---
+✅ 맛과 향
+가장 큰 장점은 역시 깔끔하면서 구수한 보리 맛이에요. 진하지 않지만 은은하게 퍼지는 고소한 향과 깔끔한 목넘김이 인상적이었어요. 물처럼 부담 없이 마실 수 있으면서도 맛이 있어, 물 대용으로 딱 좋습니다.
+단맛이 전혀 없고, 끝맛이 개운해서 식사 후 입가심으로 마시기에도 참 좋습니다. 차갑게 냉장고에 넣어두고 마시면 더 시원하고 구수한 풍미가 살아납니다.
+---
+✅ 카페인 무첨가로 누구나 안심
+무카페인 제품이라 어린아이부터 노년층까지 누구나 안심하고 마실 수 있다는 점이 마음에 들었어요. 특히 카페인에 민감한 분들이나 임산부, 수유 중인 분들께도 추천할 수 있을 만큼 성분 면에서도 부담이 없습니다.
+밤에 마셔도 수면에 영향을 주지 않아 하루 종일 마시기에도 좋고, 물처럼 수시로 마셔도 안심되는 건강한 음료입니다.
+---
+✅ 다양한 상황에서 활용 가능
+이 제품의 가장 큰 장점 중 하나는 활용도가 높다는 점이에요.
+식사 중 음료로 대체 가능
+운동 중이나 등산, 캠핑 등 야외활동에 휴대하기 좋음
+차량이나 사무실에 상시 구비해두기에도 적합
+아이들 물 대용으로도 무난
+특히 여름철에 냉장 보관해두면 갈증 해소용으로 딱입니다. 단 음료보다 덜 질리고, 물보다 더 맛있게 수분 섭취가 가능하니 매일매일 찾게 되는 음료예요.
+---
+✅ 위장 부담 없이 마실 수 있어요
+기름진 음식을 먹고 나면 속이 더부룩할 때가 많은데, 하늘보리차는 그런 때 속을 편안하게 정리해주는 느낌이에요. 따뜻하게 데워 마셔도 좋고, 차갑게 마셔도 위에 부담이 없어서 가족 모두가 만족했습니다.
+카페인 음료와는 달리 이뇨작용이 심하지 않아서 수분 유지에도 도움이 되는 것 같아요.
+---
+✅ 아이들도 잘 마셔요
+자극적인 음료에 익숙한 아이들도 거부감 없이 잘 마셔서 만족스러웠어요. 단맛이 없어 처음엔 심심해할 수 있지만, 금세 익숙해지고 자연스럽게 물처럼 자주 찾게 되더라고요.
+특히 어린이집이나 학교에 챙겨 보내기에도 괜찮은 크기라 실용성이 높습니다.
+---
+✅ 깔끔한 디자인과 보관성
+병 디자인이 심플하고 깔끔해서 냉장고나 사무실 책상 위에 놓아도 눈에 거슬리지 않고, 325ml라는 크기가 일반 생수보다 부담 없으면서도 딱 적당한 양이라서 낭비 없이 마실 수 있는 것도 장점입니다.
+뚜껑도 단단하고 새지 않아 가방에 넣고 다니기에도 문제없었어요.
+---
+✅ 유통기한 넉넉해서 대량 구매 부담 없음
+20개들이 대용량이지만 유통기한이 넉넉하게 잡혀 있어서 천천히 마셔도 전혀 부담이 없었어요. 상온 보관도 가능하니 냉장고 공간이 부족할 땐 실온에 두었다가 하나씩 옮겨가며 마셔도 좋습니다.
+---
+✅ 총평
+하늘보리차는 단순한 음료가 아닌, 건강하면서도 맛있는 수분 보충제라는 느낌이에요. 단 음료가 지겨운 분, 카페인이 부담스러운 분, 아이들에게 건강한 음료를 주고 싶은 분 모두에게 강력히 추천할 수 있는 제품입니다.
+요즘은 냉장고에 항상 하늘보리 한두 병씩 채워두고, 외출할 때 하나씩 챙겨 나가는 게 습관이 되었을 정도로 만족스럽습니다.</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>러블리리인</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>5</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2025.08.29</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>물보다 음료수보다 맛있는 하늘보리~</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>하늘보리 차 음료, 325ml, 20개
+손안에 딱 잡히는 325ml병으로 고소하고 시원한 음료입니다.
+고등학생 2명 있는 가정입니다. 여름에는 냉장고에 어떤 음료를 넣어둬야 하나 고민을 많이 합니다. 하늘보리 차 음료는 냉장고에 채워두면 금방 사라지는 음료입니다. 아이들은 목이 마를때 물이 먹기 싫다고 합니다. 시원한 음료를 먹고 싶은데 딱히 땡기는게 없을때 하늘보리 차를 마시면 고소하고 시원하고 기분이 좋아다고 합니다. 어느덧 남편까지 마시더니 온 가족이 시원하게 마시는 음료가 되었네요. 어제 2박스 쟁여두니 마음이 편합니다. 엄마로써는 재활용 버릴때 라벨을 떼어야 하는 번거로움이 있지만 아이들이 잘 마시니 무조건 무조건 세일할때 구매해야겠습니다. 매우 만족합니다.
+앞으로도 재구매할 예정입니다. 갈증해소용 음료로 하늘보리 차 음료가 좋습니다. 특히 325 ml는 잡기도 편하고 한번에 시원하게 마시기 참 좋습니다. 예전에 엄마들을 보리차도 끓이고 옥수수차도 끓이고 바쁘게 사셨는데 우리는 좋네요. 맛있는 하늘보리 차 음료가 있어서요</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>김*순</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>5</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 24개</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>구수하고 부드러운 무카페인 보리차!</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>하늘보리, 500ml – 구수하고 부드러운 무카페인 보리차!
+속까지 편안한 구수함!
+하늘보리 500ml는 국산 보리를 고소하게 우려낸 보리차 음료로, 카페인이 없어 남녀노소 누구나 부담 없이 즐길 수 있는 건강한 음료입니다. 깔끔하고 부드러운 맛, 시원하게 마시면 갈증은 물론 속까지 편안하게 풀리는 느낌! 식사와 함께하거나 수분 보충이 필요할 때 최고의 선택입니다.
+제품 특징
+무카페인 건강 음료
+카페인이 전혀 들어있지 않아 어린이부터 어르신까지 모두 안심하고 마실 수 있어요. 수분 보충이 필요할 때 물 대용으로 딱!
+구수하고 부드러운 보리향
+볶은 국산 보리의 진한 향과 부드러운 목 넘김이 특징입니다. 밥과도 잘 어울리고, 입 안을 깔끔하게 정리해주는 느낌이에요.
+500ml의 넉넉한 용량
+하루 외출이나 운동, 식사 시 곁들이기 좋은 사이즈! 한 손에 들기 편한 패트병 형태로 휴대도 간편합니다.
+효과적인 활용법
+식사와 함께 깔끔하게
+느끼한 음식이나 매운 음식과 함께 마시면 입안을 정리해 주고 소화를 도와줍니다. 국 대신 보리차 한 컵도 추천!
+카페인이 부담스러울 때
+밤에 갈증이 나거나, 어린이 음료가 필요할 때 하늘보리로 수분 보충! 몸에 부담 없이 편하게 마실 수 있어요.
+운동 중·외출 시 수분 보충
+물 대신 마시기 좋은 대체 음료! 구수한 맛이 부담 없고, 운동 중에도 깔끔하게 갈증을 해소해 줍니다.
+✅ 총평
+하늘보리 500ml는 깔끔하고 부드러운 보리차 본연의 맛을 살린 무카페인 음료입니다. 수분 보충은 물론 식사와도 잘 어울리고, 온 가족이 마실 수 있는 건강한 선택지로 제격입니다.
+탄산이나 카페인이 부담스러운 날엔, 하늘보리 한 병으로 속까지 편안하게!</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>일산서구민</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>5</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 1.5L, 12개</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>시원하고 구수하며, 깔끔하고 개운한 보리차 입니다.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>안녕하세요. 쿠팡리뷰어 일산서구민 입니다.
+웅진식품 하늘보리 1.5리터 12개에 대한 구매후기 입니다.
+우리아이가 물을 하늘보리만 먹다보니, 저와 와이프도 요즘 하늘보리를 제일 자주 마시게 되는 것 같습니다. 이럴꺼면 정수기는 뭐하러 들여놨나라는 말까지 나오고 있습니다. 아이는 주로 325ml와 500ml를 마시고 있으며, 저희는 덩치에 맞게 1.5리터짜리를 먹고 있습니다. 먹다보니 맛있어서, 물을 많이 마시게 되는 효과가 있었고, 정수기물 보다 하늘보리를 더 많이 마시게 되었습니다.
+무라벨과 유라벨의 가격차이가 있으니, 확인 후 구입하시길 바랍니다.
+똑같은 하늘보리 1.5리터 12개짜리의 가격이 천원이 차이가 납니다. 무라벨보다 유라벨이 천원이 저렴합니다. 왜 이렇게 차이가 나는건지 모르겠으나, 라벨을 뜯기가 귀찮더라도 천원을 아끼는게 낫다고 생각해서, 유라벨로 구입하였습니다. 전에는 라벨에 국립공원 그림이 있었는데, 이제는 다시 원래데로의 디자인으로 돌아온 것 같습니다.
+시원하고 구수하며, 깔끔하고 개운한 맛이라 자주 마시게 되었습니다.
+하늘보리는 구수한 맛이 매력적이라, 일반 정수기물이나 생수보다 더 많이 마시게 되는 것 같습니다. 그리고 마시고 나면 깔끔한 느낌이 들고, 시원하고 개운하니 갈증이 말끔하게 해소되는 것 같습니다. 멸균 보리차이기 때문에, 상온에 보관할 수 있으니, 냉장고에 자리를 차지하지 않는다는 것도 장점이 됩니다. 이번에 구입한 하늘보리도 잘 마시고, 다음에도 재구매 하겠습니다. 감사합니다.</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>까까참새</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>5</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2025.06.20</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>고소하고 깔끔해 매일 마시기 좋아요.</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>하늘보리 – 매일 마셔도 질리지 않는, 속 편한 보리차의 정석
+요즘 음료 하나 사려 해도 무설탕, 무카페인, 칼로리, 첨가물까지 따지게 된다.
+특히 15개월 아기를 키우는 입장에서,
+**온 가족이 같이 마실 수 있는 ‘안심 음료’**를 찾다가
+눈에 띈 게 바로 이 제품,
+하늘보리 차음료였다.
+사실 어릴 적엔 보리차가 그다지 매력적으로 느껴지진 않았다.
+병원이나 어린이집에서 물 대용으로 마셨던 기억이 전부였고,
+늘 밍밍하거나 떫다고 느껴졌기 때문이다.
+그런데 이 ‘하늘보리’를 마셔보고 생각이 완전히 달라졌다.
+지금은 냉장고에 항상 1.5L 페트병을 4개 이상씩 비축해두는 음료가 되어버렸다.
+도착 &amp; 패키지 인상
+쿠팡에서 로켓배송으로 주문했더니 다음날 도착.
+1.5L 페트병 12개들이 세트였고,
+묵직한 박스에 꼼꼼히 담겨왔다.
+패키지는 군더더기 없이 깔끔하다.
+누가 봐도 ‘물 대용 건강 음료’라는 인상을 주는
+하늘색과 밝은 밀색 조합이 마음에 들었다.
+병 자체는 잡기 쉽게 홈이 파여 있고
+뚜껑도 무난하게 잘 열렸다.
+첫 마신 날 – 냉장 보관 후, 단독 음용
+냉장고에 하루 넣어 시원하게 만든 후,
+점심 식사 후 첫 잔을 따라봤다.
+잔에 따르자 보리 특유의 연한 황금빛이
+은은하게 퍼졌고,
+입에 머금을 때 벌써부터 고소한 향이 느껴졌다.
+맛은?
+첫 느낌: 입에 닿자마자 고소함이 퍼짐
+중간 맛: 거칠거나 떫은 맛 전혀 없음
+끝 맛: 깔끔하게 입 안을 정리하며 목 넘김이 부드러움
+잔향: 한 모금 마시고 나면 입 안이 개운하고 편안함
+무설탕인데도 ‘심심하다’는 느낌이 아니라
+담백하면서도 고소한 맛의 밸런스가 훌륭했다.
+물 대신 마시기 딱 좋은 그 중간지점을 찰떡같이 잡은 느낌이다.
+우리 아이도, 남편도 좋아해요
+15개월 된 딸은 이유식 후, 컵에 조금 따라주면
+“앗앗!” 하고 마시며 좋아한다.
+당분이 없어도 향이 고소하니
+아기도 잘 마시고,
+혹시라도 이가 썩을 걱정 없이 마음이 편하다.
+남편도 원래 탄산음료파였는데
+하늘보리 맛을 본 이후
+**자발적으로 ‘콜라 대신 이거 먹을래’**라고 말할 정도로 반응이 좋았다.
+식사할 때나 퇴근 후 갈증 해소용으로 마시기에 딱 좋은 음료다.
+매일 마셔본 후기 &amp; 활용
+✔️ 식사 때 – 물 대신 마시기 최고
+특히 삼겹살이나 매운 음식 먹을 때
+탄산음료보다 하늘보리가 훨씬 깔끔하게 마무리된다.
+입안을 정리해 주는 역할이라,
+소주 대신 보리차 마시며 고기 먹는 날도 많아졌다.
+✔️ 아침 공복 – 위에 부담 없음
+빈속에 찬 음료 마시면 속이 쓰릴 때가 있는데
+하늘보리는 마셔도 전혀 속이 불편하지 않았다.
+심지어 아침 공복에 한 컵 마시면
+속이 정돈되는 느낌이 들어, 루틴이 되었다.
+✔️ 수유 중 간식 대용 – 무설탕&amp;무카페인 최고
+아이를 키우며 커피나 탄산은 꺼리게 되는데,
+하늘보리는 무카페인 + 무칼로리 + 무색소 + 무설탕
+완전한 ‘제로의 음료’다.
+덕분에 수유 중에도 부담 없이 마실 수 있고
+당이 올라 걱정할 일도 없다.
+장점 요약
+무카페인 &amp; 무설탕 → 아이부터 어른까지 OK
+고소하고 깔끔한 맛 → 물보다 맛있고 부담 없음
+냉장고에 항상 두기 좋은 페트 타입
+냉 or 온 모두 가능 → 겨울엔 데워서 마셔도 좋음
+속이 편함 → 위장에 부담 없는 음료
+용도 다양 → 식사·간식·수분보충·간단한 외출 음료로 활용도 높음
+국산 보리 사용 + HACCP 인증 → 신뢰도 높음
+아쉬운 점
+병 마개가 약간 느슨함 → 눕혀두면 물 샐 수도 있음
+낱개 구매 비싸고 무거움 → 여러 개 세트로 사야 가성비 좋음
+미온 보관 시 풍미 떨어짐 → 냉장 또는 뜨겁게 마시는 게 좋음
+꿀팁
+여름엔 얼음컵에 따라 마시면 청량감 ↑
+겨울엔 따뜻하게 데워 보온병에 넣어 외출용으로도 딱
+물 마시기 싫어하는 아이에게 ‘차 대용’으로 활용 추천
+냉면, 볶음밥, 김밥 등과의 궁합도 굿!
+총평
+“하늘보리는 물도, 음료도 아니다.
+그 중간의 가장 완벽한 선택이다.”
+물처럼 부담 없고, 음료처럼 맛있다.
+탄산음료를 줄이고 싶거나,
+카페인 없는 건강한 음료를 찾는다면
+이보다 더 나은 대안은 없을 것이다.
+지금은 냉장고에 이 제품 없으면 허전할 정도로
+우리 집 필수 생필품 1순위.
+한 번 마시면 왜 많은 가정에서 꾸준히 재구매하는지
+바로 이해가 된다.
+제품 요약
+제품명: 하늘보리 차음료
+용량: 1.5L 페트병 / 350ml 병 타입도 있음
+맛: 고소 + 깔끔, 떫은맛 無
+주요 성분: 국산 볶은 보리 + 정제수
+보관: 냉장 또는 실온
+별점: ★★★★★ (5/5)
+한 줄 요약:
+“누구나, 언제든, 아무 걱정 없이 마실 수 있는 최고의 일상 음료!”</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>최*연</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2025.09.04</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>하늘보리 한 잔이면 마음까지 맑아지는 기분</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>하늘보리 차 음료, 325ml, 20개
+더운 여름 집에서 차 끓일 필요없이 보리차를 주문했어요.
+건강한 느낌이 나는 보리차~~
+보리차는 카페인 걱정 없이 마실 수 있어서 아이들부터 어른들까지 모두 좋아할 수 있는 음료죠.
+달달하거나 자극적인 맛이 없어서 부담 없이 마시기 딱 좋습니다.
+특히 차가운 상태로 마시면 더 맛있어요.
+여름철에 시원하게 마시면 갈증 해소에도 최고^^
+325ml 용량도 적당하다고 느껴져요.
+너무 적지도 않고 그렇다고 너무 많지도 않은 딱 한 번에 마시기 편하고
+20개 묶음이라 가족끼리 나눠 마시거나 회사나 학교에서 간편하게 챙기기 좋아요.
+패키지도 깔끔하고 들고 다니기 편리해서 이동 중에도 유용합니다.
+보리차의 진한 고소한 맛을 좋아하지 않는 분이라면 조금 밋밋하게 느껴질 수도 있어요.
+하지만 건강한 음료를 찾는 분들께는 정말 추천할 만한 제품입니다!
+가격도 합리적이라 가성비가 좋다고 느껴져요.
+아이들부터 어른들까지 누구나 안심하고 마실 수 있는 음료라서 가족용으로도 추천합니다.</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>호해바라기</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2025.06.18</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>즐겨 이용하는 물품이 되었습니다. 깔끔하고 충분해요!</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>하늘보리, 물품 품질이 좋고 물맛이 깔끔합니다. 강력히 추천합니다.
+비슷한 물품을 찾던 중, 품질이 좋고 다양하게 쓸모가 있어 재구매했습니다. 간편하게 이용하고 맛나게 즐겨보렵니다. 추천드립니다!
+포장이 과하지 않고 적당하게 잘 처리 되었고, 신속한 배달이 안전하게 잘 만족스럽게 이루어졌어요! 품질이 좋고 다양한 쓰임에 손쉽게 이용이 가능합니다. 강력히 추천합니다!
+비슷한 물품을 찾던 중 품질이 좋고 경제적인 적정 가격에 구입을 해 볼 수 있겠다 싶어 좋은 식음료 찾기에 도전해 볼 의도로 재구매했습니다. 시간을 조금들여 찬찬히 살펴보면 만족하는 좋은 선택을 할수 있습니다. 필요시 구입하여 간편하게 이용하고 기꺼이 즐겨보세요.
+기회가 되면 재구입도 해 보려고 합니다. 쿠팡 식물품 선택은 계속적인 관심을 가지고 살펴보면 눈에 보이는것이 있습니다. 자신의 물품 선택의 수준이 업그레이드가 됩니다. 가격을 비교해 보고 다양한 물품 중에서 자신이 원하는 것을 찾아 선택하고 구입합니다. 새로운 물품을 보는 눈도 차츰 키워 집니다. 다른 맛이나 쓰임을 찾아보기도 하는 재미도 솔솔하게 있습니다.
+싱싱하고 좋은 음료를 적정가에 값싸게 구입하는 쿠팡체험을 하게 되어, 자신의 생활이 많이 여유로워 졌습니다. 쿠팡 구매를 통한 삶의 질이 한 단계 업그레이드 되어 좀더 나은 자신을 완성하기에 한 걸음 더 다가가 봅니다.
+기회가 되면 좀 더 수준있는 식상물품에 도전하고 한걸음 더 체험시도해 보렵니다. 쿠팡하다 인생순삭! 쿠팡을 평생학습의 성장하는 좋은 멋진 기회로 만들어봐요. 사랑합니다, 감사합니다, 응원합니다! 힘 내시고, 화이팅!... .</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>장준혁</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>5</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2025.06.17</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>매일 마시는 깔끔한 보리차</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>최근 들어 탄산음료는 피하고, 자극적이지 않은 음료를 찾게 되더라고요. 특히 집에서든 외출할 때든 부담 없이 마실 수 있는 음료를 찾다가 하늘보리로 눈길이 갔어요. 예전에도 종종 마셨던 제품인데, 이번에 아예 넉넉하게 구입해두면 좋겠다 싶어서 500ml짜리 20개 묶음으로 주문했답니다. 요즘은 건강을 생각한 선택이 진짜 트렌드잖아요.
+하늘보리는 보리의 고소함을 그대로 담은 무카페인 차음료예요. 용량은 500ml로 가볍게 들고 다니기에도 딱 좋고, 병 디자인도 깔끔해서 보기만 해도 시원한 느낌이 들어요. 보리 특유의 향긋함과 깔끔한 끝맛 덕분에 목 넘김이 정말 부드러워서 물 대신 마시기에도 부담이 없어요. 냉장고에 넣어뒀다가 시원하게 마시면 하루 피로가 싹 풀리는 기분이 들어요.
+무엇보다 좋은 건 무카페인이라 아이부터 어른까지 누구나 안심하고 마실 수 있다는 점이에요. 저는 특히 운동 후나 자기 전에 갈증 해소용으로 즐기는데, 속도 편하고 마신 뒤에도 개운함이 오래가요. 별다른 첨가물이 없어 자극적이지 않아서 매일 마셔도 질리지 않더라고요. 건강한 음료를 찾는 분들께 꼭 추천하고 싶어요.
+개인적으로 다양한 차 음료를 마셔봤지만, 이 정도로 꾸준히 손이 가는 건 흔치 않아요. 보리차 특유의 부드러운 맛이 남녀노소 누구에게나 잘 맞을 것 같고, 간편하게 들고 다니면서 수분 보충까지 할 수 있어서 여름철엔 더더욱 자주 찾게 될 것 같아요. 가격 대비 만족도도 높아서 재구매 의사 충분히 있어요.
+한마디로 정리하자면, 자극 없이 부드럽고 일상에 자연스럽게 스며드는 차음료를 찾고 있다면 하늘보리가 좋은 선택이 될 거예요. 물 대용으로도 좋고, 몸에도 부담 없는 깔끔한 맛 덕분에 주변 사람들에게도 많이 추천하고 있어요. 냉장고에 하나쯤 쟁여두면 마음까지 든든해지는 그런 음료랍니다.
+૮˶• ﻌ •˶ა
+./づ~ 도움이 되셨다면 '도움이 돼요' 눌러주세요!</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>우리의봄날</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>5</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2025.06.17</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>외출할때 하나씩 들고나가기 좋아용</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>▪︎내돈내산 리뷰작성입니다▪︎
+집에 정수기가 있는데
+외출할때 정수기 물 받아서 나가는게 너무 귀찮더라구여ㅠㅠ 매번 물 받아서 나가는걸 깜박하기도 하고 .. 앞전에 하늘보리 325ml 짜리 구입해서 잘 마셨는데
+여름이고 물 섭취량도 많아져서 이번에는 500ml 로
+구입해 봤어요^^
+주문하고 그 다음날 바로 왔어요
+배송도 빠르고 포장도 잘 돼서 왔어요~~
+병 모양도 둥글둥글 하니 손에 착 감기고!!
+별로 무겁지 않아서 외출 할때 들고 다니기 좋더라구용ㅎㅎ
+저는 냉장실에 몇 개 두고 현관 앞에 몇개 두고 차에도 몇개 갖다놨어요!
+(물 챙겨 나가는 걸 자주 깜빡깜빡해서요ㅜㅜ)
+일반 생수보다는 보리차나 결명자차 같이 맛있는?물을 더 좋아해서 가끔 편의점에서도 종종 사먹었었는데 아무래도 편의점은 정가이니ㅜ 좀 비싸잖아요 구래서 자주 사용하거나 자주 먹는 것들은 이렇게 대량으로 사놓는 편이에요^^
+하늘보리 맛은 부드럽고 고소해요ㅎㅎ!
+보리 특유의 그 구수한 향이 나면서도
+너무 찐하지 않은 은은한 보리차 맛이라
+텁텁하지 않아서 부담없이 마실 수 있어요^^
+무엇보다 자극적이지 않아서 아이들도 하늘보리를 참 좋아해요 ㅎㅎ
+식사할 때도 함께 마시기 좋구요 ㅎ
+집에 손님 오셨을때 음료 대신 내어드리기도 좋아요^^
+그리고 하늘보리는 카페인이 안들어 있어서 밤에 마셔도 되고
+속도 편안해서 자주 마시게 돼요 ㅎㅎ
+요즘 날이 더워지면서 시원한 음료를 찾게 되는데ㅜ 하늘보리는 국산 재료로 만든거라 건강 걱정 없이 계속 마실 수 있어서 좋아요 ㅎㅎ
+그리고 당류가 첨가되자 않아서 다이어트 중이신 분들께도 좋을 거 같구요~~~
+저는 그냥 물 대신 하루 한두 병은 꼭 마시는 편인데
+수분 섭취도 되고, 맛도 있어서 자주 마시는 편이에용!
+하늘보리 마시니 커피도 덜 마시게 되서
+하루에 한잔씩 사마시는 커피 값도 굳고 ㅋㅋㅋ
+넘 좋아요
+하루에 한두개씩 마시니 .. 20개는 한 박스는 금방 마실 것 같아서 다음엔 40개짜리로 사려구요...ㅋㅋㅋ
+맛있는 물 드시고 싶은 분들께 하늘보리 강추합니당ㅋㅋ
+@제 글이 도움이 되셨다면 도움이 돼요를 꾹 눌러주세요@</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>현명한설명</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>5</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2025.06.16</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>여름엔 구수하고 시원한 하늘보리가 최고!</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>내돈내산으로 작성하는 구매후기 입니다 :)
+주관적으로 작성하오니 구매시 참고 부탁드립니다 :)
+◾제 품 명: 하늘보리 차음료, 500ml, 20개
+—————————제품정보 요약————————
+✔ 외출 메이트! 아침에 꼭 들고나가는 음료
+✔ 무더운날 수.분.충.전
+✔ 재구매
+———————————————————————
+✅사용후기
+하늘보리는 진짜 안 질리고 계속 마시게 되는 음료같아요ㄷ..
+이번에도 역시 500ml짜리 20개 묶음으로 주문했는데
+더워서인지 하루에2병씩 먹고 있어요 ㅋㅋ..
+예전부터 편의점에서 종종 사 마셨던 음료인데, 이렇게
+한 박스로 쟁여두니까 훨씬 가성비도 좋고 편해요.
+냉장고에 쏙 넣어두고 외출할 때 하나씩 챙겨나가기도
+좋고, 집에서도 물 대신 가볍게 마시기 괜찮더라구요.
+분명 몇주전에도 주문해서 먹은 것 같은데 매일 마셔서
+인지 금방 동이 나네요 ㅎ 보리차중에 제일 부담없이
+먹게되는 것 같아요!
+맛은 딱 우리가 익숙한 보리차 맛인데, 텁텁하지 않고
+깔끔해서 식사할 때 같이 마시기에도 부담 없고,
+운동 후에도 탄산 대신 마시기 좋아요. 은은하게
+구수한 향이 올라와서 마실 때 기분까지 안정되는
+느낌이랄까. 특히 더운 날에는 차가운 보리차 크흐!!
+무카페인이라 자기 전에도 부담 없이 마실 수 있고,
+음료수는 먹고 싶은데 달달한 건 피하고 싶을 때
+딱이에요. 탄산처럼 속이 더부룩하지도 않고,
+깔끔한 마무리감이 있어서 물처럼 마시기 좋아요!
+무엇보다 페트병이 500ml라 들고 다니기도 딱 적당한
+크기라 좋아요. 너무 크면 가방에 넣기 부담스럽고,
+너무 작으면 금방 다 마시고 부족한데 이건 딱 중간이라
+외출할 때 챙겨 나가기에 괜찮았어요.
+계속 재구매할 것 같아요.
+건강한 음료를 찾는 사람한테는 진짜 추천할 만한 제품이에요.
+완전 재구매탬..
+⭐제 후기가 도움이 되셨다면 "도움이 돼요" 부탁드립니다!
+더 꼼꼼하고 세심한 리뷰로 보답 드리겠습니다</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>임*아</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>5</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2025.08.27</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 48개</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>늘 주문하는 보리차</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>일단 대용량 세트라서 집에 쟁여두니까 마음이 든든해요. 325ml 용량이 부담스럽지 않고 한 번에 마시기 딱 좋아서 가족들이 식사할 때나 목마를 때마다 하나씩 꺼내 마시기 좋더라고요. 특히 날씨 더운 날에는 냉장고에 넣어뒀다가 시원하게 마시면 갈증 해소에 최고예요.
+맛은 깔끔하고 구수한 보리차 맛 그대로예요. 달지 않고, 탄산도 없어서 남녀노소 누구나 부담 없이 마실 수 있어요. 카페인 없는 음료라 아이들이나 밤에 마셔도 걱정 없다는 점이 제일 마음에 들었어요. 그래서 물 대신 수시로 마시기도 좋고, 식사랑 같이 곁들이기도 괜찮아요.
+페트병 크기도 적당해서 들고 다니기 편하고, 한 번에 다 마시기 좋은 용량이라 남기지 않게 되더라고요. 가볍게 외출할 때 가방에 넣어 다니기도 괜찮았어요.
+굳이 아쉬운 점을 꼽자면, 물처럼 금방금방 마시다 보니 생각보다 소모가 빨라서 48개 금방 줄어든다는 거? 그만큼 자주 찾게 된다는 의미이기도 해요.
+전반적으로 깔끔한 구수함, 카페인 없는 건강한 음료, 부담 없는 용량까지 삼박자가 잘 맞아서 가족용으로 쟁여두기 좋은 제품이에요.</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>고래밥</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>5</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2025.06.09</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>부담없이 마시기 좋아요</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>더운 여름철을 앞두고 시원하게 마실 음료를 찾다가 오랜만에 하늘보리를 주문해보았습니다. 예전부터 마트나 편의점에서 가끔 사 마시던 익숙한 음료인데, 이렇게 325ml 20개입 한 박스 구성으로 대량 구매하니 가성비도 좋고, 집에서 편하게 마실 수 있어서 매우 만족스럽습니다. 특히 쿠팡 로켓배송 덕분에 주문한 다음날 바로 받아볼 수 있었고, 깔끔하게 도착했어요.
+하늘보리는 말 그대로 맑고 순한 보리차 맛이 특징인데, 탄산이 없어서 어린아이부터 어르신까지 누구나 부담 없이 마실 수 있는 음료입니다. 특히 카페인이 전혀 들어있지 않아서 늦은 밤에도 부담 없이 마실 수 있다는 점이 마음에 듭니다. 요즘엔 탄산이나 당류가 많은 음료보다는 이런 깔끔하고 건강한 차 음료를 더 자주 찾게 되는데, 하늘보리는 그 중에서도 맛과 품질 면에서 믿고 마실 수 있는 제품입니다.
+맛은 정말 부드럽고 구수하면서도 뒷맛이 깔끔해서 식사와 함께 마시기에도 아주 좋습니다. 찬물에 보리차 우려 마시는 느낌 그대로라고 보면 되는데, 그보다 더 위생적이고 언제든 시원하게 꺼내 마실 수 있다는 점이 가장 큰 장점입니다. 냉장고에 넣어두면 가족 누구든지 쉽게 꺼내 마실 수 있어서 집에서도 인기 만점입니다. 특히 더운 날 외출하고 돌아와서 한 캔 딱 따서 마시면 갈증도 해소되고 속도 편안해지는 느낌이에요.
+325ml 용량은 부담 없이 마시기 딱 좋은 사이즈라서 낭비 없이 깔끔하게 한 번에 마실 수 있고, 너무 작지도 않아서 만족스럽습니다. 더운 날 물 대신 마시기에도 좋고, 식사할 때 탄산음료 대신 내놓아도 잘 어울립니다. 요즘 같이 건강을 생각하는 시대에, 당분이나 인공 향료 없이 순한 보리차 맛 그대로를 즐길 수 있다는 건 큰 장점이라고 생각해요. 실제로 원재료도 깔끔하고 단순해서 믿고 마실 수 있는 느낌입니다.
+또한 아이들 음료로도 추천하고 싶습니다. 달지 않고, 인위적인 맛이 없기 때문에 어린이 음료 대용으로 아주 좋고, 밖에 나갈 때 챙겨 나가면 물 대용으로도 손색이 없습니다. 유통기한도 넉넉해서 쟁여두고 하나씩 꺼내 마시기에 좋고, 여름철 캠핑이나 피크닉 갈 때 챙겨가기도 딱입니다.
+총평하자면 하늘보리는 건강하고 깔끔한 음료를 찾는 분들께 강력히 추천드리고 싶은 제품입니다. 맛, 품질, 가격, 실용성 면에서 모두 만족스러웠고, 앞으로도 냉장고에 상비 음료로 계속 구비해두고 싶을 정도로 활용도가 높습니다. 가족 모두가 나눠 마시기에도 충분하고, 부담 없는 음료로는 이만한 제품이 없는 것 같습니다. 앞으로도 재구매 의사 100%입니다!</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>이*영</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>5</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 1.5L, 12개</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>❤️ 한 번 마시면 계속 찾게 되는 구수함! 하늘보리 정성 후기 ❤️
+1️⃣ 입 안 가득 퍼지는 고소하고 깊은 맛!
+하늘보리는 진~한 보리차의 구수함을 제대로 느낄 수 있는 음료예요.
+잡맛 없이 깔끔하고 부드럽게 넘어가는 게 특징이라,
+밥 먹고 나서 마시면 속까지 편안해지고,
+특히 기름진 음식 먹은 뒤에 마시면 환상의 조합이에요.
+마치 어릴 적 엄마가 끓여주시던 보리차 느낌 그대로!
+2️⃣ 무카페인이라 언제든 부담 없이 OK!
+카페인이 없어서 밤에도 마시기 부담 없고,
+임산부나 아이들도 안심하고 마실 수 있어서 가족 모두에게 딱이에요.
+물 대신 수분 보충용으로도 정말 최고예요.
+게다가 다른 음료보다 훨~씬 건강한 느낌이라 자꾸 손이 가요!
+3️⃣ 냉장고 필수 상비템! 시원함은 배가 돼요
+냉장고에 넣어두고 차갑게 마시면 청량감이 두 배!
+더운 여름날, 얼음 넣어 컵에 담아 마시면 카페 음료 부럽지 않아요.
+가격도 착하고 양도 넉넉해서 가성비 끝판왕!
+페트병 포장이라 보관도 쉽고 들고 다니기도 편해서
+소풍이나 캠핑 갈 때도 자주 챙겨요.
+✔️ 총평
+무더운 여름철에는 물론이고, 사계절 내내 마시기 딱 좋은
+하늘보리!
+고소한 맛, 건강함, 가성비까지 모두 갖춘 완벽한 음료예요.
+수분 보충도 하고, 입가심도 하고 싶다면 무조건 추천해요!
+집에 넉넉히 쟁여두고 시~원하게 마셔보세요
+❣️내돈내산 실사용 찐후기 입니다
+도움이 되셨다면 도움이돼요 꾹 눌러주세요☝️</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>이은진</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>5</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2025.06.04</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>구수한 향이 은은하게 나고, 입안이 깔끔해져서 좋아요.</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>날씨가 더워지니 아이들도 갈증을 더 많이 느끼는 것 같아요.
+저는 개인적으로 물을 잘 섭취하지 않아요. 생수는 아예 마시지를 않구요.
+그래서 하늘보리를 구매를 해서 마시려고 노력을 하고 있어요.
+외출시 가방에 넣어 다니기도 좋고 한 사이즈가 딱 이 325ml가 알맞은 것 같아요.
+제가 마시려고 구매를 해 놓으니 아이들도 생수보다 보리차가 더 구수하고 맛이 있는지
+금새 동이 나고 말았네요.
+어릴적에는 엄마가 늘 끓여주시던 보리차 였는데, 제가 막상 집에서 끓여서 먹어 보니
+하루이틀 지나고 나면 상하지 않았을 까 하는 찝찝함이 있어 버려지는 물이 대부분 이어서
+이렇게 구매를 해서 섭취를 하는 것이 더 가성비도 좋고 편함도 더해져서 좋은 것 같아요.
+아이들과 외출시는 어디서든 금새 필요한게 물인것 같아요.
+저는 하루 얼마만큼의 양을 섭취했는지 가늠도 되어서 더 좋은 것 같아요.
+시원하게 냉장보관을 해 두고 마시다 보면 갈중도 날아가고, 입안이 텁텁하지 않아서
+다른 음료를 찾지 않게 되요.
+100% 국산 곡물로 만들어져서 안심하고 마실 수 있구요.
+매번 따로 한병씩 구매를 해서 마시는 것 보다 이렇게 24개 들이로 구매를 해 놓고
+마시는 편이 훨씬 경제적이기도 해서 좋으네요.
+여름철에는 이보다 더 좋은게 없네요.
+등교시 아이들도 물통을 챙겨 주어도 한병씩 가방에 더 넣어서 가곤 한답니다.
+하늘보리를 마시다 보니 커피양도 많이 줄어 들고 탄산음료를 마시지 않게 되어서
+건강에도 더 좋은 느낌을 주네요.
+개인적으로는 물을 더 섭취함으로써 피부의 푸석거림도 많이 줄어 들고 화장실 가기도 편해 져서
+물을 마시지 않는 저로써는 맛있게 수분을 섭취할 수 있어 더할 나위 없이 좋은 제품입니다.
+남기지 않고 그날 그날 다 마실 수 있어 위생적으로도 정말 만족 스럽네요.
+****************************제품을 구매 하시는 데 조금 이나마
+도움이 되시길 바래 봅니다.*********************************************</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>양*나</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>5</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2025.09.06</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 1.5L, 12개</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>제품명 : 하늘보리, 1.5L, 12개
+무게 : 1.5L, 12개
+갯수 : 12개
+한동안 물 끓여먹다가 다시 구입하기 시작했어요.
+물이랑 하늘보리 섞어서 마시거든요, 저는 엄청 연하게 마시는 편이에요.
+그래서 이틀에 한병은 마시고 있어요.
+남들은 별로 안진하다고 하는데 저한테는 좀 진한 편이라 물을 1/3정도 넣고 얼음도 가득 채워먹는 편이에요.
+500ml 텀블러에 담아서 시원하게 먹어요.
+보관은 실온 보관하고 있는데 뚜껑 개봉하고 나서는 냉장보관 추천합니다.
+맛이 살짝 변해요. 못먹을 맛은 아닌데 안좋은 쪽이 부각되는 맛으로 변해서 별로더라구요.
+여름에 얼움 가득 넣고 시원하게 먹고 겨울엔 따뜻하게 데워서 먹거나 뜨거운 물 부어서먹으면 향이 엄청 진해서 방금 끓인 보리차 먹는 느낌이에요.
+원랜 얼음이 짱이야,했는데 하늘보리의 진가는 뜨거울 때 나오는 것 같아요.
+입에서 정말 고소하고 따뜻하게 퍼지는 향이 진짜찐짜 좋아요.
+여름이라 끓여먹는거 귀찮고 보관도 힘든데 하늘보리 구입해서 먹으니까 정말 편하고 좋아요.</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>김성태</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>5</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2025.06.02</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 24개</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>좋아용</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>시원한 음료 한 캔이 절실한 요즘, 갈증 해소와 건강까지 챙기고 싶다면 보리차만한 게 없죠.
+이번에 **‘하늘보리 325ml 24캔’**을 마셔봤는데요, 역시 국민 보리차답게 기대 이상으로 만족스러웠어요.
+냉장고에 넣어 두었다가 꺼내 마시면, 더위에 지친 몸에 착 감기는 그 느낌!
+자극 없이 부드럽고 은은한 보리향이 너무 좋아서 자꾸 손이 가더라고요.
+우선 첫 번째 장점은 부담 없는 무카페인이라는 점이에요.
+커피나 탄산처럼 중독되지도 않고, 카페인이 없으니 아이들이나 임산부도 걱정 없이 마실 수 있어서 가족용으로도 제격이에요.
+저녁에 마셔도 잠을 방해하지 않아서, 야식 대신 한 캔 마시기도 딱 좋고요.
+두 번째 장점은 깔끔한 맛과 향이에요.
+요즘은 단맛 가득한 음료에 질려서 목 넘김이 편한 음료를 찾고 있었는데, 하늘보리는 처음부터 끝까지 깔끔하고 텁텁함이 전혀 없어요.
+구수하면서도 은은한 향이 부담스럽지 않고, 목 넘김도 부드러워서 식사 중에도, 운동 후에도 잘 어울리더라고요.
+세 번째 장점은 캔 타입이라 보관과 휴대가 정말 편하다는 점이에요.
+페트병은 부피가 크고 개봉하면 빨리 먹어야 하는데, 캔은 하나씩 꺼내 마시기도 좋고, 캠핑이나 외출할 때도 쏙쏙 챙기기 쉬워요.
+냉장고 문짝에도 예쁘게 정리되고, 디자인도 깔끔해서 보기에도 좋네요.
+네 번째 장점은 가격 대비 만족도예요.
+24개 한 박스 구성이라 가성비도 좋은 편이고, 매일 한두 캔 마셔도 부담이 없어요.
+무엇보다 아이스커피 대신 건강하게 수분을 채울 수 있다는 점에서, 만족도가 확실히 높아요.
+아쉬운 점은 내용량이 조금 적게 느껴질 수 있다는 점이에요.
+325ml라서 갈증이 많이 날 때는 한 캔으로는 부족한 느낌이 들기도 해요.
+조금 더 넉넉한 용량이 있다면 선택의 폭이 넓어질 것 같아요.
+총평하자면, 하늘보리 325ml 24캔 세트는 언제 어디서나 부담 없이 마실 수 있는 건강한 보리차 음료로,
+무더운 여름철에도, 포근한 실내에서도 모두 잘 어울리는 제품이에요.
+캔 타입으로 보관도 간편하고, 깔끔한 맛 덕분에 가족 모두가 만족할 수 있었어요.
+건강을 생각하는 음료를 찾고 있다면 하늘보리 한 박스 구비해두시는 거 추천드려요!</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>옹비</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>5</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2025.05.30</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>일단 하늘보리는 솔직히 국민 보리차 해장으로 좋은 물
+마트 가도, 편의점 가도 항상 이 제품은 눈에 띄고,
+특히 여름 되면 목 마를 때 한 병 쓱 꺼내 마시면 그 고소~한 향에 자동 힐링됨.
+그래서 매번 하나씩 사다 마시는 것보다, 그냥 한 번에 박스로 사서 냉장고에 쟁여두자! 싶어서 20개 세트를 질렀습니다.
+결론부터 말하자면? 만족도 1000%. 재구매각임.
+하늘보리의 가장 큰 장점은요, "차인데, 물처럼 부담이 없다는 것."
+카페인도 없고, 당도 없고, 탄산도 없어서 아이부터 어른까지 누구나 마시기 좋고,
+특히 술먹은날 ^^ 차에서도 먹기 좋은 페트 보리차 음료 여자친구가 좋아하는 음료
+운동하거나 더운 날, 혹은 기름진 음식 먹은 뒤에 마시면 입이 확 정리되는 느낌.
+개인적으로는 콜라, 사이다 같은 탄산음료보다 이런 차음료를 훨씬 좋아해서
+항상 냉장고에 구비해두는 편인데, 생수도 사먹는 편이라 가끔은 하늘보리를 사서 먹으면
+평소 물 잘 안먹는 저도 하늘보리는 금방 먹습니다.
+하늘보리는 고소하면서도 깔끔하고, 끝맛이 텁텁하지 않아서 진짜 질리지 않아요.
+딱 먹고 나면 입안 개운 + 속도 편안한 조합.
+500ml짜리 20병이 박스 포장으로 왔고, 배송도 빨랐어요.
+유통기한 넉넉하고, 병도 깨끗하고 손상 없어서 만족.
+하나씩 꺼내 마시기 좋게 플라스틱 생수병 형태라 편함.
+직장에 2~3병 챙겨두고, 나머지는 냉장고에 넣어뒀어요.
+사무실에서도 종종 탄산 음료 대신 꺼내 마시는데, 깔끔한 맛
+첫맛: 시원하고 고소해요. 입에 착 감기는 느낌.
+전혀 텁텁하거나 씁쓸하지 않고 부드러워요.
+깔끔하게 정리되면서 입안에서 고소한 향이 살짝 남아요.
+특히 요즘처럼 더운 날씨에 냉장고에 시원하게 넣어놨다가 꺼내 마시면 진짜 최고.
+다이어트 할떄 물을 많이 마셔야하는데 맹물은 잘 안넘어가는 저같은 분들
+자취생들 쟁여놓기 좋은 제품
+카페인 민감한 사람이나 탄산 안 맞는 분들, 다이어트 중인 분들한테도 완전 강추입니다
+물은 밍밍하고 탄산은 부담스러운 분
+무카페인 음료를 찾는 임산부/수유부
+가볍고 깔끔한 입가심 음료를 찾는 분
+온 가족이 함께 마실 수 있는 건강한 음료를 찾는 분
+냉장고에 시원하게 쟁여두고 싶은 보리차 좋아하는 분
+단점이라면 쓰레기 많이 나올수 잇다
+가격대가 저렴하지는 않다는 정도 ?
+다음에는 무라벨로 구매하려구요
+제글이 조금이나마 도움이 되셧다면
+도움이 돼요를 꾹 눌러주세요
+긴글 읽어주셔서 감사합니다.</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>김*두</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>5</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2025.05.30</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>하늘보리 차 음료, 325ml, 20개
+하늘보리 차 음료 325ml x 20개입 구입했어요
+해외 갈 때 챙겨가려고 작은사이즈 보리음료 주문했어요
+평소에도 물맛에 민감해서 보리차처럼 구수한 맛이 나는
+음료를 선호하는 편인데, 낯선 현지 생수를 마시기 어려울 것 같아
+하늘보리를 일부러 챙겨가게 되었어요
+전체 20개입 중에서 6개만 여행용으로 가져갔고
+캐리어 2개에 3개씩 나눠서 넣었어요
+아무래도 액체라 무게도 무겁고 부피도 있어서
+딱 필요한 만큼 챙겨가니 여행 중 꽤 유용했어요.
+특히 더운 나라에서는 갈증이 자주 나는데
+생수는 입에 잘 안 맞아서 애매할 때가 많았거든요
+도착해서는 호텔 냉장고에 보관해 두고,
+주로 숙소에서 쉴 때나 아침에 일어났을 때
+자기 전에 마시는 용도로 활용했어요
+시원하게 마시면 목도 부드럽게 넘어가고
+자극적이지 않아서 속도 편했어요
+과일주스나 탄산음료처럼 단맛이 강하지 않아서
+물 대용으로 딱 좋았어요
+여행 중 매번 생수를 사 마시거나 현지 음료를 고르기 애매할 때
+이렇게 익숙하고 내 입맛에 맞는 음료를 챙겨간 건 좋은 선택이었다고 생각해요.
+전반적으로, 물을 잘 못 마시는 분이거나
+장시간 여행 중 편하게 마실 음료를 찾는 분에게는
+하늘보리 같은 깔끔한 무카페인 음료가 매우 만족스러울 수 있어요
+낯선 환경에서 속 편하게 마실 수 있는 ‘나만의 음료’를 하나쯤 챙겨가는 건
+여행 중 예상보다 큰 만족을 줄 수 있다는 걸 느꼈어요
+작은 사이즈라 평소 운동할 때 가지고 다니기 좋은 325ml 추천드려요</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>세계최고</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>5</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2025.08.03</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>고소하고 맛있어요~ 500ml 먹기 딱 좋네요~</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>가정에서 학교 등교할때 꾸준히 챙겨서 먹고 있는 하늘보니~
+가성비 맛도 고소하고 좋아서 꾸준이 구매하고 있어요~
+매일 마시고 남기는 솔직하고 자세한 후기입니다~^^
+✔ 장점
+보리 특유의 고소하고 깔끔한 맛
+무카페인이라 아이부터 어른까지 부담 없이 마실 수 있음
+시원하게 마시면 갈증 해소에 좋고 식사와도 잘 어울림
+페트병 개별 포장이라 휴대성과 보관이 편리함
+대용량 20개 세트라 가격 대비 가성비 좋음
+✔ 아쉬운 점
+단맛이 거의 없어 달달한 음료를 선호하는 분에게는 밍밍할 수 있음 (개인적인 입맛 차이)
+✔ 총평
+부담 없는 고소한 보리차 맛으로 남녀노소 누구나 마시기 좋은 국민 보리차 음료.
+카페인이 없어 밤에도 마실 수 있고, 물 대신 시원하게 두고 마시기 딱 좋음.
+대량으로 사두면 온 가족이 가볍게 즐기기에 알맞은 제품.
+● 추천 대상: 무카페인 음료 찾는 분, 집이나 사무실에서 물 대신 부담 없이 마실 음료 찾는 분
+최대한 사진을 자세히 찍었으니 참고하시면 구매결정에 도움이 되실거예요~
+이상 내돈내산 솔직한 후기!! 많은 도움이 되셨으면 좋겠습니다~
+==========================================
+저의 후기가 도움이 되셨나요?
+그렇다면 "도움이 돼요"를 눌러주세요~ *.☆⸜(⑉˙ᗜ˙⑉)⸝♡.*
+==========================================</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>밀크림왕발</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>5</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2025.05.24</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>갈증 해소에 최고! 하늘보리 325ml 20개입 솔직 리뷰
+평소 물 대신 마실 음료를 찾다가, 깔끔하고 건강한 음료로 딱 좋은 하늘보리를 즐겨 마시고 있습니다. 특히 325ml 20개입은 냉장고에 쟁여두고 마시기 정말 좋은 구성이라 자주 구매하는 편이에요.
+좋았던 점
+* 깔끔하고 시원한 맛: 역시 하늘보리는 언제 마셔도 속이 시원해지는 깔끔함이 최고입니다. 보리의 구수한 향이 은은하게 나면서도 텁텁함 없이 개운하게 목을 축여줘서 갈증 해소에 탁월해요.
+* 부담 없는 용량 (325ml): 500ml는 한 번에 다 마시기 좀 많다고 느껴질 때가 있는데, 325ml는 딱 적당한 양이라 부담 없이 마실 수 있어서 좋아요. 남길 일도 없고, 외출할 때 가볍게 챙겨 나가기도 좋습니다.
+* 20개 대용량 구성: 한 번 구매해두면 꽤 오래 마실 수 있어서 편리해요. 온라인으로 주문하면 집 앞까지 배송해주니 무거운 음료를 직접 들고 올 필요가 없어 더욱 만족스럽습니다. 냉장고에 꽉 채워두면 든든하죠!
+* 카페인 제로, 無설탕: 건강을 생각해서 카페인이나 설탕이 들어간 음료를 피하는 편인데, 하늘보리는 둘 다 없어서 안심하고 마실 수 있습니다. 아이들에게도 안심하고 줄 수 있어서 좋아요.
+* 어느 음식에도 잘 어울림: 느끼한 음식, 매운 음식, 심지어는 아무것도 먹지 않을 때도 하늘보리는 다 잘 어울려요. 음식의 맛을 해치지 않으면서 입안을 개운하게 해주는 역할을 톡톡히 합니다.
+아쉬웠던 점
+* 딱히 아쉬운 점은 없지만, 굳이 꼽자면 가끔씩 가격 변동 폭이 있어서 구매 시기를 잘 맞춰야 한다는 점? 하지만 이건 어떤 제품이든 마찬가지인 것 같아요.
+✨ 이런 분들께 추천해요!
+* 물만 마시기 심심하고, 건강한 음료를 찾으시는 분
+* 카페인과 설탕 없이 갈증을 해소하고 싶은 분
+* 식사 중 또는 식사 후에 깔끔한 음료를 선호하시는 분
+* 냉장고에 음료를 넉넉하게 쟁여두고 싶으신 분
+하늘보리 325ml 20개입은 저에게 없어서는 안 될 필수템입니다. 갈증 해소는 물론, 속까지 편안하게 해주는 음료를 찾으신다면 하늘보리를 강력 추천합니다!</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>POD</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>5</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2025.07.22</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>깔끔하고 구수한 보리차</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>✅총평
+깔끔하고 구수한 맛이 매력적인 하늘보리 차음료는 집이나 사무실, 외출용으로도 부담 없이 즐기기 좋은 무카페인 음료입니다. 보리 특유의 향이 은은하게 퍼지면서도 목 넘김이 부드러워, 물 대용으로도 손색이 없습니다. 500ml의 적당한 용량과 20개입 구성으로 가성비도 괜찮고, 여름철 시원하게 냉장 보관해두면 더없이 좋은 음료입니다.
+⭐️장점
+- 무카페인 음료라 어린이부터 어르신까지 모두 안심하고 마실 수 있어요.
+- 구수하고 부드러운 보리향이 기분 좋게 퍼지며, 물처럼 부담 없이 마시기 좋아요.
+- 목 넘김이 부드럽고 깔끔해서 식사 중이든 운동 후든 언제 마셔도 잘 어울립니다.
+- 500ml라서 한 번에 마시기 딱 좋은 크기예요. 가방에 넣고 다니기도 편하고요.
+- 20개 대용량 구성이라 냉장고에 넉넉하게 채워두면 물 대신 계속 찾게 돼요.
+- 커피나 탄산음료 대용으로도 훌륭해서 물 대체 음료로 매우 만족스럽습니다.
+- 차갑게 마시면 갈증 해소에 탁월하고, 더운 날씨에 진짜 리프레시되는 느낌이에요.
+- 당이 없고 칼로리가 낮아 다이어트 중에도 부담 없이 즐길 수 있습니다.
+- 병 손에 잘 잡혀요.
+- 보관도 간편하고, 유통기한도 넉넉해서 쟁여두기에 딱 좋은 제품입니다.</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>정*훈</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>5</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2025.10.20</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>보리차 특유의 부드럽고 순한맛 음료 추천</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>마트나 편의점가면, 보리음료가 굉장히 많지요.
+저는 하늘보리만 구매해서 마시고 있어요.
+보리차 특유의 부드럽고 순한맛이 있어서,
+누구나 쉽게 마실수 있어요.
+또, 물대신 마실수 있어서, 너무 좋아요.
+크기가 크지 않아서, 휴대가 매우 편리해요.
+325ml로 뚜껑이 달려 있어서,
+먹다가 남겨도, 뚜껑을 닫아 놓을수 있어서,
+편리해요. 출근하거나, 학교갈때, 냉장고에서
+하나씩 꺼내서 가져가시면,
+가는 도중 시원하게 마실수 있어요.
+우리 입맛에 맞는 보리차라 생각하시면
+될것 같아요. 물대신 마실수도 있고,
+탄산이 없어서, 더부룩하지도 않고,
+하늘보리 음료를 추천합니다.</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>현명한설명</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2025.05.18</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>편하게 마시기 좋아요</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>내돈내산 구매 후기입니다
+구매시 참고 부탁드립니다 :)
+◾제 품 명: 하늘보리 차음료, 500ml, 20개
+—————————제품정보 요약————————
+✔휴대가 간편한 용량 굿!
+✔물 대신 마실 음료로 굿!
+✔남녀노소 좋아할 구수한 맛의 보리차!
+———————————————————————
+✅구매후기
+솔직히 물은 잘 안 먹고, 요즘 카페인
+줄이려고 이것저것 찾다가 하늘보리
+주문했어요! 전철로 학교 다닐 때 항상
+들고 다녔는데 오랜만에 먹어보네요!
+매번 역사 안 편의점에서 비싸게
+구매했는데 이젠 쿠팡에서 시켜서
+출근길에 들고 나가는 ㅎ
+하늘보리는 구수한 맛에 무카페인이라
+부담 없이 마시기 좋더라구요. 특히
+더운 날에 가지고 다니면서 목 마를 때
+물처럼 마셔도 진짜 좋아요.
+카페인이 없어서 수분 보충용으로
+제격이고, 보리 특유의 항산화 성분
+덕분에 몸에도 이롭다고 하더라고요!
+상세 페이지에서 보면 100%국산보리라고
+표기되어있어요! 믿을 수 있어서 좋아요.
+찾아보니까 피부나 위장에도 좋다는 말
+많아요!! 냉장고에 넣어두고 시원하게
+마시면 꿀맛이고, 병 디자인도 깔끔해서
+들고다니기 완전 만족 중이에요.
+&gt;아 밤에 갈증 날 때에 무카페인이라
+안심하고 마시고 있어요!&lt;
+저는 카페인에 약해서 밤에 잠 설칠 때가
+많은데 커피 대신에 마셔주니까 좋아요.
+이번에 쿠팡에서 여러 브랜드의 보리차를 샀는데
+하늘보리가 진짜 손이 잘 갑니다~! 맛이 강하지
+않은게 참 좋은 것 같아요! 제일 많이 마셨던
+기억이 있어서인지 정이 갑니다.ㅎㅎ
+⭐제 후기가 도움이 되셨다면 "도움이 돼요" 부탁드립니다!
+더 꼼꼼하고 세심한 리뷰로 보답 드리겠습니다</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>박*빈</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>5</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2025.09.22</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>하늘보리 꿀맛</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>최근 건강을 챙기고자 다양한 음료를 시도하는 중에, 하늘보리 음료를 알게 되어 구입하게 되었습니다. 하늘보리는 보리와 함께 여러 곡물 성분이 들어가 있어 몸에 좋은 음료라는 점에서 눈길이 갔어요. 500ml 용량으로 20개 세트라 한 번에 많은 양을 구입할 수 있어 가성비도 좋았습니다.
+음료를 한 모금 마시면, 먼저 부드럽고 깔끔한 맛이 느껴집니다. 과일이나 설탕이 많이 들어간 음료들과 달리, 하늘보리는 단맛이 과하지 않고, 보리 특유의 고소한 맛과 함께 시원하게 마실 수 있어 좋았어요. 특히 달지 않아서 자극적이지 않고, 부담 없이 여러 번 마시기 좋은 음료라고 생각됩니다.
+하늘보리 음료의 장점은 또 다른 점이 있습니다. 설탕이 많이 들어가 있지 않기 때문에, 당분을 제한하려는 사람들에게도 적합합니다. 일반적인 음료에서 느껴지는 지나치게 달콤한 맛이 아닌, 자연스러운 맛이라서 건강을 생각하는 사람에게 안성맞춤인 것 같아요. 저는 특히 더운 날씨에 마시면 정말 시원하고 기분 좋게 마실 수 있었습니다.
+500ml 대용량이기 때문에 여러 번 나눠 마시기에 적당하고, 사무실이나 집에서 여러 명이 함께 나눠 마시기에 좋았습니다. 다만, 대용량이다 보니 음료를 한 번에 모두 마시기보다는 여러 차례 나눠서 마시는 것이 더 효율적입니다. 개별적인 용량도 적당해서 언제 어디서나 들고 다니며 마시기에도 편리합니다.
+하늘보리 음료는 전반적으로 매우 만족스러웠습니다. 부담 없는 가격에 비해 품질이 뛰어나고, 마시고 나서의 가벼운 느낌이 다른 음료들보다 더 오래 지속되는 것 같아요. 또한, 꾸준히 마시면 건강에도 도움이 될 것 같다는 느낌을 받았습니다. 다만, 개인적인 취향으로는 조금 더 달콤한 음료를 선호하는 사람에게는 조금 아쉬울 수 있습니다.
+그 외에도, 제품이 너무 많이 한 번에 오다 보니 보관에 조금 어려움이 있었어요. 냉장고에 여러 개를 넣기엔 공간이 부족해서, 적당한 양씩 꺼내 마시거나 보관 공간을 잘 관리해야 한다는 점은 참고할 부분입니다.
+종합적으로 봤을 때, 하늘보리 음료는 건강한 음료를 찾고 있는 사람들에게 매우 추천할 만한 제품입니다. 달지 않지만 고소하고 상쾌한 맛이 마음에 들고, 가격 대비 만족도가 높아서 앞으로도 계속 구입할 의향이 있습니다.</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>김*윤</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>5</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2025.05.14</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 24개</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>휴대가 편리하고 구수해서 즐겨마십니다.</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>□제품명 : 하늘보리 음료
+□용량 : 325ml, 24개
+하늘보리 음료로 외부활동이나 차량으로 이동할때, 학교에서 개인음료수로 마시고있습니다.
+구수한 보리차로 입맛이 길들여져서 일반 생수보다 더 찾는것 같아요.
+□제품특징
+* 구수하고 깔끔한 맛
+볶은 보리를 주원료로 하여 집에서 끓여 마시던 보리차와 유사한, 자연스럽고 익숙한 맛입니다.
+* 갈증 해소
+물처럼 부담 없이 마실 수 있어 갈증 해소에 효과적입니다.
+* 무카페인, 무설탕
+카페인과 설탕이 없어 남녀노소 누구나 안심하고 즐길 수 있습니다.
+* 국산 보리 사용
+100% 국산 보리를 사용하여 만들어졌습니다. (일부 제품 기준)
+* 다양한 용량
+340ml, 500ml, 1.5L 등 다양한 용량으로 출시되어 용도에 따라 선택하기 용이합니다.
+* 0칼로리
+칼로리가 없어 다이어트 중에도 부담 없이 마실 수 있습니다.
+■보리음료 간접적인 효능
+* 수분 보충 및 탈수 예방
+체내 수분 유지에 도움을 줍니다.
+* 소화 기능 향상
+소화를 돕고 위장을 편안하게 해줍니다.
+* 혈액 순환 개선
+혈액 순환을 원활하게 하고 혈압을 낮추는 데 도움을 줄 수 있습니다.
+* 항산화 작용
+활성산소를 제거하여 세포 손상을 줄이는 데 기여할 수 있습니다.
+* 장 건강 개선
+식이섬유가 풍부하여 변비 해소 및 장 운동 활성화에 도움을 줄 수 있습니다.
+* 체온 조절
+몸에 열이 많은 사람에게 체온을 안정시키는 효과가 있을 수 있습니다.
+하늘보리는 일상생활에서 물 대신 부담 없이 즐기면서 보리차의 다양한 효능을 간접적으로 누릴 수 있는 음료입니다.</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>오드리갱</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>5</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2025.05.13</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>고소해요</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>주요 긍정적 반응:
+* 맛: "깔끔하고 시원해서 좋아요", "텁텁함 없이 목 넘김이 부드러워요", "구수한 보리차 맛 그대로라 질리지 않아요", "여름에 마시기 딱 좋아요" 와 같이 깔끔하고 구수한 맛에 대한 호평이 많습니다. 특히 인공적인 단맛이나 향이 없어 자연스러운 맛을 선호하는 분들에게 인기가 좋습니다.
+* 갈증 해소: "운동 후나 땀 흘린 뒤 마시면 갈증이 싹 해소돼요", "텁텁한 입안을 깔끔하게 정리해 줘요" 와 같이 뛰어난 갈증 해소 효과를 경험한 분들의 의견이 많습니다.
+* 휴대성: "페트병이라 휴대하기 편해요", "언제 어디서든 간편하게 마실 수 있어서 좋아요" 와 같이 휴대 용이성에 대한 만족도도 높습니다. 특히 외출 시나 운동 시 즐겨 찾는 분들이 많습니다.
+* 건강 이미지: "카페인도 없고 설탕도 없어서 안심하고 마실 수 있어요", "건강에 좋을 것 같은 느낌이에요" 와 같이 건강에 대한 긍정적인 이미지를 가진 분들이 많습니다. 특히 어린이나 임산부도 부담 없이 마실 수 있다는 점이 장점으로 언급됩니다.
+* 가격: "가격도 적당해서 부담 없이 마실 수 있어요", "행사할 때 쟁여놓고 마셔요" 와 같이 가격적인 메리트를 느끼는 분들도 있습니다.
+주요 부정적 반응 (드물지만 언급되는 내용):
+* 맛의 밍밍함: "너무 밍밍해서 맛이 잘 안 느껴져요", "좀 더 진한 보리차 맛을 원해요" 와 같이 맛이 약하다고 느끼는 경우도 있습니다.
+* 특별한 맛 부재: "그냥 평범한 보리차 맛이에요", "특별한 매력은 없는 것 같아요" 와 같이 특별한 맛을 기대했던 경우 실망감을 느낄 수 있습니다.
+* 보관: "여름철에는 냉장 보관하지 않으면 맛이 변하는 것 같아요" 와 같이 보관에 대한 주의를 요구하는 의견도 있습니다.
+최근 트렌드:
+* 다양한 용량 출시: 500ml, 1.5L 등 다양한 용량으로 출시되어 소비자의 필요에 따라 선택의 폭이 넓어졌습니다.
+* 친환경 패키징: 환경 보호에 대한 관심이 높아지면서 친환경적인 패키징을 적용한 제품들이 출시되고 있습니다.
+* 다른 곡물 혼합: 보리 외에 다른 곡물을 혼합하여 맛과 영양을 더한 제품들도 출시되고 있습니다.
+결론적으로, 하늘보리는 깔끔하고 시원한 맛, 뛰어난 갈증 해소 효과, 그리고 편리한 휴대성을 바탕으로 오랫동안 많은 사람들에게 사랑받는 음료입니다. 특히 건강을 생각하는 분들이나 깔끔한 맛을 선호하는 분들에게 좋은 선택이 될 수 있습니다.
+✅️ 내돈내산 리뷰입니다
+-----------------------------------------
+제가 사용해보고 남긴 후기글에 조금이라도 도움이 되셨다면
+'도움이 돼요 '⬇️⬇️⬇️⬇️버튼 꾹 한번만 부탁드려요~( ﾉ^ω^)ﾉ
+모든분들 행복하시고 기분 안좋은일 있을땐
+거기 한번 보고 ”학씨“ 오늘도 좋은 하루 되세요~~</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>루아</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>5</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2025.05.11</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>구수하고 담백한 하늘보리♡</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>하늘보리는 다양한 차에서 인기 있는 제품 중 하나로, 귀리에 해당하는 음료이다. 보리와 여러 곡물의 자연스러운 맛을 살려, 건강한 식단을 추구하는 요즘 사람들에게 딱인 제품이다 ^^
+슬슬 더워지는 날씨가 다가오면서 수분섭취가 가장 중요하다.
+그중에서도 물을 찾게되는데 생수도 좋지만 시원하게 하늘보리를 먹는순간 이 맛을 잊을수가 없다‼️‼️‼️
+가벼우면서도 건강해지고 갈증해소에도 좋아지는 효과를 볼수 있었다.
+1. 건강함: 하늘보리는 섬유질과 비타민, 미네랄이 풍부하여 소화에 도움을 줄 수 있습니다.
+2. 자연스러운 맛: 인공 향료나 첨가물 없이 자연의 맛을 살려서 건강한 대안으로 제공됩니다.
+3. 다양한 활용: 뜨거운 물에 우려내 마시거나, 요리에 활용하는 등 여러 가지 방법으로 즐길 수 있습니다.
+4. 가격대비: 다른 생수나 타제품에비해 가격까지 착하고 맛있으니 금상첨화이다.
+5. 용량 : 여러가지 사이즈가 다양해서 선택폭이 넓고
+유아용도 있어서 휴대하기 좋습니다.
+➡️➡️➡️남녀노소 좋아하는 하늘보리는 100%국산보리
+우리땅에서 자란 100%국산 곡물로 만들어
+더욱 깨끗하고 순수한차 음료이다. 그래서인지 더 믿고
+마실수 있다 ♥️♥️♥️
+집에서도 즐겨먹지만 여행갈때도 회사에서도 꼭 필수품으로 하나씩은 구비해 두게 된다.
+앞으로 더워지는 여름까지 하늘보리와 함께 할거 같고
+아이들까지 모두 좋아해서 항상 구매하는 이유이다‼️‼️‼️
+적극적으로 완전 강추한다 ^^</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>정직한녀석</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>5</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2025.09.09</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 1.5L, 24개</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>끓여 마시기 귀찮을 때 딱! 고소하고 깔끔한 하늘보리!</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>요즘처럼 바쁘고 날씨도 오락가락해서 이것저것 끓여 마시기 번거로울 때, 하늘보리는 정말 최적의 선택인 것 같아요! 냉장고에 시원하게 보관해두면 언제든 갈증 날 때마다 편하게 꺼내 마실 수 있어서 너무나 편리하고 고소한 맛에 저도 모르게 계속 손이 가네요.
+한 모금 마시면 보리 본연의 깊고 구수한 향이 입안 가득 은은하게 퍼지는데, 신기하게도 뒷맛은 또 너무나 깔끔해서 물처럼 부담 없이 계속 마실 수 있어요. 텁텁함이 전혀 없고, 인공적인 맛이 아니라 건강한 곡물 음료라는 점이 더욱 마음에 듭니다.
+물 대신 마시기용 최고!!!
+맹물을 마시는 게 지루하게 느껴질 때, 하늘보리는 맛있고 건강한 대안이 되어주어 꾸준한 수분 섭취에도 큰 도움이 된답니다. 남녀노소 누구나 좋아할 만한 친숙하고 편안한 맛이라 온 가족이 함께 즐기기에도 정말 좋습니다. 앞으로도 계속 재구매해서 마실 예정입니다. 아주 만족스러워요!</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>한입만</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>5</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2025.05.08</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 1L, 12개</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>하늘보리 1L</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>『하늘보리 1L, 12개입』은
+깔끔한 보리 고유의 구수함과 시원함을 동시에 느낄 수 있는 액상 곡물음료로,
+부드러운 보리향과 은은한 단맛이 조화를 이루어
+남녀노소 부담 없이 즐길 수 있으며,
+베타글루칸을 비롯한 보리의 기능성 성분이 수분 보충과
+건강 관리에 도움을 줍니다.
+PET 1ℓ 대용량 페트가 12개로 구성되어 있어 보관과 활용이 편리하고,
+여름철 냉음료나 겨울철 온장 음료로 모두 이용 가능한 다재다능함이 돋보입니다.
+⚫ 맛
+하늘보리는 구수한 보리향이
+입안 가득 퍼지면서도 과하지 않은 은은한 단맛이 어우러져 깔끔하게 마무리되는 맛이 특징입니다
+특히 부드러운 목 넘김으로 차갑게 마셔도 목이 칼칼하지 않아, 물 대신 마시기에도 부담이 없습니다
+다양한 연령대가 선호하는 균형감 있는 맛 덕분에,
+어린이부터 어르신까지 함께 즐길 수 있습니다
+⚫ 효용성
+보리는 식물성 섬유소인 베타글루칸이 풍부해
+혈중 콜레스테롤 수치 조절과 심장 질환 예방에 도움을 줄 수 있습니다
+또한 보리 성분은 체내 열을 식혀주고
+갈증 해소에 효과적이어서,
+운동 후나 더운 날씨에 수분 보충 음료로 제격입니다
+영양 분석 결과 100ml당 1kcal 미만의 저칼로리로,
+다이어트 중인 분들도 부담 없이 마실 수 있습니다
+⚫ 제품 특징
+1L 대용량 PET 페트병에 담겨 있어 냉장고 보관 시
+정수기 물 대신 꺼내 두기 편리하며, 한 번에 충분한 양을 마실 수 있습니다
+12개들이 박스 포장으로 제공되어 가격 대비 가성비가 뛰어나며,
+모임·가정·사무실에서 두루 활용하기 좋습니다
+완전 방수 라벨과 넉넉한 유통기한(제조일로부터 12개월)로 장기 보관에 적합하며,
+겨울철에는 내열 PET로 출시된 온장 제품으로도 즐길 수 있습니다
+카페인 무첨가, 글루텐 프리로 알레르기 부담이 적고,
+물 대신 마실 수 있는 순수 곡물음료라는 점이 큰 장점입니다
+✿ 하늘보리는
+구수한 맛과 건강 기능성, 편리한 대용량 구성을 모두 갖춘 제품으로,
+일상 속 언제 어디서나 부담 없이 즐길 수 있는 액상 곡물음료입니다. ✿
+리뷰가 도움이 되었다면,
+[ 도움돼요 ] 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>소랭이</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>5</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2025.04.29</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>고소하고 깔끔해요.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>▶️ 제품명: 하늘보리 차음료
+▶️ 주문옵션: 500ml, 20개
+▶️ 주문날짜: 2025. 3. 10
+▶️ 배송날짜: 2025. 3. 11
+✔️ 구매 이유 &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;
+물을 많이 마시려고 하는데 그냥 맹물이 잘 안 먹힐때가 있어요.
+예전에는 보리차를 끓여서 먹기도 했는데 그것도 점점 귀찮아지더라고요. 
+하늘보리 같은 차음료를 대량으로 사놓고 물이 안 먹힐때 먹고  있는데 그중에 하늘보리가 제일 맛있어요.
+냉장고에서 꺼내 시원하게 한모금 마시고나면 속이 뻥 뚫린것같은 느낌~ 냉장고에 2~3병씩은 넣어놓아야하는데 몇병 남지않아 재구매했어요.
+**-------------------------------***---------------------
+✔️ 맛과 향 &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;
+하늘보리는 뚜껑을 열자마자 볶은 보리의 고소한 향이 확 풍기는 음료에요.
+당분이 없는 무가당 음료로 고소하고 담백한 맛이 있어서 마셨을때 입안이 텁텁하지 않고 깔끔해요.
+목넘김이 부드러워서 밥먹을때 곁들여도 좋고, 시원하게 마시면 구수한 맛이 더 살아납니다.
+은은하게 볶은 보리의 고소한 향이 나면서도 깔끔해서 매일 마셔도 질리지 않고 마시기 좋아요.
+✔️ 제품 특징 &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;
+* 무카페인
+카페인이 전혀 들어있지 않아 어린이, 임산부, 카페인 민감자도 부담 없이 마실 수 있어요
+* 무설탕 &amp; 무칼로리
+당분이 없는 0kcal이기 때문에 다이어트 중인 사람이나 당 섭취를 줄이고 싶은 분들께 좋아요.
+* 무첨가물
+인공 감미료나 색소, 방부제 등이 들어가지 않은 자연 그대로 깔끔한 맛의 음료에요.
+* 구수하고 담백한 맛
+은은하게 볶은 보리의 고소한 향이 나면서 깔끔해서 언제나 질리지 않고 마시기 좋아요.
+* 목 넘김이 부드러움
+기름지거나 텁텁한 느낌이 전혀 없고, 입안이 개운하게 정리되는 느낌이에요.
+**-------------------------------***---------------------
+✔️ 총평 &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;
+하늘보리는 건강한 느낌으로 언제 마셔도 몸에 좋은 느낌이 들어요. 차갑게 마셨을때 더욱더 맛있는 음료로 앞으로도 계속 먹을 생각입니다.
+재구매 의사 100%입니다.</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Haaaaaah</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>5</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2025.04.28</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>❗️은은하게 구수한맛❗️</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>▶️ 제품명
+하늘보리 차음료, 500ml, 20개
+▶️ 선택동기
+부모님이 어릴때부터 보리차만 끓여주셨어요~
+보리차가 구수하고 맛있잖아요?
+어디가서 그냥 생수를 먹으면 닝닝한듯 살짝 물내도 나는것같고
+진짜 못먹겠더라구요~
+커서는 생수도 먹긴하지만 물 살일이 있으면
+옥수수수염차나 보리차를 꼭 사게 돼요ㅎㅎ
+하늘보리를 주기적으로 구매중인데
+그이유는 최근에 병원에 입원을 한적이있는데
+물을 많이 먹으라는 선생님말에~
+편의점에서 여러종류의 물을 사먹어봤는데
+그중에서 하늘보리가 제 입맛에 딱이더라구요!
+그래서 퇴원후 하늘보리를 계속 주문중입니다^^
+▶️ 제품소개 요약정리!
+✔100%국산보리
+우리땅에서 자란 100% 국산 곡물로 만들어
+더욱 깨끗하고 순수한 차
+✔️생활 속 갈증 해소
+냉성곡물 ’보리‘를 사용해 몸 속 갈증까지
+시원하게 해소해주는 생활 속 갈증해소 음료
+✔️깔끔하고 구수한 맛
+집에서 끓여 마시던 보리차의 맛 그대로,
+깔끔하고 구수한 맛을 자랑함
+✔️어린이용 유기농 하늘보리
+유기농 국산 곡물로 만든 어린이용 보리차,
+어린이에게 안성맞춤! 유기농 하늘보리도 있음
+▶️ 사용후기
+무거워서 배송기사분께는 죄송한 마음이지만
+다음날 바로 도착하는 쿠팡로켓 못잃어…
+맛은 은은하게 구수한 맛이예요!
+다른 보리차는 너무 진하거나 다크?한 맛이나서 별로구요~
+이건 누구나 먹어도 호불호 없는 맛이라
+5살 아이도 꿀떡꿀떡 잘 마셔요^^
+아이들 입맛이 찐으로 솔직하잖아요~
+맛없으면 바로 뱉을텐데 너무 잘먹으니 하원할때 한병씩
+꼭 챙겨나가요!
+회사갈때, 나들이갈때, 아이 하원할때
+편하게 들고가기 너무 좋아요 :)
+저희집 펜트리에 무조건 쟁여놓는 필수 물이 되어버렸어요!
+〰️〰️〰️〰️〰️〰️〰️〰️〰️〰️〰️〰️〰️
+쿠팡 없이 못사는 주부가 직접 사용후
+솔직한 느낀점은 적은 후기입니다☺️
+조금이라도 도움이 되셨다면 '도움이 돼요' 꼭! 눌러주세요.</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>일산서구민</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>5</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2025.04.28</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 40개</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>휴대성이 좋아서 들고 다니기 좋고, 구수하고 맛있어요.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>안녕하세요. 쿠팡리뷰어 일산서구민 입니다.
+웅진식품 하늘보리 차 음료 325ml 40병에 대한 상품평 입니다.
+우리아이는 원래 하늘보리 500ml짜리를 마시고 있는데, 학교에 가지고 다니다보니 가방이 무거워지는 문제가 생겼습니다. 그래서 담임선생님께서 아이가 약간 더 작은 물을 가지고 다니는 것이 좋겠다는 의견을 주셨고, 그 의견을 반영하여 학교에 가지고 다니는 물은 325ml로 바꾸게 되었습니다. 그러니 훨씬 더 가볍고 아이가 들고 마시기 좋다고 합니다. 물론 500ml짜리도 충분히 들고 마실 수는 있지만, 가지고 다니기에는 325ml가 더 편리한 것 같습니다.
+시원하고 개운하며, 구수한 맛이라 물을 많이 마시게 되는 효과가 있습니다.
+단순하게 접근해보아도, 보리차는 일반 생수보다 맛있으므로, 아무래도 물을 더 많이 마시게 되는 효과가 있습니다. 특히 우리아이 같은 경우는, 물을 많이 마셔야 건강회복에 도움이 되므로, 어떻게해서든 물을 많이 마시게 하는 것이 유리합니다. 그래서 계속 하늘보리만 사먹이고 있는데, 구수하고 맛이 좋다보니, 실제로 더 많이 마시게 되었습니다.
+상온에서도 보관이 가능하고, 소비기한이 길어서 관리하기 수월합니다.
+물론 집에서 보리차를 끓여도 되겠지만, 가정에서 아무리 관리를 잘한다고 해도, 세균증식을 막을 수는 없습니다. 그래서 차라리 멸균 보리차를 사먹는 것이 안전하다는 의료진의 의견이 있었습니다. 이에따라 저도 집에서 보리차를 끓이지 않고 있으며, 멸균처리된 보리차를 구입해서 마음놓고 먹이고 있습니다. 또한 상온보관도 되니 간편합니다.
+여러분들께도, 웅진식품의 하늘보리를 추천드립니다. 품질좋고 안심하고 마실 수 있는 물입니다. 감사합니다.</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>일산서구민</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>5</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2025.04.28</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 40개</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>구수하고 시원하며 갈증이 해소되는 보리차입니다.</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>안녕하세요. 쿠팡리뷰어 일산서구민 입니다.
+웅진식품의 하늘보리 500ml 40개에 대한 구매후기 입니다.
+우리아이가 물을 하늘보리만 마시고 있기 때문에, 이번에도 또 재구매하였습니다. 처음엔 200ml로 시작했다가 점차 크면서 350ml로 바꿨고, 이제는 집에서 혼자 들고 마실 수 있는 크기인 500ml를 먹이고 있습니다. 350ml는 학교에만 가져가고 있습니다. 아이가 어릴 때 병원에 오래 있었기 때문에, 이를 치료하는 과정에서 의료진의 권고로, 감염위험이 없는 멸균보리차만 마실 수 있었고, 이제 하늘보리가 너무 익숙해져서 지금도 이 물만 마시고 있습니다.
+디자인이 다시 바뀐 것 같습니다. 그리고 상온에서 보관이 가능합니다.
+지난번 주문때까지만 하더라도, 하늘색 뚜껑이었고, 전국의 국립공원의 그림이 들어가있는 디자인이었습니다. 그런데 이번에 주문해보니 다시 원래대로의 깔끔한 디자인으로 돌아온 것 같습니다. 소비기한은 멸균보리차인 만큼 상당히 긴 편인데, 2026년 3월 4일까지로 거의 일년이나 남았습니다. 그리고 굳이 냉장고에 보관하지 않아도 되며, 상온에서도 보관할 수 있으므로 관리적인 측면에서도 정말 편리합니다. 또한 휴대성도 좋아서 가지고 다니기 좋습니다.
+구수하고 시원하니 갈증이 싹 해소되는 보리차 입니다.
+깔끔하고 구수한 맛이나며, 일반 생수보다 훨씬 더 맛있습니다. 그래서 그런지 더 많이 마시게 되는 것 같습니다. 또한, 갈증을 해소해주는 효과도 뛰어나므로, 여러모로 장점이 많습니다. 앞으로도 꾸준히 사먹겠습니다. 감사합니다.</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>서재민</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>5</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2025.05.02</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 1.5L, 12개</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>커피 대신 뭔가 가볍고 건강한 음료 찾고 있으면 추천!</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Review : 맛있는 하늘보리 리뷰
+커피 자주 마시다 보니 카페인 때문에 몸에 안 좋을 것 같아서 속도 쓰린것도 같아서
+커피 대신 마실 뭔가를 찾다가 하늘보리를 먹기 시작했습니다 집에서 애들이 좋아해서 한박스씩 사다 두었는데
+회사에서 먹을 생각 못하다가 커피대신에 먹기시작했는데 생각보다 너무 괜찮아서 후기 작성 고고고 합니다
+✔️ 맛
+처음엔 물 같은 맛 아닐까 걱정했는데, 맛이 꽤 구수하고 부드럽습니다.
+뭔가 칙칙한 맛이 아니라 시원하고 깔끔해서, 커피 대신 마셔도 괜찮아요.
+달지도 않고, 부담 없이 쭉쭉 마실 수 있는 맛이에요.
+✔️ 음료로서의 만족도
+회사에서 커피 대신 마시기 딱 좋은 음료입니다.
+점심 후나 오후에 마시면 속도 편하고, 카페인 없이 상쾌하게 일할 수 있어요.
+여름엔 차갑게 마시면 정말 시원하고, 계속 마시게 되네요.
+✔️ 포장 &amp; 유통기한
+1.5L 대용량이라 한 번 사면 꽤 오래 마실 수 있어요.
+12개 세트로 한 번에 사면 가격도 괜찮고, 유통기한도 여유 있게 되어 있어서 급하게 마실 필요 없어요.
+사무실에 두고 차근차근 마시기 딱 좋아요.
+✔️ 재구매 의사
+커피 대신 건강하게 마시기 좋고, 가격도 부담 없어서 **재구매 의사 100%**입니다.
+이제 아침에 커피 대신 하늘보리 마시는 날이 많아졌고 커피 끊었더니 몸도 좋아지는 기분입니다! ㅎ
+───────────────────────
+□ 제품명 : 하늘보리
+□ 브랜드 : 웅진
+□ 옵션 : 1.5L, 12개
+───────────────────────</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>3126dbs</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>5</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2025.10.18</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>고소해서 아이가 보리 음료는 이것만 먹어요</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>✅가격이 저렴한 편이라 부담 없이 사두고 마시기
+좋네요 특히 저는 큰 병보단 이 325ml 사이즈가
+딱 먹기 좋더라고요 500ml는 열어놓고 다 못 마셔서
+버릴 때가 많은데, 이건 한 번에 마시기 알맞은 양이라
+아깝지 않게 딱 떨어지게 마실 수 있었어요
+일반 보리차 맛 그대로라서 별로 자극적이지 않고
+깔끔해서 탄산음료나 이온음료 대신 이걸로 아이에게
+먹이고 있는데요 아이가 탄산음료보다 훨씬 맛있게
+잘 먹어줘요 ( 참고로 아이는 중학생입니다 )
+재활용도 편리하고 작은용량이기 때문에 냉장고에
+보관할때도 큰 불편함이 없었어요</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>김*진</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>5</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 1L, 12개</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>여름 갈증에 필수✨</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>저는 정수기 물은 뭔가 밍밍하고 맛이 없게 느껴지고 또 그렇다고 생수를 좋아하지도 않는 입장으로 보리차만한게 없더라구요‼️ 게다가 항상 어렸을 때 집에서 보리차를 끓여놓은걸 먹었던터라 더더욱 생수가 안 먹어져요ㅠㅠ
+그래서 혼자살게되면서 바로 주문한게 하늘 보리인데요!!
+쿠팡에서 주문하면 당연히 로켓배송이다보니 다음날 오는 장점도 있는데 일반생수보다 물먹는양이 늘어나서 전 혼자 스스로 만족하고 있답니다
+맛은 고소한 보리차맛인데 그리 진하지 않아서 누구나 처음먹어도 접하기 쉬울만큼 연한맛이에요ㅎㅎ 대용량도 판매하지만 전 한번 뜯으면 또 오래놔두는걸 싫어해서 항상 1리터로만 주문하는데 딱 알맞는 양이랍니다!!
+요즘같이 더워지는 날씨에는 냉장고에 넣어놨다 시원하게 한입하면 갈증이 싹~~ 씻겨지는듯해서 더더욱 만족스러워요!!
+게다가 저처럼 혼자 자취하시는분들이라면 물은 쟁여두잖아요 항상? 너무많이 쟁여둬도 자리차지만 하는데 딱 12병이라 냉장고에 보관하기도 적당하고 최고최고
+보리차좋아하시는 분들은 무조건 추천드립니다요ㅎㅎㅎ
+저도 보리차 먹지만 남자친구도 집에서는 보리차만 먹어요!! 그만큼 접하기 쉽고 마시기 쉽고 맛있는 하늘보리 최고</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>그래이거야</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>5</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2025.04.11</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 24개</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>고소하고 깔끔한 국민 보리차템!</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>내돈내산입니데이✨️
+---
+하늘보리 500ml, 24개 후기입니당
+"물은 싱겁고, 탄산은 부담스럽고, 주스는 달아서 질려" 하는 분들께 추천하는 중간계의 음료, 바로 하늘보리입니다!
+고소하고 부드러운 맛, 마치 찜질방에서 마시던 그 전설의 보리차를 병에 담아 온 느낌이에요. 시원하게 냉장고에 넣어두면 어른도 아이도 밥 먹고 난 뒤, 또는 간식 먹을 때 찰떡처럼 꺼내 마시게 됩니다.
+500ml 용량은 부담 없고 한 손에 착 감겨서 외출 시에도 간편하고요, 식사할 때 물 대신 놓아도 너무 잘 어울려요. 라벨이 붙어 있어 다 마신 후 분리수거할 때 라벨 제거는 살짝 귀찮지만, 고소한 맛과 깔끔한 음용감이 이 모든 수고를 잊게 합니다. 게다가 따로 끓이지 않아도 되니, 바쁜 아침엔 그냥 가방에 하나 쏙—이게 진짜 엄마템이에요.
+카페인 없어서 늦은 밤에도 안심하고 마실 수 있고, 기름진 음식 먹고 나서 입 헹굴 겸 마시면 진짜 개운해요. 가족들이 자꾸 몰래 꺼내 마셔서 “이건 엄마 몫이야!”라고 이름 써놨을 정도예요.
+맛도 담백하고 고급진데, 가격까지 착해서 한 박스 사놓으면 든든해요. “이 정도면 정수기보다 더 잘 마신다”는 생각이 절로 듭니다. 다음엔 24개 말고 48개 도전할 예정이에요!
+---
+부족한 영어실력이지만 우리나라에 살고있는 외국인들을 위해 영문후기 짧게 함께 남깁니다!
+This barley tea is smooth, nutty, and caffeine-free—perfect for all ages and meals. Convenient size and super refreshing!
+---
+---</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>송*혜</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>5</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2025.04.09</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>고소한 하늘보리 징~~짜 맛있어요~</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>하늘보리~~는 사랑입니다.
+떨어지지않게 늘 쟁여놓고먹고있어요^^
+저희집은 생수보다는 물을 끓여먹고있거든요~^^
+물끓여먹는습관은 저어렸을때부터라 지금까지도 끓여먹고있답니다.
+예전엔 항상 보리차물을 주로 끓여마셨는데 이것도 늘끓여먹던거지만 귀차니즘이되더라고요~
+긍데 예~~~전 어느날 어느순간 하늘보리를 맛보던날부터는 주전자로 끓여먹는거 이제그만!!!^^
+그때부터였던것같아요. 그때부터 하늘보리가 쟁여템이 된것같아요
+물떨어지지않게 항상 주문해서 먹고있답니다❤
+맛도향도 고소고소하고 목넘김좋고 솔직히 끓여먹는것보다 더맛있어요
+편리하기도하고~^^
+저희집 아이들도 하늘보리 너무 좋아해요~^^
+미리수도 325미리, 500미리, 1리터,1.5리터!!!용량별로 사놓고 먹고있어요~
+저희딸 학교갈땐 물매일싸주는데 325미리짜리 하나씩 가방속에 쏘옥 넣어준답니다.
+생수 싸줄때도있지만 다안먹고 남겨올때가 많더라고요.
+긍데 하늘보리는 다비우고오니 너무너무 좋더라고요~^^
+아들은 325미리보다 좀더큰 500미리로 싸주고.~남자아이라 물이 많이 모자랄때가있어 500미리 2개싸줄때도 많이 있답니다.
+다른브랜드 보리차도 여러번 마셔봤는데 하늘보리 따라갈만한 보리차는 없더라고요~~♡
+하늘보리는 없어선 안될 인생물이예요^^
+325미리는 또 칼로리도 0칼로리!!!랍니다.
+그리고 국산100프로 보리로 만들어졌어요~
+요고요고 안먹어본사람은 있어도 한번만 먹어도사람은 없을듯해요~~
+시원하게해서 먹으면 더맛있는 하늘보리!! 고소고소하게 마셔보세용~~</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>호해바라기</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>5</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2025.04.08</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 325ml, 20개</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>즐겨 이용하는 물품이 되었습니다. 깔끔하고 맛나요!</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>하늘보리음료, 맛이 있는 멋진 먹거리 보리차입니다! 물품 품질이 좋고 먹기에 아주 넉넉합니다. 강력히, 추천합니다.
+비슷한 물품을 찾던 중 품질이 좋고 맛있어 보여 여러모로 쓸모가 있어 구매했습니다. 갈무리를 잘하여 간편하게 이용하고 오랫동안 자주 이용해 보렵니다. 추천합니다!
+포장이 과하지 않고 적당하게 잘 처리 되었고, 신속하고 안전한 배달이 정확하게 바로 잘 만족스럽게 이루어졌어요!
+품질이 좋아 남아있는 다른 재료와 같이 조합되어 어우러져 넉넉하고 손쉽게 맛진 차림이 가능하여 어디서나 잘 어울립니다. 강력히 추천합니다!
+물품의 구입 가성비가 좋아 부담이 적은 적정 가격에 구입을 해 볼 수 있겠다 싶어 좋은 상품 찾기에 도전해 볼 의도로 구매했습니다. 시간을 조금 들여 쿠팡 물품을 찬찬히 잘 살펴보면 숨어있는 멋진 유용한 쿠팡 물품을 만나고 선택을 할 수 있습니다. 필요시 구입하여 간편하게 이용하고 오래 자주 기꺼이 즐겨보세요. 추천합니다!
+기회가 되면 재구입도 해 보려고 합니다. 쿠팡 물품 선택은 계속적인 관심을 가지고 찬찬히 살펴보면 눈에 보이는 것이 있습니다. 자신의 물품 선택의 기준과 수준이 점차 업그레이드가 됩니다. 가격을 비교해 보고 다양한 물품 중에서 자신이 원하는 상품을 찾아냅니다.
+새로운 물품을 보는 눈도 긍정적으로 관대하게 키워 집니다. 숨겨진 다른 기능을 찾아보기도 하는 재미를 주어 쿠팡을 통한 평생 학습의 기회를 덤으로 가집니다.
+정말 좋은 상품을 적정한 가격에 구입하는 쿠팡체험을 하게 되어, 자신의 생활이 좀더 여유롭고 많이 풍요로워 졌습니다. 쿠팡 구매를 통한 삶의 질이 한 단계 업그레이드 되어 좀더 나은 자신을 완성하기에 한 걸음 더 다가가 봅니다.
+기회가 되면 좀 더 수준있는 쿠팡의 스마트한 멋진 새로운 제품에도 용기를 내어 도전하고 인생 배움에 한 걸음 더 넓고 깊게 물품 체험을 시도해 보려합니다. 쿠팡하다 인생순삭!
+사랑합니다, 감사합니다, 응원합니다! 힘내시고, 화이팅!... .</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>세계최고</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>5</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2025.07.25</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>웅진 하늘보리, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>가볍게 물처럼 마시기 좋아요~~</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>‘하늘보리 차음료 500ml 20개입’을 여러 번 구매해 마시고 있는데요~ 여름철 냉장고 필수템~!!
+쭉~~~ 먹고 남기는 솔직하고 자세한 후기입니다~
+● 보리 특유의 구수하고 깔끔한 맛이 좋고, 당이 없어 부담 없이 자주 마시기 좋아요~
+● 커피나 탄산음료 대신 수분 보충용으로도 좋고, 아이들 음료로도 안심하고 줄 수 있어 온 가족 음료로 추천~!!!
+● 외출용으로 구매했는데 아이들이 정수기 물안마시고 이것만 주로 먹네요~;; ㅎ
+● 페트병 용량도 500ml라 외출할 때 들고 다니기 딱 좋고, 가방에 넣기에도 부담 없는 사이즈예요~
+● 병 디자인도 심플하고 예뻐서 냉장고에 쭉 세워 놓으면 정리된 느낌이 들어 만족스럽네요~
+● 무엇보다 실온 보관이 가능해서 대량 구매해 두어도 공간 활용에 부담이 적고, 20개입 구성이라 가격대비 만족도도 굳~!!!
+● 총평
+구수하고 순한 맛의 보리차~
+정말 시원하게 물처럼 가볍게 마시기 좋아요~
+최대한 사진을 자세히 찍었으니 참고하시면 매결정에 도움이 되실거예요~
+이상 내돈내산 솔직한 후기!! 많은 도움이 되셨으면 좋겠습니다~
+==========================================
+저의 후기가 도움이 되셨나요?
+그렇다면 "도움이 돼요"를 눌러주세요~ *.☆⸜(⑉˙ᗜ˙⑉)⸝♡.*
+==========================================</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
